--- a/DaneDoTestów.xlsx
+++ b/DaneDoTestów.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId2"/>
@@ -670,7 +670,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -705,6 +705,18 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -846,10 +858,10 @@
   </sheetPr>
   <dimension ref="A1:AX43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AK1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="AK1" activeCellId="0" sqref="AK1"/>
-      <selection pane="bottomLeft" activeCell="AX52" activeCellId="0" sqref="AX52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AL1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="AL1" activeCellId="0" sqref="AL1"/>
+      <selection pane="bottomLeft" activeCell="AX42" activeCellId="0" sqref="AX42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3749,7 +3761,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
@@ -3836,32 +3848,32 @@
         <v>0</v>
       </c>
       <c r="AA17" s="7" t="n">
-        <f aca="false">IF(M17="TAK",Arkusz3!$B$19*J17,0)</f>
-        <v>5</v>
+        <f aca="false">IF(M17="TAK",Arkusz3!$B$20*J17,0)</f>
+        <v>10</v>
       </c>
       <c r="AB17" s="7" t="n">
-        <f aca="false">IF(N17="TAK",Arkusz3!$B$19*J17,0)</f>
+        <f aca="false">IF(N17="TAK",Arkusz3!$B$21*J17,0)</f>
         <v>0</v>
       </c>
       <c r="AC17" s="7" t="n">
-        <f aca="false">IF(O17="TAK",Arkusz3!$B$19*J17,0)</f>
+        <f aca="false">IF(O17="TAK",Arkusz3!$B$22*J17,0)</f>
         <v>0</v>
       </c>
       <c r="AD17" s="7" t="n">
-        <f aca="false">IF(P17="TAK",Arkusz3!$B$19*J17,0)</f>
+        <f aca="false">IF(P17="TAK",Arkusz3!$B$23*J17,0)</f>
         <v>0</v>
       </c>
       <c r="AE17" s="7" t="n">
-        <f aca="false">IF(Q17="TAK",Arkusz3!$B$19*J17,0)</f>
+        <f aca="false">IF(Q17="TAK",Arkusz3!$B$24*J17,0)</f>
         <v>5</v>
       </c>
       <c r="AF17" s="7" t="n">
-        <f aca="false">IF(R17="TAK",Arkusz3!$B$19*J17,0)</f>
+        <f aca="false">IF(R17="TAK",Arkusz3!$B$25*J17,0)</f>
         <v>0</v>
       </c>
       <c r="AG17" s="7" t="n">
         <f aca="false">SUM(Z17:AF17)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AH17" s="7" t="n">
         <f aca="false">IF(L17="Nie",0,5)</f>
@@ -3897,7 +3909,7 @@
       </c>
       <c r="AP17" s="7" t="n">
         <f aca="false">IF(AI17&gt;5,AA17*0.2*(AI17-5)+AA17,AA17)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AQ17" s="7" t="n">
         <f aca="false">IF(AJ17&gt;5,AB17*0.2*(AJ17-5)+AB17,AB17)</f>
@@ -3921,17 +3933,17 @@
       </c>
       <c r="AV17" s="7" t="n">
         <f aca="false">SUM(AO17:AU17)+Y17</f>
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AW17" s="7" t="n">
         <f aca="false">IF(S17="Roczna",AV17*12*0.95,AV17)</f>
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AX17" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
@@ -4018,32 +4030,32 @@
         <v>0</v>
       </c>
       <c r="AA18" s="7" t="n">
-        <f aca="false">IF(M18="TAK",Arkusz3!$B$19*J18,0)</f>
-        <v>10</v>
+        <f aca="false">IF(M18="TAK",Arkusz3!$B$20*J18,0)</f>
+        <v>20</v>
       </c>
       <c r="AB18" s="7" t="n">
-        <f aca="false">IF(N18="TAK",Arkusz3!$B$19*J18,0)</f>
+        <f aca="false">IF(N18="TAK",Arkusz3!$B$21*J18,0)</f>
         <v>0</v>
       </c>
       <c r="AC18" s="7" t="n">
-        <f aca="false">IF(O18="TAK",Arkusz3!$B$19*J18,0)</f>
-        <v>10</v>
+        <f aca="false">IF(O18="TAK",Arkusz3!$B$22*J18,0)</f>
+        <v>20</v>
       </c>
       <c r="AD18" s="7" t="n">
-        <f aca="false">IF(P18="TAK",Arkusz3!$B$19*J18,0)</f>
+        <f aca="false">IF(P18="TAK",Arkusz3!$B$23*J18,0)</f>
         <v>0</v>
       </c>
       <c r="AE18" s="7" t="n">
-        <f aca="false">IF(Q18="TAK",Arkusz3!$B$19*J18,0)</f>
+        <f aca="false">IF(Q18="TAK",Arkusz3!$B$24*J18,0)</f>
         <v>10</v>
       </c>
       <c r="AF18" s="7" t="n">
-        <f aca="false">IF(R18="TAK",Arkusz3!$B$19*J18,0)</f>
-        <v>10</v>
+        <f aca="false">IF(R18="TAK",Arkusz3!$B$25*J18,0)</f>
+        <v>24</v>
       </c>
       <c r="AG18" s="7" t="n">
         <f aca="false">SUM(Z18:AF18)</f>
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AH18" s="7" t="n">
         <f aca="false">IF(L18="Nie",0,5)</f>
@@ -4076,7 +4088,7 @@
       </c>
       <c r="AP18" s="7" t="n">
         <f aca="false">IF(AI18&gt;5,AA18*0.2*(AI18-5)+AA18,AA18)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AQ18" s="7" t="n">
         <f aca="false">IF(AJ18&gt;5,AB18*0.2*(AJ18-5)+AB18,AB18)</f>
@@ -4084,7 +4096,7 @@
       </c>
       <c r="AR18" s="7" t="n">
         <f aca="false">IF(AK18&gt;5,AC18*0.2*(AK18-5)+AC18,AC18)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AS18" s="7" t="n">
         <f aca="false">IF(AL18&gt;5,AD18*0.2*(AL18-5)+AD18,AD18)</f>
@@ -4096,21 +4108,21 @@
       </c>
       <c r="AU18" s="7" t="n">
         <f aca="false">IF(AN18&gt;5,AF18*0.2*(AN18-5)+AF18,AF18)</f>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AV18" s="7" t="n">
         <f aca="false">SUM(AO18:AU18)+Y18</f>
-        <v>184.5</v>
+        <v>218.5</v>
       </c>
       <c r="AW18" s="7" t="n">
         <f aca="false">IF(S18="Roczna",AV18*12*0.95,AV18)</f>
-        <v>2103.3</v>
+        <v>2490.9</v>
       </c>
       <c r="AX18" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
@@ -4197,32 +4209,32 @@
         <v>0</v>
       </c>
       <c r="AA19" s="7" t="n">
-        <f aca="false">IF(M19="TAK",Arkusz3!$B$19*J19,0)</f>
+        <f aca="false">IF(M19="TAK",Arkusz3!$B$20*J19,0)</f>
         <v>0</v>
       </c>
       <c r="AB19" s="7" t="n">
-        <f aca="false">IF(N19="TAK",Arkusz3!$B$19*J19,0)</f>
+        <f aca="false">IF(N19="TAK",Arkusz3!$B$21*J19,0)</f>
         <v>0</v>
       </c>
       <c r="AC19" s="7" t="n">
-        <f aca="false">IF(O19="TAK",Arkusz3!$B$19*J19,0)</f>
+        <f aca="false">IF(O19="TAK",Arkusz3!$B$22*J19,0)</f>
         <v>0</v>
       </c>
       <c r="AD19" s="7" t="n">
-        <f aca="false">IF(P19="TAK",Arkusz3!$B$19*J19,0)</f>
+        <f aca="false">IF(P19="TAK",Arkusz3!$B$23*J19,0)</f>
         <v>0</v>
       </c>
       <c r="AE19" s="7" t="n">
-        <f aca="false">IF(Q19="TAK",Arkusz3!$B$19*J19,0)</f>
+        <f aca="false">IF(Q19="TAK",Arkusz3!$B$24*J19,0)</f>
         <v>0</v>
       </c>
       <c r="AF19" s="7" t="n">
-        <f aca="false">IF(R19="TAK",Arkusz3!$B$19*J19,0)</f>
-        <v>10</v>
+        <f aca="false">IF(R19="TAK",Arkusz3!$B$25*J19,0)</f>
+        <v>24</v>
       </c>
       <c r="AG19" s="7" t="n">
         <f aca="false">SUM(Z19:AF19)</f>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AH19" s="7" t="n">
         <f aca="false">IF(L19="Nie",0,5)</f>
@@ -4277,21 +4289,21 @@
       </c>
       <c r="AU19" s="7" t="n">
         <f aca="false">IF(AN19&gt;5,AF19*0.2*(AN19-5)+AF19,AF19)</f>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AV19" s="7" t="n">
         <f aca="false">SUM(AO19:AU19)+Y19</f>
-        <v>134.5</v>
+        <v>148.5</v>
       </c>
       <c r="AW19" s="7" t="n">
         <f aca="false">IF(S19="Roczna",AV19*12*0.95,AV19)</f>
-        <v>1533.3</v>
+        <v>1692.9</v>
       </c>
       <c r="AX19" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
@@ -4378,32 +4390,32 @@
         <v>0</v>
       </c>
       <c r="AA20" s="7" t="n">
-        <f aca="false">IF(M20="TAK",Arkusz3!$B$19*J20,0)</f>
-        <v>10</v>
+        <f aca="false">IF(M20="TAK",Arkusz3!$B$20*J20,0)</f>
+        <v>20</v>
       </c>
       <c r="AB20" s="7" t="n">
-        <f aca="false">IF(N20="TAK",Arkusz3!$B$19*J20,0)</f>
-        <v>10</v>
+        <f aca="false">IF(N20="TAK",Arkusz3!$B$21*J20,0)</f>
+        <v>16</v>
       </c>
       <c r="AC20" s="7" t="n">
-        <f aca="false">IF(O20="TAK",Arkusz3!$B$19*J20,0)</f>
-        <v>10</v>
+        <f aca="false">IF(O20="TAK",Arkusz3!$B$22*J20,0)</f>
+        <v>20</v>
       </c>
       <c r="AD20" s="7" t="n">
-        <f aca="false">IF(P20="TAK",Arkusz3!$B$19*J20,0)</f>
+        <f aca="false">IF(P20="TAK",Arkusz3!$B$23*J20,0)</f>
         <v>0</v>
       </c>
       <c r="AE20" s="7" t="n">
-        <f aca="false">IF(Q20="TAK",Arkusz3!$B$19*J20,0)</f>
+        <f aca="false">IF(Q20="TAK",Arkusz3!$B$24*J20,0)</f>
         <v>0</v>
       </c>
       <c r="AF20" s="7" t="n">
-        <f aca="false">IF(R20="TAK",Arkusz3!$B$19*J20,0)</f>
-        <v>10</v>
+        <f aca="false">IF(R20="TAK",Arkusz3!$B$25*J20,0)</f>
+        <v>24</v>
       </c>
       <c r="AG20" s="7" t="n">
         <f aca="false">SUM(Z20:AF20)</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AH20" s="7" t="n">
         <f aca="false">IF(L20="Nie",0,5)</f>
@@ -4439,15 +4451,15 @@
       </c>
       <c r="AP20" s="7" t="n">
         <f aca="false">IF(AI20&gt;5,AA20*0.2*(AI20-5)+AA20,AA20)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AQ20" s="7" t="n">
         <f aca="false">IF(AJ20&gt;5,AB20*0.2*(AJ20-5)+AB20,AB20)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AR20" s="7" t="n">
         <f aca="false">IF(AK20&gt;5,AC20*0.2*(AK20-5)+AC20,AC20)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AS20" s="7" t="n">
         <f aca="false">IF(AL20&gt;5,AD20*0.2*(AL20-5)+AD20,AD20)</f>
@@ -4459,15 +4471,15 @@
       </c>
       <c r="AU20" s="7" t="n">
         <f aca="false">IF(AN20&gt;5,AF20*0.2*(AN20-5)+AF20,AF20)</f>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AV20" s="7" t="n">
         <f aca="false">SUM(AO20:AU20)+Y20</f>
-        <v>204.5</v>
+        <v>244.5</v>
       </c>
       <c r="AW20" s="7" t="n">
         <f aca="false">IF(S20="Roczna",AV20*12*0.95,AV20)</f>
-        <v>204.5</v>
+        <v>244.5</v>
       </c>
       <c r="AX20" s="7" t="s">
         <v>44</v>
@@ -4560,32 +4572,32 @@
         <v>5</v>
       </c>
       <c r="AA21" s="7" t="n">
-        <f aca="false">IF(M21="TAK",Arkusz3!$B$19*J21,0)</f>
+        <f aca="false">IF(M21="TAK",Arkusz3!$B$20*J21,0)</f>
         <v>0</v>
       </c>
       <c r="AB21" s="7" t="n">
-        <f aca="false">IF(N21="TAK",Arkusz3!$B$19*J21,0)</f>
+        <f aca="false">IF(N21="TAK",Arkusz3!$B$21*J21,0)</f>
         <v>0</v>
       </c>
       <c r="AC21" s="7" t="n">
-        <f aca="false">IF(O21="TAK",Arkusz3!$B$19*J21,0)</f>
+        <f aca="false">IF(O21="TAK",Arkusz3!$B$22*J21,0)</f>
         <v>0</v>
       </c>
       <c r="AD21" s="7" t="n">
-        <f aca="false">IF(P21="TAK",Arkusz3!$B$19*J21,0)</f>
+        <f aca="false">IF(P21="TAK",Arkusz3!$B$23*J21,0)</f>
         <v>0</v>
       </c>
       <c r="AE21" s="7" t="n">
-        <f aca="false">IF(Q21="TAK",Arkusz3!$B$19*J21,0)</f>
+        <f aca="false">IF(Q21="TAK",Arkusz3!$B$24*J21,0)</f>
         <v>5</v>
       </c>
       <c r="AF21" s="7" t="n">
-        <f aca="false">IF(R21="TAK",Arkusz3!$B$19*J21,0)</f>
-        <v>5</v>
+        <f aca="false">IF(R21="TAK",Arkusz3!$B$25*J21,0)</f>
+        <v>12</v>
       </c>
       <c r="AG21" s="7" t="n">
         <f aca="false">SUM(Z21:AF21)</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AH21" s="7" t="n">
         <f aca="false">IF(L21="Nie",0,5)</f>
@@ -4641,15 +4653,15 @@
       </c>
       <c r="AU21" s="7" t="n">
         <f aca="false">IF(AN21&gt;5,AF21*0.2*(AN21-5)+AF21,AF21)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AV21" s="7" t="n">
         <f aca="false">SUM(AO21:AU21)+Y21</f>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AW21" s="7" t="n">
         <f aca="false">IF(S21="Roczna",AV21*12*0.95,AV21)</f>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AX21" s="7" t="s">
         <v>57</v>
@@ -4742,32 +4754,32 @@
         <v>0</v>
       </c>
       <c r="AA22" s="7" t="n">
-        <f aca="false">IF(M22="TAK",Arkusz3!$B$19*J22,0)</f>
-        <v>10</v>
+        <f aca="false">IF(M22="TAK",Arkusz3!$B$20*J22,0)</f>
+        <v>20</v>
       </c>
       <c r="AB22" s="7" t="n">
-        <f aca="false">IF(N22="TAK",Arkusz3!$B$19*J22,0)</f>
-        <v>10</v>
+        <f aca="false">IF(N22="TAK",Arkusz3!$B$21*J22,0)</f>
+        <v>16</v>
       </c>
       <c r="AC22" s="7" t="n">
-        <f aca="false">IF(O22="TAK",Arkusz3!$B$19*J22,0)</f>
+        <f aca="false">IF(O22="TAK",Arkusz3!$B$22*J22,0)</f>
         <v>0</v>
       </c>
       <c r="AD22" s="7" t="n">
-        <f aca="false">IF(P22="TAK",Arkusz3!$B$19*J22,0)</f>
-        <v>10</v>
+        <f aca="false">IF(P22="TAK",Arkusz3!$B$23*J22,0)</f>
+        <v>24</v>
       </c>
       <c r="AE22" s="7" t="n">
-        <f aca="false">IF(Q22="TAK",Arkusz3!$B$19*J22,0)</f>
+        <f aca="false">IF(Q22="TAK",Arkusz3!$B$24*J22,0)</f>
         <v>0</v>
       </c>
       <c r="AF22" s="7" t="n">
-        <f aca="false">IF(R22="TAK",Arkusz3!$B$19*J22,0)</f>
+        <f aca="false">IF(R22="TAK",Arkusz3!$B$25*J22,0)</f>
         <v>0</v>
       </c>
       <c r="AG22" s="7" t="n">
         <f aca="false">SUM(Z22:AF22)</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AH22" s="7" t="n">
         <f aca="false">IF(L22="Nie",0,5)</f>
@@ -4801,11 +4813,11 @@
       </c>
       <c r="AP22" s="7" t="n">
         <f aca="false">IF(AI22&gt;5,AA22*0.2*(AI22-5)+AA22,AA22)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AQ22" s="7" t="n">
         <f aca="false">IF(AJ22&gt;5,AB22*0.2*(AJ22-5)+AB22,AB22)</f>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="AR22" s="7" t="n">
         <f aca="false">IF(AK22&gt;5,AC22*0.2*(AK22-5)+AC22,AC22)</f>
@@ -4813,7 +4825,7 @@
       </c>
       <c r="AS22" s="7" t="n">
         <f aca="false">IF(AL22&gt;5,AD22*0.2*(AL22-5)+AD22,AD22)</f>
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="AT22" s="7" t="n">
         <f aca="false">IF(AM22&gt;5,AE22*0.2*(AM22-5)+AE22,AE22)</f>
@@ -4825,11 +4837,11 @@
       </c>
       <c r="AV22" s="7" t="n">
         <f aca="false">SUM(AO22:AU22)+Y22</f>
-        <v>154.5</v>
+        <v>204.5</v>
       </c>
       <c r="AW22" s="7" t="n">
         <f aca="false">IF(S22="Roczna",AV22*12*0.95,AV22)</f>
-        <v>154.5</v>
+        <v>204.5</v>
       </c>
       <c r="AX22" s="7" t="s">
         <v>44</v>
@@ -4922,32 +4934,32 @@
         <v>0</v>
       </c>
       <c r="AA23" s="7" t="n">
-        <f aca="false">IF(M23="TAK",Arkusz3!$B$19*J23,0)</f>
+        <f aca="false">IF(M23="TAK",Arkusz3!$B$20*J23,0)</f>
         <v>0</v>
       </c>
       <c r="AB23" s="7" t="n">
-        <f aca="false">IF(N23="TAK",Arkusz3!$B$19*J23,0)</f>
+        <f aca="false">IF(N23="TAK",Arkusz3!$B$21*J23,0)</f>
         <v>0</v>
       </c>
       <c r="AC23" s="7" t="n">
-        <f aca="false">IF(O23="TAK",Arkusz3!$B$19*J23,0)</f>
-        <v>5</v>
+        <f aca="false">IF(O23="TAK",Arkusz3!$B$22*J23,0)</f>
+        <v>10</v>
       </c>
       <c r="AD23" s="7" t="n">
-        <f aca="false">IF(P23="TAK",Arkusz3!$B$19*J23,0)</f>
+        <f aca="false">IF(P23="TAK",Arkusz3!$B$23*J23,0)</f>
         <v>0</v>
       </c>
       <c r="AE23" s="7" t="n">
-        <f aca="false">IF(Q23="TAK",Arkusz3!$B$19*J23,0)</f>
+        <f aca="false">IF(Q23="TAK",Arkusz3!$B$24*J23,0)</f>
         <v>5</v>
       </c>
       <c r="AF23" s="7" t="n">
-        <f aca="false">IF(R23="TAK",Arkusz3!$B$19*J23,0)</f>
-        <v>5</v>
+        <f aca="false">IF(R23="TAK",Arkusz3!$B$25*J23,0)</f>
+        <v>12</v>
       </c>
       <c r="AG23" s="7" t="n">
         <f aca="false">SUM(Z23:AF23)</f>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AH23" s="7" t="n">
         <f aca="false">IF(L23="Nie",0,5)</f>
@@ -4991,7 +5003,7 @@
       </c>
       <c r="AR23" s="7" t="n">
         <f aca="false">IF(AK23&gt;5,AC23*0.2*(AK23-5)+AC23,AC23)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AS23" s="7" t="n">
         <f aca="false">IF(AL23&gt;5,AD23*0.2*(AL23-5)+AD23,AD23)</f>
@@ -5003,15 +5015,15 @@
       </c>
       <c r="AU23" s="7" t="n">
         <f aca="false">IF(AN23&gt;5,AF23*0.2*(AN23-5)+AF23,AF23)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AV23" s="7" t="n">
         <f aca="false">SUM(AO23:AU23)+Y23</f>
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="AW23" s="7" t="n">
         <f aca="false">IF(S23="Roczna",AV23*12*0.95,AV23)</f>
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="AX23" s="7" t="s">
         <v>44</v>
@@ -5104,32 +5116,32 @@
         <v>0</v>
       </c>
       <c r="AA24" s="7" t="n">
-        <f aca="false">IF(M24="TAK",Arkusz3!$B$19*J24,0)</f>
+        <f aca="false">IF(M24="TAK",Arkusz3!$B$20*J24,0)</f>
         <v>0</v>
       </c>
       <c r="AB24" s="7" t="n">
-        <f aca="false">IF(N24="TAK",Arkusz3!$B$19*J24,0)</f>
-        <v>5</v>
+        <f aca="false">IF(N24="TAK",Arkusz3!$B$21*J24,0)</f>
+        <v>8</v>
       </c>
       <c r="AC24" s="7" t="n">
-        <f aca="false">IF(O24="TAK",Arkusz3!$B$19*J24,0)</f>
-        <v>5</v>
+        <f aca="false">IF(O24="TAK",Arkusz3!$B$22*J24,0)</f>
+        <v>10</v>
       </c>
       <c r="AD24" s="7" t="n">
-        <f aca="false">IF(P24="TAK",Arkusz3!$B$19*J24,0)</f>
+        <f aca="false">IF(P24="TAK",Arkusz3!$B$23*J24,0)</f>
         <v>0</v>
       </c>
       <c r="AE24" s="7" t="n">
-        <f aca="false">IF(Q24="TAK",Arkusz3!$B$19*J24,0)</f>
+        <f aca="false">IF(Q24="TAK",Arkusz3!$B$24*J24,0)</f>
         <v>5</v>
       </c>
       <c r="AF24" s="7" t="n">
-        <f aca="false">IF(R24="TAK",Arkusz3!$B$19*J24,0)</f>
-        <v>5</v>
+        <f aca="false">IF(R24="TAK",Arkusz3!$B$25*J24,0)</f>
+        <v>12</v>
       </c>
       <c r="AG24" s="7" t="n">
         <f aca="false">SUM(Z24:AF24)</f>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="AH24" s="7" t="n">
         <f aca="false">IF(L24="Nie",0,5)</f>
@@ -5169,11 +5181,11 @@
       </c>
       <c r="AQ24" s="7" t="n">
         <f aca="false">IF(AJ24&gt;5,AB24*0.2*(AJ24-5)+AB24,AB24)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AR24" s="7" t="n">
         <f aca="false">IF(AK24&gt;5,AC24*0.2*(AK24-5)+AC24,AC24)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AS24" s="7" t="n">
         <f aca="false">IF(AL24&gt;5,AD24*0.2*(AL24-5)+AD24,AD24)</f>
@@ -5185,15 +5197,15 @@
       </c>
       <c r="AU24" s="7" t="n">
         <f aca="false">IF(AN24&gt;5,AF24*0.2*(AN24-5)+AF24,AF24)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AV24" s="7" t="n">
         <f aca="false">SUM(AO24:AU24)+Y24</f>
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="AW24" s="7" t="n">
         <f aca="false">IF(S24="Roczna",AV24*12*0.95,AV24)</f>
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="AX24" s="7" t="s">
         <v>49</v>
@@ -5286,32 +5298,32 @@
         <v>0</v>
       </c>
       <c r="AA25" s="7" t="n">
-        <f aca="false">IF(M25="TAK",Arkusz3!$B$19*J25,0)</f>
-        <v>5</v>
+        <f aca="false">IF(M25="TAK",Arkusz3!$B$20*J25,0)</f>
+        <v>10</v>
       </c>
       <c r="AB25" s="7" t="n">
-        <f aca="false">IF(N25="TAK",Arkusz3!$B$19*J25,0)</f>
+        <f aca="false">IF(N25="TAK",Arkusz3!$B$21*J25,0)</f>
         <v>0</v>
       </c>
       <c r="AC25" s="7" t="n">
-        <f aca="false">IF(O25="TAK",Arkusz3!$B$19*J25,0)</f>
-        <v>5</v>
+        <f aca="false">IF(O25="TAK",Arkusz3!$B$22*J25,0)</f>
+        <v>10</v>
       </c>
       <c r="AD25" s="7" t="n">
-        <f aca="false">IF(P25="TAK",Arkusz3!$B$19*J25,0)</f>
+        <f aca="false">IF(P25="TAK",Arkusz3!$B$23*J25,0)</f>
         <v>0</v>
       </c>
       <c r="AE25" s="7" t="n">
-        <f aca="false">IF(Q25="TAK",Arkusz3!$B$19*J25,0)</f>
+        <f aca="false">IF(Q25="TAK",Arkusz3!$B$24*J25,0)</f>
         <v>0</v>
       </c>
       <c r="AF25" s="7" t="n">
-        <f aca="false">IF(R25="TAK",Arkusz3!$B$19*J25,0)</f>
+        <f aca="false">IF(R25="TAK",Arkusz3!$B$25*J25,0)</f>
         <v>0</v>
       </c>
       <c r="AG25" s="7" t="n">
         <f aca="false">SUM(Z25:AF25)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AH25" s="7" t="n">
         <f aca="false">IF(L25="Nie",0,5)</f>
@@ -5347,7 +5359,7 @@
       </c>
       <c r="AP25" s="7" t="n">
         <f aca="false">IF(AI25&gt;5,AA25*0.2*(AI25-5)+AA25,AA25)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AQ25" s="7" t="n">
         <f aca="false">IF(AJ25&gt;5,AB25*0.2*(AJ25-5)+AB25,AB25)</f>
@@ -5355,7 +5367,7 @@
       </c>
       <c r="AR25" s="7" t="n">
         <f aca="false">IF(AK25&gt;5,AC25*0.2*(AK25-5)+AC25,AC25)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AS25" s="7" t="n">
         <f aca="false">IF(AL25&gt;5,AD25*0.2*(AL25-5)+AD25,AD25)</f>
@@ -5371,11 +5383,11 @@
       </c>
       <c r="AV25" s="7" t="n">
         <f aca="false">SUM(AO25:AU25)+Y25</f>
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="AW25" s="7" t="n">
         <f aca="false">IF(S25="Roczna",AV25*12*0.95,AV25)</f>
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="AX25" s="7" t="s">
         <v>57</v>
@@ -5468,32 +5480,32 @@
         <v>0</v>
       </c>
       <c r="AA26" s="7" t="n">
-        <f aca="false">IF(M26="TAK",Arkusz3!$B$19*J26,0)</f>
-        <v>10</v>
+        <f aca="false">IF(M26="TAK",Arkusz3!$B$20*J26,0)</f>
+        <v>20</v>
       </c>
       <c r="AB26" s="7" t="n">
-        <f aca="false">IF(N26="TAK",Arkusz3!$B$19*J26,0)</f>
-        <v>10</v>
+        <f aca="false">IF(N26="TAK",Arkusz3!$B$21*J26,0)</f>
+        <v>16</v>
       </c>
       <c r="AC26" s="7" t="n">
-        <f aca="false">IF(O26="TAK",Arkusz3!$B$19*J26,0)</f>
+        <f aca="false">IF(O26="TAK",Arkusz3!$B$22*J26,0)</f>
         <v>0</v>
       </c>
       <c r="AD26" s="7" t="n">
-        <f aca="false">IF(P26="TAK",Arkusz3!$B$19*J26,0)</f>
-        <v>10</v>
+        <f aca="false">IF(P26="TAK",Arkusz3!$B$23*J26,0)</f>
+        <v>24</v>
       </c>
       <c r="AE26" s="7" t="n">
-        <f aca="false">IF(Q26="TAK",Arkusz3!$B$19*J26,0)</f>
+        <f aca="false">IF(Q26="TAK",Arkusz3!$B$24*J26,0)</f>
         <v>0</v>
       </c>
       <c r="AF26" s="7" t="n">
-        <f aca="false">IF(R26="TAK",Arkusz3!$B$19*J26,0)</f>
-        <v>10</v>
+        <f aca="false">IF(R26="TAK",Arkusz3!$B$25*J26,0)</f>
+        <v>24</v>
       </c>
       <c r="AG26" s="7" t="n">
         <f aca="false">SUM(Z26:AF26)</f>
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="AH26" s="7" t="n">
         <f aca="false">IF(L26="Nie",0,5)</f>
@@ -5529,11 +5541,11 @@
       </c>
       <c r="AP26" s="7" t="n">
         <f aca="false">IF(AI26&gt;5,AA26*0.2*(AI26-5)+AA26,AA26)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AQ26" s="7" t="n">
         <f aca="false">IF(AJ26&gt;5,AB26*0.2*(AJ26-5)+AB26,AB26)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AR26" s="7" t="n">
         <f aca="false">IF(AK26&gt;5,AC26*0.2*(AK26-5)+AC26,AC26)</f>
@@ -5541,7 +5553,7 @@
       </c>
       <c r="AS26" s="7" t="n">
         <f aca="false">IF(AL26&gt;5,AD26*0.2*(AL26-5)+AD26,AD26)</f>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AT26" s="7" t="n">
         <f aca="false">IF(AM26&gt;5,AE26*0.2*(AM26-5)+AE26,AE26)</f>
@@ -5549,15 +5561,15 @@
       </c>
       <c r="AU26" s="7" t="n">
         <f aca="false">IF(AN26&gt;5,AF26*0.2*(AN26-5)+AF26,AF26)</f>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AV26" s="7" t="n">
         <f aca="false">SUM(AO26:AU26)+Y26</f>
-        <v>204.5</v>
+        <v>248.5</v>
       </c>
       <c r="AW26" s="7" t="n">
         <f aca="false">IF(S26="Roczna",AV26*12*0.95,AV26)</f>
-        <v>204.5</v>
+        <v>248.5</v>
       </c>
       <c r="AX26" s="7" t="s">
         <v>49</v>
@@ -5650,32 +5662,32 @@
         <v>0</v>
       </c>
       <c r="AA27" s="7" t="n">
-        <f aca="false">IF(M27="TAK",Arkusz3!$B$19*J27,0)</f>
-        <v>10</v>
+        <f aca="false">IF(M27="TAK",Arkusz3!$B$20*J27,0)</f>
+        <v>20</v>
       </c>
       <c r="AB27" s="7" t="n">
-        <f aca="false">IF(N27="TAK",Arkusz3!$B$19*J27,0)</f>
+        <f aca="false">IF(N27="TAK",Arkusz3!$B$21*J27,0)</f>
         <v>0</v>
       </c>
       <c r="AC27" s="7" t="n">
-        <f aca="false">IF(O27="TAK",Arkusz3!$B$19*J27,0)</f>
-        <v>10</v>
+        <f aca="false">IF(O27="TAK",Arkusz3!$B$22*J27,0)</f>
+        <v>20</v>
       </c>
       <c r="AD27" s="7" t="n">
-        <f aca="false">IF(P27="TAK",Arkusz3!$B$19*J27,0)</f>
+        <f aca="false">IF(P27="TAK",Arkusz3!$B$23*J27,0)</f>
         <v>0</v>
       </c>
       <c r="AE27" s="7" t="n">
-        <f aca="false">IF(Q27="TAK",Arkusz3!$B$19*J27,0)</f>
+        <f aca="false">IF(Q27="TAK",Arkusz3!$B$24*J27,0)</f>
         <v>10</v>
       </c>
       <c r="AF27" s="7" t="n">
-        <f aca="false">IF(R27="TAK",Arkusz3!$B$19*J27,0)</f>
-        <v>10</v>
+        <f aca="false">IF(R27="TAK",Arkusz3!$B$25*J27,0)</f>
+        <v>24</v>
       </c>
       <c r="AG27" s="7" t="n">
         <f aca="false">SUM(Z27:AF27)</f>
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AH27" s="7" t="n">
         <f aca="false">IF(L27="Nie",0,5)</f>
@@ -5710,7 +5722,7 @@
       </c>
       <c r="AP27" s="7" t="n">
         <f aca="false">IF(AI27&gt;5,AA27*0.2*(AI27-5)+AA27,AA27)</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AQ27" s="7" t="n">
         <f aca="false">IF(AJ27&gt;5,AB27*0.2*(AJ27-5)+AB27,AB27)</f>
@@ -5718,7 +5730,7 @@
       </c>
       <c r="AR27" s="7" t="n">
         <f aca="false">IF(AK27&gt;5,AC27*0.2*(AK27-5)+AC27,AC27)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AS27" s="7" t="n">
         <f aca="false">IF(AL27&gt;5,AD27*0.2*(AL27-5)+AD27,AD27)</f>
@@ -5730,15 +5742,15 @@
       </c>
       <c r="AU27" s="7" t="n">
         <f aca="false">IF(AN27&gt;5,AF27*0.2*(AN27-5)+AF27,AF27)</f>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AV27" s="7" t="n">
         <f aca="false">SUM(AO27:AU27)+Y27</f>
-        <v>209.5</v>
+        <v>253.5</v>
       </c>
       <c r="AW27" s="7" t="n">
         <f aca="false">IF(S27="Roczna",AV27*12*0.95,AV27)</f>
-        <v>209.5</v>
+        <v>253.5</v>
       </c>
       <c r="AX27" s="7" t="s">
         <v>57</v>
@@ -5831,32 +5843,32 @@
         <v>5</v>
       </c>
       <c r="AA28" s="7" t="n">
-        <f aca="false">IF(M28="TAK",Arkusz3!$B$19*J28,0)</f>
+        <f aca="false">IF(M28="TAK",Arkusz3!$B$20*J28,0)</f>
         <v>0</v>
       </c>
       <c r="AB28" s="7" t="n">
-        <f aca="false">IF(N28="TAK",Arkusz3!$B$19*J28,0)</f>
+        <f aca="false">IF(N28="TAK",Arkusz3!$B$21*J28,0)</f>
         <v>0</v>
       </c>
       <c r="AC28" s="7" t="n">
-        <f aca="false">IF(O28="TAK",Arkusz3!$B$19*J28,0)</f>
+        <f aca="false">IF(O28="TAK",Arkusz3!$B$22*J28,0)</f>
         <v>0</v>
       </c>
       <c r="AD28" s="7" t="n">
-        <f aca="false">IF(P28="TAK",Arkusz3!$B$19*J28,0)</f>
+        <f aca="false">IF(P28="TAK",Arkusz3!$B$23*J28,0)</f>
         <v>0</v>
       </c>
       <c r="AE28" s="7" t="n">
-        <f aca="false">IF(Q28="TAK",Arkusz3!$B$19*J28,0)</f>
+        <f aca="false">IF(Q28="TAK",Arkusz3!$B$24*J28,0)</f>
         <v>5</v>
       </c>
       <c r="AF28" s="7" t="n">
-        <f aca="false">IF(R28="TAK",Arkusz3!$B$19*J28,0)</f>
-        <v>5</v>
+        <f aca="false">IF(R28="TAK",Arkusz3!$B$25*J28,0)</f>
+        <v>12</v>
       </c>
       <c r="AG28" s="7" t="n">
         <f aca="false">SUM(Z28:AF28)</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AH28" s="7" t="n">
         <f aca="false">IF(L28="Nie",0,5)</f>
@@ -5912,15 +5924,15 @@
       </c>
       <c r="AU28" s="7" t="n">
         <f aca="false">IF(AN28&gt;5,AF28*0.2*(AN28-5)+AF28,AF28)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AV28" s="7" t="n">
         <f aca="false">SUM(AO28:AU28)+Y28</f>
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="AW28" s="7" t="n">
         <f aca="false">IF(S28="Roczna",AV28*12*0.95,AV28)</f>
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="AX28" s="7" t="s">
         <v>44</v>
@@ -6013,32 +6025,32 @@
         <v>5</v>
       </c>
       <c r="AA29" s="7" t="n">
-        <f aca="false">IF(M29="TAK",Arkusz3!$B$19*J29,0)</f>
-        <v>5</v>
+        <f aca="false">IF(M29="TAK",Arkusz3!$B$20*J29,0)</f>
+        <v>10</v>
       </c>
       <c r="AB29" s="7" t="n">
-        <f aca="false">IF(N29="TAK",Arkusz3!$B$19*J29,0)</f>
+        <f aca="false">IF(N29="TAK",Arkusz3!$B$21*J29,0)</f>
         <v>0</v>
       </c>
       <c r="AC29" s="7" t="n">
-        <f aca="false">IF(O29="TAK",Arkusz3!$B$19*J29,0)</f>
+        <f aca="false">IF(O29="TAK",Arkusz3!$B$22*J29,0)</f>
         <v>0</v>
       </c>
       <c r="AD29" s="7" t="n">
-        <f aca="false">IF(P29="TAK",Arkusz3!$B$19*J29,0)</f>
-        <v>5</v>
+        <f aca="false">IF(P29="TAK",Arkusz3!$B$23*J29,0)</f>
+        <v>12</v>
       </c>
       <c r="AE29" s="7" t="n">
-        <f aca="false">IF(Q29="TAK",Arkusz3!$B$19*J29,0)</f>
+        <f aca="false">IF(Q29="TAK",Arkusz3!$B$24*J29,0)</f>
         <v>5</v>
       </c>
       <c r="AF29" s="7" t="n">
-        <f aca="false">IF(R29="TAK",Arkusz3!$B$19*J29,0)</f>
-        <v>5</v>
+        <f aca="false">IF(R29="TAK",Arkusz3!$B$25*J29,0)</f>
+        <v>12</v>
       </c>
       <c r="AG29" s="7" t="n">
         <f aca="false">SUM(Z29:AF29)</f>
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="AH29" s="7" t="n">
         <f aca="false">IF(L29="Nie",0,5)</f>
@@ -6074,7 +6086,7 @@
       </c>
       <c r="AP29" s="7" t="n">
         <f aca="false">IF(AI29&gt;5,AA29*0.2*(AI29-5)+AA29,AA29)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AQ29" s="7" t="n">
         <f aca="false">IF(AJ29&gt;5,AB29*0.2*(AJ29-5)+AB29,AB29)</f>
@@ -6086,7 +6098,7 @@
       </c>
       <c r="AS29" s="7" t="n">
         <f aca="false">IF(AL29&gt;5,AD29*0.2*(AL29-5)+AD29,AD29)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AT29" s="7" t="n">
         <f aca="false">IF(AM29&gt;5,AE29*0.2*(AM29-5)+AE29,AE29)</f>
@@ -6094,15 +6106,15 @@
       </c>
       <c r="AU29" s="7" t="n">
         <f aca="false">IF(AN29&gt;5,AF29*0.2*(AN29-5)+AF29,AF29)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AV29" s="7" t="n">
         <f aca="false">SUM(AO29:AU29)+Y29</f>
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="AW29" s="7" t="n">
         <f aca="false">IF(S29="Roczna",AV29*12*0.95,AV29)</f>
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="AX29" s="7" t="s">
         <v>44</v>
@@ -6195,32 +6207,32 @@
         <v>0</v>
       </c>
       <c r="AA30" s="7" t="n">
-        <f aca="false">IF(M30="TAK",Arkusz3!$B$19*J30,0)</f>
+        <f aca="false">IF(M30="TAK",Arkusz3!$B$20*J30,0)</f>
         <v>0</v>
       </c>
       <c r="AB30" s="7" t="n">
-        <f aca="false">IF(N30="TAK",Arkusz3!$B$19*J30,0)</f>
+        <f aca="false">IF(N30="TAK",Arkusz3!$B$21*J30,0)</f>
         <v>0</v>
       </c>
       <c r="AC30" s="7" t="n">
-        <f aca="false">IF(O30="TAK",Arkusz3!$B$19*J30,0)</f>
-        <v>10</v>
+        <f aca="false">IF(O30="TAK",Arkusz3!$B$22*J30,0)</f>
+        <v>20</v>
       </c>
       <c r="AD30" s="7" t="n">
-        <f aca="false">IF(P30="TAK",Arkusz3!$B$19*J30,0)</f>
+        <f aca="false">IF(P30="TAK",Arkusz3!$B$23*J30,0)</f>
         <v>0</v>
       </c>
       <c r="AE30" s="7" t="n">
-        <f aca="false">IF(Q30="TAK",Arkusz3!$B$19*J30,0)</f>
+        <f aca="false">IF(Q30="TAK",Arkusz3!$B$24*J30,0)</f>
         <v>0</v>
       </c>
       <c r="AF30" s="7" t="n">
-        <f aca="false">IF(R30="TAK",Arkusz3!$B$19*J30,0)</f>
-        <v>10</v>
+        <f aca="false">IF(R30="TAK",Arkusz3!$B$25*J30,0)</f>
+        <v>24</v>
       </c>
       <c r="AG30" s="7" t="n">
         <f aca="false">SUM(Z30:AF30)</f>
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="AH30" s="7" t="n">
         <f aca="false">IF(L30="Nie",0,5)</f>
@@ -6264,7 +6276,7 @@
       </c>
       <c r="AR30" s="7" t="n">
         <f aca="false">IF(AK30&gt;5,AC30*0.2*(AK30-5)+AC30,AC30)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AS30" s="7" t="n">
         <f aca="false">IF(AL30&gt;5,AD30*0.2*(AL30-5)+AD30,AD30)</f>
@@ -6276,15 +6288,15 @@
       </c>
       <c r="AU30" s="7" t="n">
         <f aca="false">IF(AN30&gt;5,AF30*0.2*(AN30-5)+AF30,AF30)</f>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AV30" s="7" t="n">
         <f aca="false">SUM(AO30:AU30)+Y30</f>
-        <v>404.5</v>
+        <v>428.5</v>
       </c>
       <c r="AW30" s="7" t="n">
         <f aca="false">IF(S30="Roczna",AV30*12*0.95,AV30)</f>
-        <v>404.5</v>
+        <v>428.5</v>
       </c>
       <c r="AX30" s="7" t="s">
         <v>44</v>
@@ -6377,32 +6389,32 @@
         <v>5</v>
       </c>
       <c r="AA31" s="7" t="n">
-        <f aca="false">IF(M31="TAK",Arkusz3!$B$19*J31,0)</f>
+        <f aca="false">IF(M31="TAK",Arkusz3!$B$20*J31,0)</f>
         <v>0</v>
       </c>
       <c r="AB31" s="7" t="n">
-        <f aca="false">IF(N31="TAK",Arkusz3!$B$19*J31,0)</f>
+        <f aca="false">IF(N31="TAK",Arkusz3!$B$21*J31,0)</f>
         <v>0</v>
       </c>
       <c r="AC31" s="7" t="n">
-        <f aca="false">IF(O31="TAK",Arkusz3!$B$19*J31,0)</f>
+        <f aca="false">IF(O31="TAK",Arkusz3!$B$22*J31,0)</f>
         <v>0</v>
       </c>
       <c r="AD31" s="7" t="n">
-        <f aca="false">IF(P31="TAK",Arkusz3!$B$19*J31,0)</f>
+        <f aca="false">IF(P31="TAK",Arkusz3!$B$23*J31,0)</f>
         <v>0</v>
       </c>
       <c r="AE31" s="7" t="n">
-        <f aca="false">IF(Q31="TAK",Arkusz3!$B$19*J31,0)</f>
+        <f aca="false">IF(Q31="TAK",Arkusz3!$B$24*J31,0)</f>
         <v>5</v>
       </c>
       <c r="AF31" s="7" t="n">
-        <f aca="false">IF(R31="TAK",Arkusz3!$B$19*J31,0)</f>
-        <v>5</v>
+        <f aca="false">IF(R31="TAK",Arkusz3!$B$25*J31,0)</f>
+        <v>12</v>
       </c>
       <c r="AG31" s="7" t="n">
         <f aca="false">SUM(Z31:AF31)</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AH31" s="7" t="n">
         <v>10</v>
@@ -6455,15 +6467,15 @@
       </c>
       <c r="AU31" s="7" t="n">
         <f aca="false">IF(AN31&gt;5,AF31*0.2*(AN31-5)+AF31,AF31)</f>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AV31" s="7" t="n">
         <f aca="false">SUM(AO31:AU31)+Y31</f>
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="AW31" s="7" t="n">
         <f aca="false">IF(S31="Roczna",AV31*12*0.95,AV31)</f>
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="AX31" s="7" t="s">
         <v>49</v>
@@ -6556,32 +6568,32 @@
         <v>0</v>
       </c>
       <c r="AA32" s="7" t="n">
-        <f aca="false">IF(M32="TAK",Arkusz3!$B$19*J32,0)</f>
+        <f aca="false">IF(M32="TAK",Arkusz3!$B$20*J32,0)</f>
         <v>0</v>
       </c>
       <c r="AB32" s="7" t="n">
-        <f aca="false">IF(N32="TAK",Arkusz3!$B$19*J32,0)</f>
+        <f aca="false">IF(N32="TAK",Arkusz3!$B$21*J32,0)</f>
         <v>0</v>
       </c>
       <c r="AC32" s="7" t="n">
-        <f aca="false">IF(O32="TAK",Arkusz3!$B$19*J32,0)</f>
-        <v>5</v>
+        <f aca="false">IF(O32="TAK",Arkusz3!$B$22*J32,0)</f>
+        <v>10</v>
       </c>
       <c r="AD32" s="7" t="n">
-        <f aca="false">IF(P32="TAK",Arkusz3!$B$19*J32,0)</f>
+        <f aca="false">IF(P32="TAK",Arkusz3!$B$23*J32,0)</f>
         <v>0</v>
       </c>
       <c r="AE32" s="7" t="n">
-        <f aca="false">IF(Q32="TAK",Arkusz3!$B$19*J32,0)</f>
+        <f aca="false">IF(Q32="TAK",Arkusz3!$B$24*J32,0)</f>
         <v>0</v>
       </c>
       <c r="AF32" s="7" t="n">
-        <f aca="false">IF(R32="TAK",Arkusz3!$B$19*J32,0)</f>
-        <v>5</v>
+        <f aca="false">IF(R32="TAK",Arkusz3!$B$25*J32,0)</f>
+        <v>12</v>
       </c>
       <c r="AG32" s="7" t="n">
         <f aca="false">SUM(Z32:AF32)</f>
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AH32" s="7" t="n">
         <f aca="false">IF(L32="Nie",0,5)</f>
@@ -6625,7 +6637,7 @@
       </c>
       <c r="AR32" s="7" t="n">
         <f aca="false">IF(AK32&gt;5,AC32*0.2*(AK32-5)+AC32,AC32)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AS32" s="7" t="n">
         <f aca="false">IF(AL32&gt;5,AD32*0.2*(AL32-5)+AD32,AD32)</f>
@@ -6637,15 +6649,15 @@
       </c>
       <c r="AU32" s="7" t="n">
         <f aca="false">IF(AN32&gt;5,AF32*0.2*(AN32-5)+AF32,AF32)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AV32" s="7" t="n">
         <f aca="false">SUM(AO32:AU32)+Y32</f>
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="AW32" s="7" t="n">
         <f aca="false">IF(S32="Roczna",AV32*12*0.95,AV32)</f>
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="AX32" s="7" t="s">
         <v>57</v>
@@ -6738,32 +6750,32 @@
         <v>0</v>
       </c>
       <c r="AA33" s="7" t="n">
-        <f aca="false">IF(M33="TAK",Arkusz3!$B$19*J33,0)</f>
-        <v>10</v>
+        <f aca="false">IF(M33="TAK",Arkusz3!$B$20*J33,0)</f>
+        <v>20</v>
       </c>
       <c r="AB33" s="7" t="n">
-        <f aca="false">IF(N33="TAK",Arkusz3!$B$19*J33,0)</f>
+        <f aca="false">IF(N33="TAK",Arkusz3!$B$21*J33,0)</f>
         <v>0</v>
       </c>
       <c r="AC33" s="7" t="n">
-        <f aca="false">IF(O33="TAK",Arkusz3!$B$19*J33,0)</f>
+        <f aca="false">IF(O33="TAK",Arkusz3!$B$22*J33,0)</f>
         <v>0</v>
       </c>
       <c r="AD33" s="7" t="n">
-        <f aca="false">IF(P33="TAK",Arkusz3!$B$19*J33,0)</f>
+        <f aca="false">IF(P33="TAK",Arkusz3!$B$23*J33,0)</f>
         <v>0</v>
       </c>
       <c r="AE33" s="7" t="n">
-        <f aca="false">IF(Q33="TAK",Arkusz3!$B$19*J33,0)</f>
+        <f aca="false">IF(Q33="TAK",Arkusz3!$B$24*J33,0)</f>
         <v>10</v>
       </c>
       <c r="AF33" s="7" t="n">
-        <f aca="false">IF(R33="TAK",Arkusz3!$B$19*J33,0)</f>
-        <v>10</v>
+        <f aca="false">IF(R33="TAK",Arkusz3!$B$25*J33,0)</f>
+        <v>24</v>
       </c>
       <c r="AG33" s="7" t="n">
         <f aca="false">SUM(Z33:AF33)</f>
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="AH33" s="7" t="n">
         <f aca="false">IF(L33="Nie",0,5)</f>
@@ -6799,7 +6811,7 @@
       </c>
       <c r="AP33" s="7" t="n">
         <f aca="false">IF(AI33&gt;5,AA33*0.2*(AI33-5)+AA33,AA33)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AQ33" s="7" t="n">
         <f aca="false">IF(AJ33&gt;5,AB33*0.2*(AJ33-5)+AB33,AB33)</f>
@@ -6819,15 +6831,15 @@
       </c>
       <c r="AU33" s="7" t="n">
         <f aca="false">IF(AN33&gt;5,AF33*0.2*(AN33-5)+AF33,AF33)</f>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AV33" s="7" t="n">
         <f aca="false">SUM(AO33:AU33)+Y33</f>
-        <v>164.5</v>
+        <v>188.5</v>
       </c>
       <c r="AW33" s="7" t="n">
         <f aca="false">IF(S33="Roczna",AV33*12*0.95,AV33)</f>
-        <v>164.5</v>
+        <v>188.5</v>
       </c>
       <c r="AX33" s="7" t="s">
         <v>49</v>
@@ -6920,32 +6932,32 @@
         <v>0</v>
       </c>
       <c r="AA34" s="7" t="n">
-        <f aca="false">IF(M34="TAK",Arkusz3!$B$19*J34,0)</f>
-        <v>5</v>
+        <f aca="false">IF(M34="TAK",Arkusz3!$B$20*J34,0)</f>
+        <v>10</v>
       </c>
       <c r="AB34" s="7" t="n">
-        <f aca="false">IF(N34="TAK",Arkusz3!$B$19*J34,0)</f>
-        <v>5</v>
+        <f aca="false">IF(N34="TAK",Arkusz3!$B$21*J34,0)</f>
+        <v>8</v>
       </c>
       <c r="AC34" s="7" t="n">
-        <f aca="false">IF(O34="TAK",Arkusz3!$B$19*J34,0)</f>
+        <f aca="false">IF(O34="TAK",Arkusz3!$B$22*J34,0)</f>
         <v>0</v>
       </c>
       <c r="AD34" s="7" t="n">
-        <f aca="false">IF(P34="TAK",Arkusz3!$B$19*J34,0)</f>
-        <v>5</v>
+        <f aca="false">IF(P34="TAK",Arkusz3!$B$23*J34,0)</f>
+        <v>12</v>
       </c>
       <c r="AE34" s="7" t="n">
-        <f aca="false">IF(Q34="TAK",Arkusz3!$B$19*J34,0)</f>
+        <f aca="false">IF(Q34="TAK",Arkusz3!$B$24*J34,0)</f>
         <v>0</v>
       </c>
       <c r="AF34" s="7" t="n">
-        <f aca="false">IF(R34="TAK",Arkusz3!$B$19*J34,0)</f>
+        <f aca="false">IF(R34="TAK",Arkusz3!$B$25*J34,0)</f>
         <v>0</v>
       </c>
       <c r="AG34" s="7" t="n">
         <f aca="false">SUM(Z34:AF34)</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AH34" s="7" t="n">
         <f aca="false">IF(L34="Nie",0,5)</f>
@@ -6981,11 +6993,11 @@
       </c>
       <c r="AP34" s="7" t="n">
         <f aca="false">IF(AI34&gt;5,AA34*0.2*(AI34-5)+AA34,AA34)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AQ34" s="7" t="n">
         <f aca="false">IF(AJ34&gt;5,AB34*0.2*(AJ34-5)+AB34,AB34)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AR34" s="7" t="n">
         <f aca="false">IF(AK34&gt;5,AC34*0.2*(AK34-5)+AC34,AC34)</f>
@@ -6993,7 +7005,7 @@
       </c>
       <c r="AS34" s="7" t="n">
         <f aca="false">IF(AL34&gt;5,AD34*0.2*(AL34-5)+AD34,AD34)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AT34" s="7" t="n">
         <f aca="false">IF(AM34&gt;5,AE34*0.2*(AM34-5)+AE34,AE34)</f>
@@ -7005,11 +7017,11 @@
       </c>
       <c r="AV34" s="7" t="n">
         <f aca="false">SUM(AO34:AU34)+Y34</f>
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AW34" s="7" t="n">
         <f aca="false">IF(S34="Roczna",AV34*12*0.95,AV34)</f>
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AX34" s="7" t="s">
         <v>49</v>
@@ -7102,32 +7114,32 @@
         <v>0</v>
       </c>
       <c r="AA35" s="7" t="n">
-        <f aca="false">IF(M35="TAK",Arkusz3!$B$19*J35,0)</f>
-        <v>5</v>
+        <f aca="false">IF(M35="TAK",Arkusz3!$B$20*J35,0)</f>
+        <v>10</v>
       </c>
       <c r="AB35" s="7" t="n">
-        <f aca="false">IF(N35="TAK",Arkusz3!$B$19*J35,0)</f>
+        <f aca="false">IF(N35="TAK",Arkusz3!$B$21*J35,0)</f>
         <v>0</v>
       </c>
       <c r="AC35" s="7" t="n">
-        <f aca="false">IF(O35="TAK",Arkusz3!$B$19*J35,0)</f>
+        <f aca="false">IF(O35="TAK",Arkusz3!$B$22*J35,0)</f>
         <v>0</v>
       </c>
       <c r="AD35" s="7" t="n">
-        <f aca="false">IF(P35="TAK",Arkusz3!$B$19*J35,0)</f>
+        <f aca="false">IF(P35="TAK",Arkusz3!$B$23*J35,0)</f>
         <v>0</v>
       </c>
       <c r="AE35" s="7" t="n">
-        <f aca="false">IF(Q35="TAK",Arkusz3!$B$19*J35,0)</f>
+        <f aca="false">IF(Q35="TAK",Arkusz3!$B$24*J35,0)</f>
         <v>5</v>
       </c>
       <c r="AF35" s="7" t="n">
-        <f aca="false">IF(R35="TAK",Arkusz3!$B$19*J35,0)</f>
-        <v>5</v>
+        <f aca="false">IF(R35="TAK",Arkusz3!$B$25*J35,0)</f>
+        <v>12</v>
       </c>
       <c r="AG35" s="7" t="n">
         <f aca="false">SUM(Z35:AF35)</f>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AH35" s="7" t="n">
         <f aca="false">IF(L35="Nie",0,5)</f>
@@ -7163,7 +7175,7 @@
       </c>
       <c r="AP35" s="7" t="n">
         <f aca="false">IF(AI35&gt;5,AA35*0.2*(AI35-5)+AA35,AA35)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AQ35" s="7" t="n">
         <f aca="false">IF(AJ35&gt;5,AB35*0.2*(AJ35-5)+AB35,AB35)</f>
@@ -7183,15 +7195,15 @@
       </c>
       <c r="AU35" s="7" t="n">
         <f aca="false">IF(AN35&gt;5,AF35*0.2*(AN35-5)+AF35,AF35)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AV35" s="7" t="n">
         <f aca="false">SUM(AO35:AU35)+Y35</f>
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="AW35" s="7" t="n">
         <f aca="false">IF(S35="Roczna",AV35*12*0.95,AV35)</f>
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="AX35" s="7" t="s">
         <v>44</v>
@@ -7284,32 +7296,32 @@
         <v>0</v>
       </c>
       <c r="AA36" s="7" t="n">
-        <f aca="false">IF(M36="TAK",Arkusz3!$B$19*J36,0)</f>
-        <v>10</v>
+        <f aca="false">IF(M36="TAK",Arkusz3!$B$20*J36,0)</f>
+        <v>20</v>
       </c>
       <c r="AB36" s="7" t="n">
-        <f aca="false">IF(N36="TAK",Arkusz3!$B$19*J36,0)</f>
-        <v>10</v>
+        <f aca="false">IF(N36="TAK",Arkusz3!$B$21*J36,0)</f>
+        <v>16</v>
       </c>
       <c r="AC36" s="7" t="n">
-        <f aca="false">IF(O36="TAK",Arkusz3!$B$19*J36,0)</f>
+        <f aca="false">IF(O36="TAK",Arkusz3!$B$22*J36,0)</f>
         <v>0</v>
       </c>
       <c r="AD36" s="7" t="n">
-        <f aca="false">IF(P36="TAK",Arkusz3!$B$19*J36,0)</f>
-        <v>10</v>
+        <f aca="false">IF(P36="TAK",Arkusz3!$B$23*J36,0)</f>
+        <v>24</v>
       </c>
       <c r="AE36" s="7" t="n">
-        <f aca="false">IF(Q36="TAK",Arkusz3!$B$19*J36,0)</f>
+        <f aca="false">IF(Q36="TAK",Arkusz3!$B$24*J36,0)</f>
         <v>0</v>
       </c>
       <c r="AF36" s="7" t="n">
-        <f aca="false">IF(R36="TAK",Arkusz3!$B$19*J36,0)</f>
+        <f aca="false">IF(R36="TAK",Arkusz3!$B$25*J36,0)</f>
         <v>0</v>
       </c>
       <c r="AG36" s="7" t="n">
         <f aca="false">SUM(Z36:AF36)</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AH36" s="7" t="n">
         <f aca="false">IF(L36="Nie",0,5)</f>
@@ -7345,11 +7357,11 @@
       </c>
       <c r="AP36" s="7" t="n">
         <f aca="false">IF(AI36&gt;5,AA36*0.2*(AI36-5)+AA36,AA36)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AQ36" s="7" t="n">
         <f aca="false">IF(AJ36&gt;5,AB36*0.2*(AJ36-5)+AB36,AB36)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AR36" s="7" t="n">
         <f aca="false">IF(AK36&gt;5,AC36*0.2*(AK36-5)+AC36,AC36)</f>
@@ -7357,7 +7369,7 @@
       </c>
       <c r="AS36" s="7" t="n">
         <f aca="false">IF(AL36&gt;5,AD36*0.2*(AL36-5)+AD36,AD36)</f>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AT36" s="7" t="n">
         <f aca="false">IF(AM36&gt;5,AE36*0.2*(AM36-5)+AE36,AE36)</f>
@@ -7369,11 +7381,11 @@
       </c>
       <c r="AV36" s="7" t="n">
         <f aca="false">SUM(AO36:AU36)+Y36</f>
-        <v>214.5</v>
+        <v>244.5</v>
       </c>
       <c r="AW36" s="7" t="n">
         <f aca="false">IF(S36="Roczna",AV36*12*0.95,AV36)</f>
-        <v>2445.3</v>
+        <v>2787.3</v>
       </c>
       <c r="AX36" s="7" t="s">
         <v>44</v>
@@ -7466,32 +7478,32 @@
         <v>5</v>
       </c>
       <c r="AA37" s="7" t="n">
-        <f aca="false">IF(M37="TAK",Arkusz3!$B$19*J37,0)</f>
-        <v>5</v>
+        <f aca="false">IF(M37="TAK",Arkusz3!$B$20*J37,0)</f>
+        <v>10</v>
       </c>
       <c r="AB37" s="7" t="n">
-        <f aca="false">IF(N37="TAK",Arkusz3!$B$19*J37,0)</f>
+        <f aca="false">IF(N37="TAK",Arkusz3!$B$21*J37,0)</f>
         <v>0</v>
       </c>
       <c r="AC37" s="7" t="n">
-        <f aca="false">IF(O37="TAK",Arkusz3!$B$19*J37,0)</f>
+        <f aca="false">IF(O37="TAK",Arkusz3!$B$22*J37,0)</f>
         <v>0</v>
       </c>
       <c r="AD37" s="7" t="n">
-        <f aca="false">IF(P37="TAK",Arkusz3!$B$19*J37,0)</f>
+        <f aca="false">IF(P37="TAK",Arkusz3!$B$23*J37,0)</f>
         <v>0</v>
       </c>
       <c r="AE37" s="7" t="n">
-        <f aca="false">IF(Q37="TAK",Arkusz3!$B$19*J37,0)</f>
+        <f aca="false">IF(Q37="TAK",Arkusz3!$B$24*J37,0)</f>
         <v>5</v>
       </c>
       <c r="AF37" s="7" t="n">
-        <f aca="false">IF(R37="TAK",Arkusz3!$B$19*J37,0)</f>
-        <v>5</v>
+        <f aca="false">IF(R37="TAK",Arkusz3!$B$25*J37,0)</f>
+        <v>12</v>
       </c>
       <c r="AG37" s="7" t="n">
         <f aca="false">SUM(Z37:AF37)</f>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="AH37" s="7" t="n">
         <f aca="false">IF(L37="Nie",0,5)</f>
@@ -7527,7 +7539,7 @@
       </c>
       <c r="AP37" s="7" t="n">
         <f aca="false">IF(AI37&gt;5,AA37*0.2*(AI37-5)+AA37,AA37)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AQ37" s="7" t="n">
         <f aca="false">IF(AJ37&gt;5,AB37*0.2*(AJ37-5)+AB37,AB37)</f>
@@ -7547,15 +7559,15 @@
       </c>
       <c r="AU37" s="7" t="n">
         <f aca="false">IF(AN37&gt;5,AF37*0.2*(AN37-5)+AF37,AF37)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AV37" s="7" t="n">
         <f aca="false">SUM(AO37:AU37)+Y37</f>
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="AW37" s="7" t="n">
         <f aca="false">IF(S37="Roczna",AV37*12*0.95,AV37)</f>
-        <v>684</v>
+        <v>820.8</v>
       </c>
       <c r="AX37" s="7" t="s">
         <v>57</v>
@@ -7648,32 +7660,32 @@
         <v>5</v>
       </c>
       <c r="AA38" s="7" t="n">
-        <f aca="false">IF(M38="TAK",Arkusz3!$B$19*J38,0)</f>
+        <f aca="false">IF(M38="TAK",Arkusz3!$B$20*J38,0)</f>
         <v>0</v>
       </c>
       <c r="AB38" s="7" t="n">
-        <f aca="false">IF(N38="TAK",Arkusz3!$B$19*J38,0)</f>
+        <f aca="false">IF(N38="TAK",Arkusz3!$B$21*J38,0)</f>
         <v>0</v>
       </c>
       <c r="AC38" s="7" t="n">
-        <f aca="false">IF(O38="TAK",Arkusz3!$B$19*J38,0)</f>
+        <f aca="false">IF(O38="TAK",Arkusz3!$B$22*J38,0)</f>
         <v>0</v>
       </c>
       <c r="AD38" s="7" t="n">
-        <f aca="false">IF(P38="TAK",Arkusz3!$B$19*J38,0)</f>
+        <f aca="false">IF(P38="TAK",Arkusz3!$B$23*J38,0)</f>
         <v>0</v>
       </c>
       <c r="AE38" s="7" t="n">
-        <f aca="false">IF(Q38="TAK",Arkusz3!$B$19*J38,0)</f>
+        <f aca="false">IF(Q38="TAK",Arkusz3!$B$24*J38,0)</f>
         <v>5</v>
       </c>
       <c r="AF38" s="7" t="n">
-        <f aca="false">IF(R38="TAK",Arkusz3!$B$19*J38,0)</f>
-        <v>5</v>
+        <f aca="false">IF(R38="TAK",Arkusz3!$B$25*J38,0)</f>
+        <v>12</v>
       </c>
       <c r="AG38" s="7" t="n">
         <f aca="false">SUM(Z38:AF38)</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AH38" s="7" t="n">
         <f aca="false">IF(L38="Nie",0,5)</f>
@@ -7729,15 +7741,15 @@
       </c>
       <c r="AU38" s="7" t="n">
         <f aca="false">IF(AN38&gt;5,AF38*0.2*(AN38-5)+AF38,AF38)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AV38" s="7" t="n">
         <f aca="false">SUM(AO38:AU38)+Y38</f>
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="AW38" s="7" t="n">
         <f aca="false">IF(S38="Roczna",AV38*12*0.95,AV38)</f>
-        <v>1539</v>
+        <v>1618.8</v>
       </c>
       <c r="AX38" s="7" t="s">
         <v>57</v>
@@ -7830,32 +7842,32 @@
         <v>0</v>
       </c>
       <c r="AA39" s="7" t="n">
-        <f aca="false">IF(M39="TAK",Arkusz3!$B$19*J39,0)</f>
+        <f aca="false">IF(M39="TAK",Arkusz3!$B$20*J39,0)</f>
         <v>0</v>
       </c>
       <c r="AB39" s="7" t="n">
-        <f aca="false">IF(N39="TAK",Arkusz3!$B$19*J39,0)</f>
-        <v>10</v>
+        <f aca="false">IF(N39="TAK",Arkusz3!$B$21*J39,0)</f>
+        <v>16</v>
       </c>
       <c r="AC39" s="7" t="n">
-        <f aca="false">IF(O39="TAK",Arkusz3!$B$19*J39,0)</f>
-        <v>10</v>
+        <f aca="false">IF(O39="TAK",Arkusz3!$B$22*J39,0)</f>
+        <v>20</v>
       </c>
       <c r="AD39" s="7" t="n">
-        <f aca="false">IF(P39="TAK",Arkusz3!$B$19*J39,0)</f>
-        <v>10</v>
+        <f aca="false">IF(P39="TAK",Arkusz3!$B$23*J39,0)</f>
+        <v>24</v>
       </c>
       <c r="AE39" s="7" t="n">
-        <f aca="false">IF(Q39="TAK",Arkusz3!$B$19*J39,0)</f>
+        <f aca="false">IF(Q39="TAK",Arkusz3!$B$24*J39,0)</f>
         <v>10</v>
       </c>
       <c r="AF39" s="7" t="n">
-        <f aca="false">IF(R39="TAK",Arkusz3!$B$19*J39,0)</f>
-        <v>10</v>
+        <f aca="false">IF(R39="TAK",Arkusz3!$B$25*J39,0)</f>
+        <v>24</v>
       </c>
       <c r="AG39" s="7" t="n">
         <f aca="false">SUM(Z39:AF39)</f>
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="AH39" s="7" t="n">
         <f aca="false">IF(L39="Nie",0,5)</f>
@@ -7895,15 +7907,15 @@
       </c>
       <c r="AQ39" s="7" t="n">
         <f aca="false">IF(AJ39&gt;5,AB39*0.2*(AJ39-5)+AB39,AB39)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AR39" s="7" t="n">
         <f aca="false">IF(AK39&gt;5,AC39*0.2*(AK39-5)+AC39,AC39)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AS39" s="7" t="n">
         <f aca="false">IF(AL39&gt;5,AD39*0.2*(AL39-5)+AD39,AD39)</f>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AT39" s="7" t="n">
         <f aca="false">IF(AM39&gt;5,AE39*0.2*(AM39-5)+AE39,AE39)</f>
@@ -7911,15 +7923,15 @@
       </c>
       <c r="AU39" s="7" t="n">
         <f aca="false">IF(AN39&gt;5,AF39*0.2*(AN39-5)+AF39,AF39)</f>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AV39" s="7" t="n">
         <f aca="false">SUM(AO39:AU39)+Y39</f>
-        <v>184.5</v>
+        <v>228.5</v>
       </c>
       <c r="AW39" s="7" t="n">
         <f aca="false">IF(S39="Roczna",AV39*12*0.95,AV39)</f>
-        <v>184.5</v>
+        <v>228.5</v>
       </c>
       <c r="AX39" s="7" t="s">
         <v>44</v>
@@ -8012,32 +8024,32 @@
         <v>0</v>
       </c>
       <c r="AA40" s="7" t="n">
-        <f aca="false">IF(M40="TAK",Arkusz3!$B$19*J40,0)</f>
-        <v>5</v>
+        <f aca="false">IF(M40="TAK",Arkusz3!$B$20*J40,0)</f>
+        <v>10</v>
       </c>
       <c r="AB40" s="7" t="n">
-        <f aca="false">IF(N40="TAK",Arkusz3!$B$19*J40,0)</f>
+        <f aca="false">IF(N40="TAK",Arkusz3!$B$21*J40,0)</f>
         <v>0</v>
       </c>
       <c r="AC40" s="7" t="n">
-        <f aca="false">IF(O40="TAK",Arkusz3!$B$19*J40,0)</f>
+        <f aca="false">IF(O40="TAK",Arkusz3!$B$22*J40,0)</f>
         <v>0</v>
       </c>
       <c r="AD40" s="7" t="n">
-        <f aca="false">IF(P40="TAK",Arkusz3!$B$19*J40,0)</f>
+        <f aca="false">IF(P40="TAK",Arkusz3!$B$23*J40,0)</f>
         <v>0</v>
       </c>
       <c r="AE40" s="7" t="n">
-        <f aca="false">IF(Q40="TAK",Arkusz3!$B$19*J40,0)</f>
+        <f aca="false">IF(Q40="TAK",Arkusz3!$B$24*J40,0)</f>
         <v>5</v>
       </c>
       <c r="AF40" s="7" t="n">
-        <f aca="false">IF(R40="TAK",Arkusz3!$B$19*J40,0)</f>
-        <v>5</v>
+        <f aca="false">IF(R40="TAK",Arkusz3!$B$25*J40,0)</f>
+        <v>12</v>
       </c>
       <c r="AG40" s="7" t="n">
         <f aca="false">SUM(Z40:AF40)</f>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AH40" s="7" t="n">
         <f aca="false">IF(L40="Nie",0,5)</f>
@@ -8073,7 +8085,7 @@
       </c>
       <c r="AP40" s="7" t="n">
         <f aca="false">IF(AI40&gt;5,AA40*0.2*(AI40-5)+AA40,AA40)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AQ40" s="7" t="n">
         <f aca="false">IF(AJ40&gt;5,AB40*0.2*(AJ40-5)+AB40,AB40)</f>
@@ -8093,15 +8105,15 @@
       </c>
       <c r="AU40" s="7" t="n">
         <f aca="false">IF(AN40&gt;5,AF40*0.2*(AN40-5)+AF40,AF40)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AV40" s="7" t="n">
         <f aca="false">SUM(AO40:AU40)+Y40</f>
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="AW40" s="7" t="n">
         <f aca="false">IF(S40="Roczna",AV40*12*0.95,AV40)</f>
-        <v>1026</v>
+        <v>1162.8</v>
       </c>
       <c r="AX40" s="7" t="s">
         <v>57</v>
@@ -8194,32 +8206,32 @@
         <v>0</v>
       </c>
       <c r="AA41" s="7" t="n">
-        <f aca="false">IF(M41="TAK",Arkusz3!$B$19*J41,0)</f>
-        <v>5</v>
+        <f aca="false">IF(M41="TAK",Arkusz3!$B$20*J41,0)</f>
+        <v>10</v>
       </c>
       <c r="AB41" s="7" t="n">
-        <f aca="false">IF(N41="TAK",Arkusz3!$B$19*J41,0)</f>
+        <f aca="false">IF(N41="TAK",Arkusz3!$B$21*J41,0)</f>
         <v>0</v>
       </c>
       <c r="AC41" s="7" t="n">
-        <f aca="false">IF(O41="TAK",Arkusz3!$B$19*J41,0)</f>
-        <v>5</v>
+        <f aca="false">IF(O41="TAK",Arkusz3!$B$22*J41,0)</f>
+        <v>10</v>
       </c>
       <c r="AD41" s="7" t="n">
-        <f aca="false">IF(P41="TAK",Arkusz3!$B$19*J41,0)</f>
+        <f aca="false">IF(P41="TAK",Arkusz3!$B$23*J41,0)</f>
         <v>0</v>
       </c>
       <c r="AE41" s="7" t="n">
-        <f aca="false">IF(Q41="TAK",Arkusz3!$B$19*J41,0)</f>
+        <f aca="false">IF(Q41="TAK",Arkusz3!$B$24*J41,0)</f>
         <v>5</v>
       </c>
       <c r="AF41" s="7" t="n">
-        <f aca="false">IF(R41="TAK",Arkusz3!$B$19*J41,0)</f>
+        <f aca="false">IF(R41="TAK",Arkusz3!$B$25*J41,0)</f>
         <v>0</v>
       </c>
       <c r="AG41" s="7" t="n">
         <f aca="false">SUM(Z41:AF41)</f>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AH41" s="7" t="n">
         <f aca="false">IF(L41="Nie",0,5)</f>
@@ -8253,7 +8265,7 @@
       </c>
       <c r="AP41" s="7" t="n">
         <f aca="false">IF(AI41&gt;5,AA41*0.2*(AI41-5)+AA41,AA41)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AQ41" s="7" t="n">
         <f aca="false">IF(AJ41&gt;5,AB41*0.2*(AJ41-5)+AB41,AB41)</f>
@@ -8261,7 +8273,7 @@
       </c>
       <c r="AR41" s="7" t="n">
         <f aca="false">IF(AK41&gt;5,AC41*0.2*(AK41-5)+AC41,AC41)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AS41" s="7" t="n">
         <f aca="false">IF(AL41&gt;5,AD41*0.2*(AL41-5)+AD41,AD41)</f>
@@ -8277,36 +8289,42 @@
       </c>
       <c r="AV41" s="7" t="n">
         <f aca="false">SUM(AO41:AU41)+Y41</f>
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="AW41" s="7" t="n">
         <f aca="false">IF(S41="Roczna",AV41*12*0.95,AV41)</f>
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="AX41" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D42" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" s="0" t="n">
+    <row r="42" s="9" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9" t="n">
+        <v>41</v>
+      </c>
+      <c r="D42" s="9" t="n">
+        <v>27</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="K42" s="0" t="n">
+      <c r="K42" s="9" t="n">
         <v>1</v>
       </c>
       <c r="L42" s="1" t="s">
@@ -8316,7 +8334,7 @@
         <v>41</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O42" s="1" t="s">
         <v>41</v>
@@ -8325,134 +8343,127 @@
         <v>41</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S42" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="S42" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="T42" s="7" t="n">
+      <c r="T42" s="10" t="n">
         <f aca="false">G42*Arkusz3!$B$13+H42*Arkusz3!$B$14+I42*Arkusz3!$B$15</f>
         <v>0</v>
       </c>
-      <c r="U42" s="7" t="n">
+      <c r="U42" s="10" t="n">
         <f aca="false">IF((J42+F42)=1, Arkusz3!$C$5, Arkusz3!$B$5*J42)</f>
         <v>40</v>
       </c>
-      <c r="V42" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="W42" s="7" t="n">
+      <c r="V42" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="W42" s="10" t="n">
         <f aca="false">IF(V42&lt;10,T42+U42,0.2*(V42-10)*(T42+U42)+(T42+U42))</f>
         <v>40</v>
       </c>
-      <c r="X42" s="7" t="n">
+      <c r="X42" s="10" t="n">
         <f aca="false">IF(J42&gt;1,(U42/J42)*(J42-1)*10%,0)</f>
         <v>0</v>
       </c>
-      <c r="Y42" s="8" t="n">
+      <c r="Y42" s="11" t="n">
         <f aca="false">W42-X42</f>
         <v>40</v>
       </c>
-      <c r="Z42" s="7" t="n">
+      <c r="Z42" s="10" t="n">
         <f aca="false">IF(L42="TAK",Arkusz3!$B$19*J42,0)</f>
         <v>0</v>
       </c>
-      <c r="AA42" s="7" t="n">
-        <f aca="false">IF(M42="TAK",Arkusz3!$B$19*J42,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB42" s="7" t="n">
-        <f aca="false">IF(N42="TAK",Arkusz3!$B$19*J42,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC42" s="7" t="n">
-        <f aca="false">IF(O42="TAK",Arkusz3!$B$19*J42,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD42" s="7" t="n">
-        <f aca="false">IF(P42="TAK",Arkusz3!$B$19*J42,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE42" s="7" t="n">
-        <f aca="false">IF(Q42="TAK",Arkusz3!$B$19*J42,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF42" s="7" t="n">
-        <f aca="false">IF(R42="TAK",Arkusz3!$B$19*J42,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AG42" s="7" t="n">
+      <c r="AA42" s="10" t="n">
+        <f aca="false">IF(M42="TAK",Arkusz3!$B$20*J42,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB42" s="10" t="n">
+        <f aca="false">IF(N42="TAK",Arkusz3!$B$21*J42,0)</f>
+        <v>8</v>
+      </c>
+      <c r="AC42" s="10" t="n">
+        <f aca="false">IF(O42="TAK",Arkusz3!$B$22*J42,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD42" s="10" t="n">
+        <f aca="false">IF(P42="TAK",Arkusz3!$B$23*J42,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE42" s="10" t="n">
+        <f aca="false">IF(Q42="TAK",Arkusz3!$B$24*J42,0)</f>
+        <v>5</v>
+      </c>
+      <c r="AF42" s="10" t="n">
+        <f aca="false">IF(R42="TAK",Arkusz3!$B$25*J42,0)</f>
+        <v>12</v>
+      </c>
+      <c r="AG42" s="10" t="n">
         <f aca="false">SUM(Z42:AF42)</f>
-        <v>0</v>
-      </c>
-      <c r="AH42" s="7" t="n">
-        <f aca="false">IF(L42="Nie",0,5)</f>
-        <v>0</v>
-      </c>
-      <c r="AI42" s="7" t="n">
-        <f aca="false">IF(M42="Nie",0,5)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ42" s="7" t="n">
-        <f aca="false">IF(N42="Nie",0,5)</f>
-        <v>0</v>
-      </c>
-      <c r="AK42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL42" s="7" t="n">
-        <f aca="false">IF(P42="Nie",0,5)</f>
-        <v>0</v>
-      </c>
-      <c r="AM42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN42" s="7" t="n">
-        <f aca="false">IF(R42="Nie",0,5)</f>
-        <v>0</v>
-      </c>
-      <c r="AO42" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH42" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI42" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ42" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK42" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL42" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM42" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN42" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO42" s="10" t="n">
         <f aca="false">IF(AH42&gt;5,Z42*0.2*(AH42-5)+Z42,Z42)</f>
         <v>0</v>
       </c>
-      <c r="AP42" s="7" t="n">
+      <c r="AP42" s="10" t="n">
         <f aca="false">IF(AI42&gt;5,AA42*0.2*(AI42-5)+AA42,AA42)</f>
         <v>0</v>
       </c>
-      <c r="AQ42" s="7" t="n">
+      <c r="AQ42" s="10" t="n">
         <f aca="false">IF(AJ42&gt;5,AB42*0.2*(AJ42-5)+AB42,AB42)</f>
-        <v>0</v>
-      </c>
-      <c r="AR42" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AR42" s="10" t="n">
         <f aca="false">IF(AK42&gt;5,AC42*0.2*(AK42-5)+AC42,AC42)</f>
         <v>0</v>
       </c>
-      <c r="AS42" s="7" t="n">
+      <c r="AS42" s="10" t="n">
         <f aca="false">IF(AL42&gt;5,AD42*0.2*(AL42-5)+AD42,AD42)</f>
         <v>0</v>
       </c>
-      <c r="AT42" s="7" t="n">
+      <c r="AT42" s="10" t="n">
         <f aca="false">IF(AM42&gt;5,AE42*0.2*(AM42-5)+AE42,AE42)</f>
-        <v>0</v>
-      </c>
-      <c r="AU42" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU42" s="10" t="n">
         <f aca="false">IF(AN42&gt;5,AF42*0.2*(AN42-5)+AF42,AF42)</f>
-        <v>0</v>
-      </c>
-      <c r="AV42" s="7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AV42" s="10" t="n">
         <f aca="false">SUM(AO42:AU42)+Y42</f>
-        <v>40</v>
-      </c>
-      <c r="AW42" s="7" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW42" s="10" t="n">
         <f aca="false">IF(S42="Roczna",AV42*12*0.95,AV42)</f>
-        <v>456</v>
-      </c>
-      <c r="AX42" s="7" t="s">
-        <v>57</v>
-      </c>
+        <v>1026</v>
+      </c>
+      <c r="AX42" s="10"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -9444,15 +9455,15 @@
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17"/>
@@ -9461,68 +9472,68 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="10" t="n">
+      <c r="B1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="13" t="n">
         <v>0.1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="10" t="n">
+      <c r="F1" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="12" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="11" t="n">
+      <c r="B2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="14" t="n">
         <v>0.2</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="12" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7"/>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="13" t="s">
+      <c r="G4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="16" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="17" t="s">
         <v>131</v>
       </c>
       <c r="B5" s="7" t="n">
@@ -9548,7 +9559,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="G6" s="7" t="s">
@@ -9568,7 +9579,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="G7" s="7" t="s">
@@ -9588,7 +9599,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="17" t="s">
         <v>141</v>
       </c>
       <c r="B8" s="7" t="n">
@@ -9599,114 +9610,114 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="20" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="19" t="n">
+      <c r="B13" s="22" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="21" t="n">
+      <c r="B14" s="24" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="19" t="n">
+      <c r="B15" s="22" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C19" s="9"/>
+      <c r="B19" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" s="12"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C20" s="9"/>
+      <c r="B20" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="9" t="n">
+      <c r="B21" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="B22" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="9" t="n">
+      <c r="B23" s="12" t="n">
         <v>12</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+      <c r="B24" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="9" t="n">
+      <c r="B25" s="12" t="n">
         <v>12</v>
       </c>
-      <c r="C25" s="9"/>
+      <c r="C25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -10715,97 +10726,97 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="18" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="17.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="29" style="0" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="22" t="s">
+      <c r="F1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="22" t="s">
+      <c r="J1" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="S1" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="T1" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="U1" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="V1" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="W1" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="X1" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="Y1" s="22" t="s">
+      <c r="Y1" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="Z1" s="22" t="s">
+      <c r="Z1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="22" t="s">
+      <c r="AA1" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="22" t="s">
+      <c r="AB1" s="25" t="s">
         <v>37</v>
       </c>
     </row>
@@ -10888,7 +10899,7 @@
       <c r="Z2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA2" s="23" t="n">
+      <c r="AA2" s="26" t="n">
         <v>404.5</v>
       </c>
       <c r="AB2" s="7" t="s">
@@ -10974,7 +10985,7 @@
       <c r="Z3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA3" s="23" t="n">
+      <c r="AA3" s="26" t="n">
         <v>3539.7</v>
       </c>
       <c r="AB3" s="7" t="s">
@@ -11060,7 +11071,7 @@
       <c r="Z4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA4" s="23" t="n">
+      <c r="AA4" s="26" t="n">
         <v>1197</v>
       </c>
       <c r="AB4" s="7" t="s">
@@ -11146,7 +11157,7 @@
       <c r="Z5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA5" s="23" t="n">
+      <c r="AA5" s="26" t="n">
         <v>264.5</v>
       </c>
       <c r="AB5" s="7" t="s">
@@ -11232,7 +11243,7 @@
       <c r="Z6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA6" s="23" t="n">
+      <c r="AA6" s="26" t="n">
         <v>169</v>
       </c>
       <c r="AB6" s="7" t="s">
@@ -11318,7 +11329,7 @@
       <c r="Z7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA7" s="23" t="n">
+      <c r="AA7" s="26" t="n">
         <v>264.5</v>
       </c>
       <c r="AB7" s="7" t="s">
@@ -11404,7 +11415,7 @@
       <c r="Z8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA8" s="23" t="n">
+      <c r="AA8" s="26" t="n">
         <v>175</v>
       </c>
       <c r="AB8" s="7" t="s">
@@ -11490,7 +11501,7 @@
       <c r="Z9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA9" s="23" t="n">
+      <c r="AA9" s="26" t="n">
         <v>200</v>
       </c>
       <c r="AB9" s="7" t="s">
@@ -11576,7 +11587,7 @@
       <c r="Z10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA10" s="23" t="n">
+      <c r="AA10" s="26" t="n">
         <v>95</v>
       </c>
       <c r="AB10" s="7" t="s">
@@ -11662,7 +11673,7 @@
       <c r="Z11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA11" s="23" t="n">
+      <c r="AA11" s="26" t="n">
         <v>95</v>
       </c>
       <c r="AB11" s="7" t="s">
@@ -11748,7 +11759,7 @@
       <c r="Z12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA12" s="23" t="n">
+      <c r="AA12" s="26" t="n">
         <v>284.5</v>
       </c>
       <c r="AB12" s="7" t="s">
@@ -11834,7 +11845,7 @@
       <c r="Z13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA13" s="23" t="n">
+      <c r="AA13" s="26" t="n">
         <v>244.5</v>
       </c>
       <c r="AB13" s="7" t="s">
@@ -11920,7 +11931,7 @@
       <c r="Z14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA14" s="23" t="n">
+      <c r="AA14" s="26" t="n">
         <v>1083</v>
       </c>
       <c r="AB14" s="7" t="s">
@@ -12006,7 +12017,7 @@
       <c r="Z15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA15" s="23" t="n">
+      <c r="AA15" s="26" t="n">
         <v>496.5</v>
       </c>
       <c r="AB15" s="7" t="s">
@@ -12092,7 +12103,7 @@
       <c r="Z16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA16" s="23" t="n">
+      <c r="AA16" s="26" t="n">
         <v>110</v>
       </c>
       <c r="AB16" s="7" t="s">
@@ -12178,7 +12189,7 @@
       <c r="Z17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA17" s="23" t="n">
+      <c r="AA17" s="26" t="n">
         <v>160</v>
       </c>
       <c r="AB17" s="7" t="s">
@@ -12264,7 +12275,7 @@
       <c r="Z18" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA18" s="23" t="n">
+      <c r="AA18" s="26" t="n">
         <v>3608.1</v>
       </c>
       <c r="AB18" s="7" t="s">
@@ -12350,7 +12361,7 @@
       <c r="Z19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA19" s="23" t="n">
+      <c r="AA19" s="26" t="n">
         <v>2946.9</v>
       </c>
       <c r="AB19" s="7" t="s">
@@ -12436,7 +12447,7 @@
       <c r="Z20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA20" s="23" t="n">
+      <c r="AA20" s="26" t="n">
         <v>374.5</v>
       </c>
       <c r="AB20" s="7" t="s">
@@ -12522,7 +12533,7 @@
       <c r="Z21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA21" s="23" t="n">
+      <c r="AA21" s="26" t="n">
         <v>111</v>
       </c>
       <c r="AB21" s="7" t="s">
@@ -12608,7 +12619,7 @@
       <c r="Z22" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA22" s="23" t="n">
+      <c r="AA22" s="26" t="n">
         <v>264.5</v>
       </c>
       <c r="AB22" s="7" t="s">
@@ -12694,7 +12705,7 @@
       <c r="Z23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA23" s="23" t="n">
+      <c r="AA23" s="26" t="n">
         <v>335</v>
       </c>
       <c r="AB23" s="7" t="s">
@@ -12780,7 +12791,7 @@
       <c r="Z24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA24" s="23" t="n">
+      <c r="AA24" s="26" t="n">
         <v>170</v>
       </c>
       <c r="AB24" s="7" t="s">
@@ -12866,7 +12877,7 @@
       <c r="Z25" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA25" s="23" t="n">
+      <c r="AA25" s="26" t="n">
         <v>150</v>
       </c>
       <c r="AB25" s="7" t="s">
@@ -12952,7 +12963,7 @@
       <c r="Z26" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA26" s="23" t="n">
+      <c r="AA26" s="26" t="n">
         <v>170.5</v>
       </c>
       <c r="AB26" s="7" t="s">
@@ -13038,7 +13049,7 @@
       <c r="Z27" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA27" s="23" t="n">
+      <c r="AA27" s="26" t="n">
         <v>374.5</v>
       </c>
       <c r="AB27" s="7" t="s">
@@ -13124,7 +13135,7 @@
       <c r="Z28" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA28" s="23" t="n">
+      <c r="AA28" s="26" t="n">
         <v>135</v>
       </c>
       <c r="AB28" s="7" t="s">
@@ -13210,7 +13221,7 @@
       <c r="Z29" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA29" s="23" t="n">
+      <c r="AA29" s="26" t="n">
         <v>145</v>
       </c>
       <c r="AB29" s="7" t="s">
@@ -13296,7 +13307,7 @@
       <c r="Z30" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA30" s="23" t="n">
+      <c r="AA30" s="26" t="n">
         <v>534.5</v>
       </c>
       <c r="AB30" s="7" t="s">
@@ -13382,7 +13393,7 @@
       <c r="Z31" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA31" s="23" t="n">
+      <c r="AA31" s="26" t="n">
         <v>86</v>
       </c>
       <c r="AB31" s="7" t="s">
@@ -13468,7 +13479,7 @@
       <c r="Z32" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA32" s="23" t="n">
+      <c r="AA32" s="26" t="n">
         <v>190</v>
       </c>
       <c r="AB32" s="7" t="s">
@@ -13554,7 +13565,7 @@
       <c r="Z33" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA33" s="23" t="n">
+      <c r="AA33" s="26" t="n">
         <v>304.5</v>
       </c>
       <c r="AB33" s="7" t="s">
@@ -13640,7 +13651,7 @@
       <c r="Z34" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA34" s="23" t="n">
+      <c r="AA34" s="26" t="n">
         <v>55</v>
       </c>
       <c r="AB34" s="7" t="s">
@@ -13726,7 +13737,7 @@
       <c r="Z35" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA35" s="23" t="n">
+      <c r="AA35" s="26" t="n">
         <v>215</v>
       </c>
       <c r="AB35" s="7" t="s">
@@ -13812,7 +13823,7 @@
       <c r="Z36" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA36" s="23" t="n">
+      <c r="AA36" s="26" t="n">
         <v>4611.3</v>
       </c>
       <c r="AB36" s="7" t="s">
@@ -13898,7 +13909,7 @@
       <c r="Z37" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA37" s="23" t="n">
+      <c r="AA37" s="26" t="n">
         <v>410.4</v>
       </c>
       <c r="AB37" s="7" t="s">
@@ -13984,7 +13995,7 @@
       <c r="Z38" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA38" s="23" t="n">
+      <c r="AA38" s="26" t="n">
         <v>1995</v>
       </c>
       <c r="AB38" s="7" t="s">
@@ -14070,7 +14081,7 @@
       <c r="Z39" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA39" s="23" t="n">
+      <c r="AA39" s="26" t="n">
         <v>324.5</v>
       </c>
       <c r="AB39" s="7" t="s">
@@ -14156,7 +14167,7 @@
       <c r="Z40" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA40" s="23" t="n">
+      <c r="AA40" s="26" t="n">
         <v>1539</v>
       </c>
       <c r="AB40" s="7" t="s">
@@ -14242,7 +14253,7 @@
       <c r="Z41" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA41" s="23" t="n">
+      <c r="AA41" s="26" t="n">
         <v>105</v>
       </c>
       <c r="AB41" s="7" t="s">

--- a/DaneDoTestów.xlsx
+++ b/DaneDoTestów.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId2"/>
@@ -670,7 +670,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -705,18 +705,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -858,10 +846,10 @@
   </sheetPr>
   <dimension ref="A1:AX43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AL1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="AL1" activeCellId="0" sqref="AL1"/>
-      <selection pane="bottomLeft" activeCell="AX42" activeCellId="0" sqref="AX42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AK1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="AK1" activeCellId="0" sqref="AK1"/>
+      <selection pane="bottomLeft" activeCell="AX52" activeCellId="0" sqref="AX52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3761,7 +3749,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
@@ -3848,32 +3836,32 @@
         <v>0</v>
       </c>
       <c r="AA17" s="7" t="n">
-        <f aca="false">IF(M17="TAK",Arkusz3!$B$20*J17,0)</f>
-        <v>10</v>
+        <f aca="false">IF(M17="TAK",Arkusz3!$B$19*J17,0)</f>
+        <v>5</v>
       </c>
       <c r="AB17" s="7" t="n">
-        <f aca="false">IF(N17="TAK",Arkusz3!$B$21*J17,0)</f>
+        <f aca="false">IF(N17="TAK",Arkusz3!$B$19*J17,0)</f>
         <v>0</v>
       </c>
       <c r="AC17" s="7" t="n">
-        <f aca="false">IF(O17="TAK",Arkusz3!$B$22*J17,0)</f>
+        <f aca="false">IF(O17="TAK",Arkusz3!$B$19*J17,0)</f>
         <v>0</v>
       </c>
       <c r="AD17" s="7" t="n">
-        <f aca="false">IF(P17="TAK",Arkusz3!$B$23*J17,0)</f>
+        <f aca="false">IF(P17="TAK",Arkusz3!$B$19*J17,0)</f>
         <v>0</v>
       </c>
       <c r="AE17" s="7" t="n">
-        <f aca="false">IF(Q17="TAK",Arkusz3!$B$24*J17,0)</f>
+        <f aca="false">IF(Q17="TAK",Arkusz3!$B$19*J17,0)</f>
         <v>5</v>
       </c>
       <c r="AF17" s="7" t="n">
-        <f aca="false">IF(R17="TAK",Arkusz3!$B$25*J17,0)</f>
+        <f aca="false">IF(R17="TAK",Arkusz3!$B$19*J17,0)</f>
         <v>0</v>
       </c>
       <c r="AG17" s="7" t="n">
         <f aca="false">SUM(Z17:AF17)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AH17" s="7" t="n">
         <f aca="false">IF(L17="Nie",0,5)</f>
@@ -3909,7 +3897,7 @@
       </c>
       <c r="AP17" s="7" t="n">
         <f aca="false">IF(AI17&gt;5,AA17*0.2*(AI17-5)+AA17,AA17)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AQ17" s="7" t="n">
         <f aca="false">IF(AJ17&gt;5,AB17*0.2*(AJ17-5)+AB17,AB17)</f>
@@ -3933,17 +3921,17 @@
       </c>
       <c r="AV17" s="7" t="n">
         <f aca="false">SUM(AO17:AU17)+Y17</f>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AW17" s="7" t="n">
         <f aca="false">IF(S17="Roczna",AV17*12*0.95,AV17)</f>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AX17" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
@@ -4030,32 +4018,32 @@
         <v>0</v>
       </c>
       <c r="AA18" s="7" t="n">
-        <f aca="false">IF(M18="TAK",Arkusz3!$B$20*J18,0)</f>
-        <v>20</v>
+        <f aca="false">IF(M18="TAK",Arkusz3!$B$19*J18,0)</f>
+        <v>10</v>
       </c>
       <c r="AB18" s="7" t="n">
-        <f aca="false">IF(N18="TAK",Arkusz3!$B$21*J18,0)</f>
+        <f aca="false">IF(N18="TAK",Arkusz3!$B$19*J18,0)</f>
         <v>0</v>
       </c>
       <c r="AC18" s="7" t="n">
-        <f aca="false">IF(O18="TAK",Arkusz3!$B$22*J18,0)</f>
-        <v>20</v>
+        <f aca="false">IF(O18="TAK",Arkusz3!$B$19*J18,0)</f>
+        <v>10</v>
       </c>
       <c r="AD18" s="7" t="n">
-        <f aca="false">IF(P18="TAK",Arkusz3!$B$23*J18,0)</f>
+        <f aca="false">IF(P18="TAK",Arkusz3!$B$19*J18,0)</f>
         <v>0</v>
       </c>
       <c r="AE18" s="7" t="n">
-        <f aca="false">IF(Q18="TAK",Arkusz3!$B$24*J18,0)</f>
+        <f aca="false">IF(Q18="TAK",Arkusz3!$B$19*J18,0)</f>
         <v>10</v>
       </c>
       <c r="AF18" s="7" t="n">
-        <f aca="false">IF(R18="TAK",Arkusz3!$B$25*J18,0)</f>
-        <v>24</v>
+        <f aca="false">IF(R18="TAK",Arkusz3!$B$19*J18,0)</f>
+        <v>10</v>
       </c>
       <c r="AG18" s="7" t="n">
         <f aca="false">SUM(Z18:AF18)</f>
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AH18" s="7" t="n">
         <f aca="false">IF(L18="Nie",0,5)</f>
@@ -4088,7 +4076,7 @@
       </c>
       <c r="AP18" s="7" t="n">
         <f aca="false">IF(AI18&gt;5,AA18*0.2*(AI18-5)+AA18,AA18)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AQ18" s="7" t="n">
         <f aca="false">IF(AJ18&gt;5,AB18*0.2*(AJ18-5)+AB18,AB18)</f>
@@ -4096,7 +4084,7 @@
       </c>
       <c r="AR18" s="7" t="n">
         <f aca="false">IF(AK18&gt;5,AC18*0.2*(AK18-5)+AC18,AC18)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AS18" s="7" t="n">
         <f aca="false">IF(AL18&gt;5,AD18*0.2*(AL18-5)+AD18,AD18)</f>
@@ -4108,21 +4096,21 @@
       </c>
       <c r="AU18" s="7" t="n">
         <f aca="false">IF(AN18&gt;5,AF18*0.2*(AN18-5)+AF18,AF18)</f>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="AV18" s="7" t="n">
         <f aca="false">SUM(AO18:AU18)+Y18</f>
-        <v>218.5</v>
+        <v>184.5</v>
       </c>
       <c r="AW18" s="7" t="n">
         <f aca="false">IF(S18="Roczna",AV18*12*0.95,AV18)</f>
-        <v>2490.9</v>
+        <v>2103.3</v>
       </c>
       <c r="AX18" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
@@ -4209,32 +4197,32 @@
         <v>0</v>
       </c>
       <c r="AA19" s="7" t="n">
-        <f aca="false">IF(M19="TAK",Arkusz3!$B$20*J19,0)</f>
+        <f aca="false">IF(M19="TAK",Arkusz3!$B$19*J19,0)</f>
         <v>0</v>
       </c>
       <c r="AB19" s="7" t="n">
-        <f aca="false">IF(N19="TAK",Arkusz3!$B$21*J19,0)</f>
+        <f aca="false">IF(N19="TAK",Arkusz3!$B$19*J19,0)</f>
         <v>0</v>
       </c>
       <c r="AC19" s="7" t="n">
-        <f aca="false">IF(O19="TAK",Arkusz3!$B$22*J19,0)</f>
+        <f aca="false">IF(O19="TAK",Arkusz3!$B$19*J19,0)</f>
         <v>0</v>
       </c>
       <c r="AD19" s="7" t="n">
-        <f aca="false">IF(P19="TAK",Arkusz3!$B$23*J19,0)</f>
+        <f aca="false">IF(P19="TAK",Arkusz3!$B$19*J19,0)</f>
         <v>0</v>
       </c>
       <c r="AE19" s="7" t="n">
-        <f aca="false">IF(Q19="TAK",Arkusz3!$B$24*J19,0)</f>
+        <f aca="false">IF(Q19="TAK",Arkusz3!$B$19*J19,0)</f>
         <v>0</v>
       </c>
       <c r="AF19" s="7" t="n">
-        <f aca="false">IF(R19="TAK",Arkusz3!$B$25*J19,0)</f>
-        <v>24</v>
+        <f aca="false">IF(R19="TAK",Arkusz3!$B$19*J19,0)</f>
+        <v>10</v>
       </c>
       <c r="AG19" s="7" t="n">
         <f aca="false">SUM(Z19:AF19)</f>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="AH19" s="7" t="n">
         <f aca="false">IF(L19="Nie",0,5)</f>
@@ -4289,21 +4277,21 @@
       </c>
       <c r="AU19" s="7" t="n">
         <f aca="false">IF(AN19&gt;5,AF19*0.2*(AN19-5)+AF19,AF19)</f>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="AV19" s="7" t="n">
         <f aca="false">SUM(AO19:AU19)+Y19</f>
-        <v>148.5</v>
+        <v>134.5</v>
       </c>
       <c r="AW19" s="7" t="n">
         <f aca="false">IF(S19="Roczna",AV19*12*0.95,AV19)</f>
-        <v>1692.9</v>
+        <v>1533.3</v>
       </c>
       <c r="AX19" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
@@ -4390,32 +4378,32 @@
         <v>0</v>
       </c>
       <c r="AA20" s="7" t="n">
-        <f aca="false">IF(M20="TAK",Arkusz3!$B$20*J20,0)</f>
-        <v>20</v>
+        <f aca="false">IF(M20="TAK",Arkusz3!$B$19*J20,0)</f>
+        <v>10</v>
       </c>
       <c r="AB20" s="7" t="n">
-        <f aca="false">IF(N20="TAK",Arkusz3!$B$21*J20,0)</f>
-        <v>16</v>
+        <f aca="false">IF(N20="TAK",Arkusz3!$B$19*J20,0)</f>
+        <v>10</v>
       </c>
       <c r="AC20" s="7" t="n">
-        <f aca="false">IF(O20="TAK",Arkusz3!$B$22*J20,0)</f>
-        <v>20</v>
+        <f aca="false">IF(O20="TAK",Arkusz3!$B$19*J20,0)</f>
+        <v>10</v>
       </c>
       <c r="AD20" s="7" t="n">
-        <f aca="false">IF(P20="TAK",Arkusz3!$B$23*J20,0)</f>
+        <f aca="false">IF(P20="TAK",Arkusz3!$B$19*J20,0)</f>
         <v>0</v>
       </c>
       <c r="AE20" s="7" t="n">
-        <f aca="false">IF(Q20="TAK",Arkusz3!$B$24*J20,0)</f>
+        <f aca="false">IF(Q20="TAK",Arkusz3!$B$19*J20,0)</f>
         <v>0</v>
       </c>
       <c r="AF20" s="7" t="n">
-        <f aca="false">IF(R20="TAK",Arkusz3!$B$25*J20,0)</f>
-        <v>24</v>
+        <f aca="false">IF(R20="TAK",Arkusz3!$B$19*J20,0)</f>
+        <v>10</v>
       </c>
       <c r="AG20" s="7" t="n">
         <f aca="false">SUM(Z20:AF20)</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AH20" s="7" t="n">
         <f aca="false">IF(L20="Nie",0,5)</f>
@@ -4451,15 +4439,15 @@
       </c>
       <c r="AP20" s="7" t="n">
         <f aca="false">IF(AI20&gt;5,AA20*0.2*(AI20-5)+AA20,AA20)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AQ20" s="7" t="n">
         <f aca="false">IF(AJ20&gt;5,AB20*0.2*(AJ20-5)+AB20,AB20)</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AR20" s="7" t="n">
         <f aca="false">IF(AK20&gt;5,AC20*0.2*(AK20-5)+AC20,AC20)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AS20" s="7" t="n">
         <f aca="false">IF(AL20&gt;5,AD20*0.2*(AL20-5)+AD20,AD20)</f>
@@ -4471,15 +4459,15 @@
       </c>
       <c r="AU20" s="7" t="n">
         <f aca="false">IF(AN20&gt;5,AF20*0.2*(AN20-5)+AF20,AF20)</f>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="AV20" s="7" t="n">
         <f aca="false">SUM(AO20:AU20)+Y20</f>
-        <v>244.5</v>
+        <v>204.5</v>
       </c>
       <c r="AW20" s="7" t="n">
         <f aca="false">IF(S20="Roczna",AV20*12*0.95,AV20)</f>
-        <v>244.5</v>
+        <v>204.5</v>
       </c>
       <c r="AX20" s="7" t="s">
         <v>44</v>
@@ -4572,32 +4560,32 @@
         <v>5</v>
       </c>
       <c r="AA21" s="7" t="n">
-        <f aca="false">IF(M21="TAK",Arkusz3!$B$20*J21,0)</f>
+        <f aca="false">IF(M21="TAK",Arkusz3!$B$19*J21,0)</f>
         <v>0</v>
       </c>
       <c r="AB21" s="7" t="n">
-        <f aca="false">IF(N21="TAK",Arkusz3!$B$21*J21,0)</f>
+        <f aca="false">IF(N21="TAK",Arkusz3!$B$19*J21,0)</f>
         <v>0</v>
       </c>
       <c r="AC21" s="7" t="n">
-        <f aca="false">IF(O21="TAK",Arkusz3!$B$22*J21,0)</f>
+        <f aca="false">IF(O21="TAK",Arkusz3!$B$19*J21,0)</f>
         <v>0</v>
       </c>
       <c r="AD21" s="7" t="n">
-        <f aca="false">IF(P21="TAK",Arkusz3!$B$23*J21,0)</f>
+        <f aca="false">IF(P21="TAK",Arkusz3!$B$19*J21,0)</f>
         <v>0</v>
       </c>
       <c r="AE21" s="7" t="n">
-        <f aca="false">IF(Q21="TAK",Arkusz3!$B$24*J21,0)</f>
+        <f aca="false">IF(Q21="TAK",Arkusz3!$B$19*J21,0)</f>
         <v>5</v>
       </c>
       <c r="AF21" s="7" t="n">
-        <f aca="false">IF(R21="TAK",Arkusz3!$B$25*J21,0)</f>
-        <v>12</v>
+        <f aca="false">IF(R21="TAK",Arkusz3!$B$19*J21,0)</f>
+        <v>5</v>
       </c>
       <c r="AG21" s="7" t="n">
         <f aca="false">SUM(Z21:AF21)</f>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AH21" s="7" t="n">
         <f aca="false">IF(L21="Nie",0,5)</f>
@@ -4653,15 +4641,15 @@
       </c>
       <c r="AU21" s="7" t="n">
         <f aca="false">IF(AN21&gt;5,AF21*0.2*(AN21-5)+AF21,AF21)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AV21" s="7" t="n">
         <f aca="false">SUM(AO21:AU21)+Y21</f>
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AW21" s="7" t="n">
         <f aca="false">IF(S21="Roczna",AV21*12*0.95,AV21)</f>
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AX21" s="7" t="s">
         <v>57</v>
@@ -4754,32 +4742,32 @@
         <v>0</v>
       </c>
       <c r="AA22" s="7" t="n">
-        <f aca="false">IF(M22="TAK",Arkusz3!$B$20*J22,0)</f>
-        <v>20</v>
+        <f aca="false">IF(M22="TAK",Arkusz3!$B$19*J22,0)</f>
+        <v>10</v>
       </c>
       <c r="AB22" s="7" t="n">
-        <f aca="false">IF(N22="TAK",Arkusz3!$B$21*J22,0)</f>
-        <v>16</v>
+        <f aca="false">IF(N22="TAK",Arkusz3!$B$19*J22,0)</f>
+        <v>10</v>
       </c>
       <c r="AC22" s="7" t="n">
-        <f aca="false">IF(O22="TAK",Arkusz3!$B$22*J22,0)</f>
+        <f aca="false">IF(O22="TAK",Arkusz3!$B$19*J22,0)</f>
         <v>0</v>
       </c>
       <c r="AD22" s="7" t="n">
-        <f aca="false">IF(P22="TAK",Arkusz3!$B$23*J22,0)</f>
-        <v>24</v>
+        <f aca="false">IF(P22="TAK",Arkusz3!$B$19*J22,0)</f>
+        <v>10</v>
       </c>
       <c r="AE22" s="7" t="n">
-        <f aca="false">IF(Q22="TAK",Arkusz3!$B$24*J22,0)</f>
+        <f aca="false">IF(Q22="TAK",Arkusz3!$B$19*J22,0)</f>
         <v>0</v>
       </c>
       <c r="AF22" s="7" t="n">
-        <f aca="false">IF(R22="TAK",Arkusz3!$B$25*J22,0)</f>
+        <f aca="false">IF(R22="TAK",Arkusz3!$B$19*J22,0)</f>
         <v>0</v>
       </c>
       <c r="AG22" s="7" t="n">
         <f aca="false">SUM(Z22:AF22)</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AH22" s="7" t="n">
         <f aca="false">IF(L22="Nie",0,5)</f>
@@ -4813,11 +4801,11 @@
       </c>
       <c r="AP22" s="7" t="n">
         <f aca="false">IF(AI22&gt;5,AA22*0.2*(AI22-5)+AA22,AA22)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AQ22" s="7" t="n">
         <f aca="false">IF(AJ22&gt;5,AB22*0.2*(AJ22-5)+AB22,AB22)</f>
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="AR22" s="7" t="n">
         <f aca="false">IF(AK22&gt;5,AC22*0.2*(AK22-5)+AC22,AC22)</f>
@@ -4825,7 +4813,7 @@
       </c>
       <c r="AS22" s="7" t="n">
         <f aca="false">IF(AL22&gt;5,AD22*0.2*(AL22-5)+AD22,AD22)</f>
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="AT22" s="7" t="n">
         <f aca="false">IF(AM22&gt;5,AE22*0.2*(AM22-5)+AE22,AE22)</f>
@@ -4837,11 +4825,11 @@
       </c>
       <c r="AV22" s="7" t="n">
         <f aca="false">SUM(AO22:AU22)+Y22</f>
-        <v>204.5</v>
+        <v>154.5</v>
       </c>
       <c r="AW22" s="7" t="n">
         <f aca="false">IF(S22="Roczna",AV22*12*0.95,AV22)</f>
-        <v>204.5</v>
+        <v>154.5</v>
       </c>
       <c r="AX22" s="7" t="s">
         <v>44</v>
@@ -4934,32 +4922,32 @@
         <v>0</v>
       </c>
       <c r="AA23" s="7" t="n">
-        <f aca="false">IF(M23="TAK",Arkusz3!$B$20*J23,0)</f>
+        <f aca="false">IF(M23="TAK",Arkusz3!$B$19*J23,0)</f>
         <v>0</v>
       </c>
       <c r="AB23" s="7" t="n">
-        <f aca="false">IF(N23="TAK",Arkusz3!$B$21*J23,0)</f>
+        <f aca="false">IF(N23="TAK",Arkusz3!$B$19*J23,0)</f>
         <v>0</v>
       </c>
       <c r="AC23" s="7" t="n">
-        <f aca="false">IF(O23="TAK",Arkusz3!$B$22*J23,0)</f>
-        <v>10</v>
+        <f aca="false">IF(O23="TAK",Arkusz3!$B$19*J23,0)</f>
+        <v>5</v>
       </c>
       <c r="AD23" s="7" t="n">
-        <f aca="false">IF(P23="TAK",Arkusz3!$B$23*J23,0)</f>
+        <f aca="false">IF(P23="TAK",Arkusz3!$B$19*J23,0)</f>
         <v>0</v>
       </c>
       <c r="AE23" s="7" t="n">
-        <f aca="false">IF(Q23="TAK",Arkusz3!$B$24*J23,0)</f>
+        <f aca="false">IF(Q23="TAK",Arkusz3!$B$19*J23,0)</f>
         <v>5</v>
       </c>
       <c r="AF23" s="7" t="n">
-        <f aca="false">IF(R23="TAK",Arkusz3!$B$25*J23,0)</f>
-        <v>12</v>
+        <f aca="false">IF(R23="TAK",Arkusz3!$B$19*J23,0)</f>
+        <v>5</v>
       </c>
       <c r="AG23" s="7" t="n">
         <f aca="false">SUM(Z23:AF23)</f>
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="AH23" s="7" t="n">
         <f aca="false">IF(L23="Nie",0,5)</f>
@@ -5003,7 +4991,7 @@
       </c>
       <c r="AR23" s="7" t="n">
         <f aca="false">IF(AK23&gt;5,AC23*0.2*(AK23-5)+AC23,AC23)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AS23" s="7" t="n">
         <f aca="false">IF(AL23&gt;5,AD23*0.2*(AL23-5)+AD23,AD23)</f>
@@ -5015,15 +5003,15 @@
       </c>
       <c r="AU23" s="7" t="n">
         <f aca="false">IF(AN23&gt;5,AF23*0.2*(AN23-5)+AF23,AF23)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AV23" s="7" t="n">
         <f aca="false">SUM(AO23:AU23)+Y23</f>
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="AW23" s="7" t="n">
         <f aca="false">IF(S23="Roczna",AV23*12*0.95,AV23)</f>
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="AX23" s="7" t="s">
         <v>44</v>
@@ -5116,32 +5104,32 @@
         <v>0</v>
       </c>
       <c r="AA24" s="7" t="n">
-        <f aca="false">IF(M24="TAK",Arkusz3!$B$20*J24,0)</f>
+        <f aca="false">IF(M24="TAK",Arkusz3!$B$19*J24,0)</f>
         <v>0</v>
       </c>
       <c r="AB24" s="7" t="n">
-        <f aca="false">IF(N24="TAK",Arkusz3!$B$21*J24,0)</f>
-        <v>8</v>
+        <f aca="false">IF(N24="TAK",Arkusz3!$B$19*J24,0)</f>
+        <v>5</v>
       </c>
       <c r="AC24" s="7" t="n">
-        <f aca="false">IF(O24="TAK",Arkusz3!$B$22*J24,0)</f>
-        <v>10</v>
+        <f aca="false">IF(O24="TAK",Arkusz3!$B$19*J24,0)</f>
+        <v>5</v>
       </c>
       <c r="AD24" s="7" t="n">
-        <f aca="false">IF(P24="TAK",Arkusz3!$B$23*J24,0)</f>
+        <f aca="false">IF(P24="TAK",Arkusz3!$B$19*J24,0)</f>
         <v>0</v>
       </c>
       <c r="AE24" s="7" t="n">
-        <f aca="false">IF(Q24="TAK",Arkusz3!$B$24*J24,0)</f>
+        <f aca="false">IF(Q24="TAK",Arkusz3!$B$19*J24,0)</f>
         <v>5</v>
       </c>
       <c r="AF24" s="7" t="n">
-        <f aca="false">IF(R24="TAK",Arkusz3!$B$25*J24,0)</f>
-        <v>12</v>
+        <f aca="false">IF(R24="TAK",Arkusz3!$B$19*J24,0)</f>
+        <v>5</v>
       </c>
       <c r="AG24" s="7" t="n">
         <f aca="false">SUM(Z24:AF24)</f>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AH24" s="7" t="n">
         <f aca="false">IF(L24="Nie",0,5)</f>
@@ -5181,11 +5169,11 @@
       </c>
       <c r="AQ24" s="7" t="n">
         <f aca="false">IF(AJ24&gt;5,AB24*0.2*(AJ24-5)+AB24,AB24)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AR24" s="7" t="n">
         <f aca="false">IF(AK24&gt;5,AC24*0.2*(AK24-5)+AC24,AC24)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AS24" s="7" t="n">
         <f aca="false">IF(AL24&gt;5,AD24*0.2*(AL24-5)+AD24,AD24)</f>
@@ -5197,15 +5185,15 @@
       </c>
       <c r="AU24" s="7" t="n">
         <f aca="false">IF(AN24&gt;5,AF24*0.2*(AN24-5)+AF24,AF24)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AV24" s="7" t="n">
         <f aca="false">SUM(AO24:AU24)+Y24</f>
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="AW24" s="7" t="n">
         <f aca="false">IF(S24="Roczna",AV24*12*0.95,AV24)</f>
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="AX24" s="7" t="s">
         <v>49</v>
@@ -5298,32 +5286,32 @@
         <v>0</v>
       </c>
       <c r="AA25" s="7" t="n">
-        <f aca="false">IF(M25="TAK",Arkusz3!$B$20*J25,0)</f>
-        <v>10</v>
+        <f aca="false">IF(M25="TAK",Arkusz3!$B$19*J25,0)</f>
+        <v>5</v>
       </c>
       <c r="AB25" s="7" t="n">
-        <f aca="false">IF(N25="TAK",Arkusz3!$B$21*J25,0)</f>
+        <f aca="false">IF(N25="TAK",Arkusz3!$B$19*J25,0)</f>
         <v>0</v>
       </c>
       <c r="AC25" s="7" t="n">
-        <f aca="false">IF(O25="TAK",Arkusz3!$B$22*J25,0)</f>
-        <v>10</v>
+        <f aca="false">IF(O25="TAK",Arkusz3!$B$19*J25,0)</f>
+        <v>5</v>
       </c>
       <c r="AD25" s="7" t="n">
-        <f aca="false">IF(P25="TAK",Arkusz3!$B$23*J25,0)</f>
+        <f aca="false">IF(P25="TAK",Arkusz3!$B$19*J25,0)</f>
         <v>0</v>
       </c>
       <c r="AE25" s="7" t="n">
-        <f aca="false">IF(Q25="TAK",Arkusz3!$B$24*J25,0)</f>
+        <f aca="false">IF(Q25="TAK",Arkusz3!$B$19*J25,0)</f>
         <v>0</v>
       </c>
       <c r="AF25" s="7" t="n">
-        <f aca="false">IF(R25="TAK",Arkusz3!$B$25*J25,0)</f>
+        <f aca="false">IF(R25="TAK",Arkusz3!$B$19*J25,0)</f>
         <v>0</v>
       </c>
       <c r="AG25" s="7" t="n">
         <f aca="false">SUM(Z25:AF25)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AH25" s="7" t="n">
         <f aca="false">IF(L25="Nie",0,5)</f>
@@ -5359,7 +5347,7 @@
       </c>
       <c r="AP25" s="7" t="n">
         <f aca="false">IF(AI25&gt;5,AA25*0.2*(AI25-5)+AA25,AA25)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AQ25" s="7" t="n">
         <f aca="false">IF(AJ25&gt;5,AB25*0.2*(AJ25-5)+AB25,AB25)</f>
@@ -5367,7 +5355,7 @@
       </c>
       <c r="AR25" s="7" t="n">
         <f aca="false">IF(AK25&gt;5,AC25*0.2*(AK25-5)+AC25,AC25)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AS25" s="7" t="n">
         <f aca="false">IF(AL25&gt;5,AD25*0.2*(AL25-5)+AD25,AD25)</f>
@@ -5383,11 +5371,11 @@
       </c>
       <c r="AV25" s="7" t="n">
         <f aca="false">SUM(AO25:AU25)+Y25</f>
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="AW25" s="7" t="n">
         <f aca="false">IF(S25="Roczna",AV25*12*0.95,AV25)</f>
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="AX25" s="7" t="s">
         <v>57</v>
@@ -5480,32 +5468,32 @@
         <v>0</v>
       </c>
       <c r="AA26" s="7" t="n">
-        <f aca="false">IF(M26="TAK",Arkusz3!$B$20*J26,0)</f>
-        <v>20</v>
+        <f aca="false">IF(M26="TAK",Arkusz3!$B$19*J26,0)</f>
+        <v>10</v>
       </c>
       <c r="AB26" s="7" t="n">
-        <f aca="false">IF(N26="TAK",Arkusz3!$B$21*J26,0)</f>
-        <v>16</v>
+        <f aca="false">IF(N26="TAK",Arkusz3!$B$19*J26,0)</f>
+        <v>10</v>
       </c>
       <c r="AC26" s="7" t="n">
-        <f aca="false">IF(O26="TAK",Arkusz3!$B$22*J26,0)</f>
+        <f aca="false">IF(O26="TAK",Arkusz3!$B$19*J26,0)</f>
         <v>0</v>
       </c>
       <c r="AD26" s="7" t="n">
-        <f aca="false">IF(P26="TAK",Arkusz3!$B$23*J26,0)</f>
-        <v>24</v>
+        <f aca="false">IF(P26="TAK",Arkusz3!$B$19*J26,0)</f>
+        <v>10</v>
       </c>
       <c r="AE26" s="7" t="n">
-        <f aca="false">IF(Q26="TAK",Arkusz3!$B$24*J26,0)</f>
+        <f aca="false">IF(Q26="TAK",Arkusz3!$B$19*J26,0)</f>
         <v>0</v>
       </c>
       <c r="AF26" s="7" t="n">
-        <f aca="false">IF(R26="TAK",Arkusz3!$B$25*J26,0)</f>
-        <v>24</v>
+        <f aca="false">IF(R26="TAK",Arkusz3!$B$19*J26,0)</f>
+        <v>10</v>
       </c>
       <c r="AG26" s="7" t="n">
         <f aca="false">SUM(Z26:AF26)</f>
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="AH26" s="7" t="n">
         <f aca="false">IF(L26="Nie",0,5)</f>
@@ -5541,11 +5529,11 @@
       </c>
       <c r="AP26" s="7" t="n">
         <f aca="false">IF(AI26&gt;5,AA26*0.2*(AI26-5)+AA26,AA26)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AQ26" s="7" t="n">
         <f aca="false">IF(AJ26&gt;5,AB26*0.2*(AJ26-5)+AB26,AB26)</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AR26" s="7" t="n">
         <f aca="false">IF(AK26&gt;5,AC26*0.2*(AK26-5)+AC26,AC26)</f>
@@ -5553,7 +5541,7 @@
       </c>
       <c r="AS26" s="7" t="n">
         <f aca="false">IF(AL26&gt;5,AD26*0.2*(AL26-5)+AD26,AD26)</f>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="AT26" s="7" t="n">
         <f aca="false">IF(AM26&gt;5,AE26*0.2*(AM26-5)+AE26,AE26)</f>
@@ -5561,15 +5549,15 @@
       </c>
       <c r="AU26" s="7" t="n">
         <f aca="false">IF(AN26&gt;5,AF26*0.2*(AN26-5)+AF26,AF26)</f>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="AV26" s="7" t="n">
         <f aca="false">SUM(AO26:AU26)+Y26</f>
-        <v>248.5</v>
+        <v>204.5</v>
       </c>
       <c r="AW26" s="7" t="n">
         <f aca="false">IF(S26="Roczna",AV26*12*0.95,AV26)</f>
-        <v>248.5</v>
+        <v>204.5</v>
       </c>
       <c r="AX26" s="7" t="s">
         <v>49</v>
@@ -5662,32 +5650,32 @@
         <v>0</v>
       </c>
       <c r="AA27" s="7" t="n">
-        <f aca="false">IF(M27="TAK",Arkusz3!$B$20*J27,0)</f>
-        <v>20</v>
+        <f aca="false">IF(M27="TAK",Arkusz3!$B$19*J27,0)</f>
+        <v>10</v>
       </c>
       <c r="AB27" s="7" t="n">
-        <f aca="false">IF(N27="TAK",Arkusz3!$B$21*J27,0)</f>
+        <f aca="false">IF(N27="TAK",Arkusz3!$B$19*J27,0)</f>
         <v>0</v>
       </c>
       <c r="AC27" s="7" t="n">
-        <f aca="false">IF(O27="TAK",Arkusz3!$B$22*J27,0)</f>
-        <v>20</v>
+        <f aca="false">IF(O27="TAK",Arkusz3!$B$19*J27,0)</f>
+        <v>10</v>
       </c>
       <c r="AD27" s="7" t="n">
-        <f aca="false">IF(P27="TAK",Arkusz3!$B$23*J27,0)</f>
+        <f aca="false">IF(P27="TAK",Arkusz3!$B$19*J27,0)</f>
         <v>0</v>
       </c>
       <c r="AE27" s="7" t="n">
-        <f aca="false">IF(Q27="TAK",Arkusz3!$B$24*J27,0)</f>
+        <f aca="false">IF(Q27="TAK",Arkusz3!$B$19*J27,0)</f>
         <v>10</v>
       </c>
       <c r="AF27" s="7" t="n">
-        <f aca="false">IF(R27="TAK",Arkusz3!$B$25*J27,0)</f>
-        <v>24</v>
+        <f aca="false">IF(R27="TAK",Arkusz3!$B$19*J27,0)</f>
+        <v>10</v>
       </c>
       <c r="AG27" s="7" t="n">
         <f aca="false">SUM(Z27:AF27)</f>
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AH27" s="7" t="n">
         <f aca="false">IF(L27="Nie",0,5)</f>
@@ -5722,7 +5710,7 @@
       </c>
       <c r="AP27" s="7" t="n">
         <f aca="false">IF(AI27&gt;5,AA27*0.2*(AI27-5)+AA27,AA27)</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AQ27" s="7" t="n">
         <f aca="false">IF(AJ27&gt;5,AB27*0.2*(AJ27-5)+AB27,AB27)</f>
@@ -5730,7 +5718,7 @@
       </c>
       <c r="AR27" s="7" t="n">
         <f aca="false">IF(AK27&gt;5,AC27*0.2*(AK27-5)+AC27,AC27)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AS27" s="7" t="n">
         <f aca="false">IF(AL27&gt;5,AD27*0.2*(AL27-5)+AD27,AD27)</f>
@@ -5742,15 +5730,15 @@
       </c>
       <c r="AU27" s="7" t="n">
         <f aca="false">IF(AN27&gt;5,AF27*0.2*(AN27-5)+AF27,AF27)</f>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="AV27" s="7" t="n">
         <f aca="false">SUM(AO27:AU27)+Y27</f>
-        <v>253.5</v>
+        <v>209.5</v>
       </c>
       <c r="AW27" s="7" t="n">
         <f aca="false">IF(S27="Roczna",AV27*12*0.95,AV27)</f>
-        <v>253.5</v>
+        <v>209.5</v>
       </c>
       <c r="AX27" s="7" t="s">
         <v>57</v>
@@ -5843,32 +5831,32 @@
         <v>5</v>
       </c>
       <c r="AA28" s="7" t="n">
-        <f aca="false">IF(M28="TAK",Arkusz3!$B$20*J28,0)</f>
+        <f aca="false">IF(M28="TAK",Arkusz3!$B$19*J28,0)</f>
         <v>0</v>
       </c>
       <c r="AB28" s="7" t="n">
-        <f aca="false">IF(N28="TAK",Arkusz3!$B$21*J28,0)</f>
+        <f aca="false">IF(N28="TAK",Arkusz3!$B$19*J28,0)</f>
         <v>0</v>
       </c>
       <c r="AC28" s="7" t="n">
-        <f aca="false">IF(O28="TAK",Arkusz3!$B$22*J28,0)</f>
+        <f aca="false">IF(O28="TAK",Arkusz3!$B$19*J28,0)</f>
         <v>0</v>
       </c>
       <c r="AD28" s="7" t="n">
-        <f aca="false">IF(P28="TAK",Arkusz3!$B$23*J28,0)</f>
+        <f aca="false">IF(P28="TAK",Arkusz3!$B$19*J28,0)</f>
         <v>0</v>
       </c>
       <c r="AE28" s="7" t="n">
-        <f aca="false">IF(Q28="TAK",Arkusz3!$B$24*J28,0)</f>
+        <f aca="false">IF(Q28="TAK",Arkusz3!$B$19*J28,0)</f>
         <v>5</v>
       </c>
       <c r="AF28" s="7" t="n">
-        <f aca="false">IF(R28="TAK",Arkusz3!$B$25*J28,0)</f>
-        <v>12</v>
+        <f aca="false">IF(R28="TAK",Arkusz3!$B$19*J28,0)</f>
+        <v>5</v>
       </c>
       <c r="AG28" s="7" t="n">
         <f aca="false">SUM(Z28:AF28)</f>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AH28" s="7" t="n">
         <f aca="false">IF(L28="Nie",0,5)</f>
@@ -5924,15 +5912,15 @@
       </c>
       <c r="AU28" s="7" t="n">
         <f aca="false">IF(AN28&gt;5,AF28*0.2*(AN28-5)+AF28,AF28)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AV28" s="7" t="n">
         <f aca="false">SUM(AO28:AU28)+Y28</f>
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="AW28" s="7" t="n">
         <f aca="false">IF(S28="Roczna",AV28*12*0.95,AV28)</f>
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="AX28" s="7" t="s">
         <v>44</v>
@@ -6025,32 +6013,32 @@
         <v>5</v>
       </c>
       <c r="AA29" s="7" t="n">
-        <f aca="false">IF(M29="TAK",Arkusz3!$B$20*J29,0)</f>
-        <v>10</v>
+        <f aca="false">IF(M29="TAK",Arkusz3!$B$19*J29,0)</f>
+        <v>5</v>
       </c>
       <c r="AB29" s="7" t="n">
-        <f aca="false">IF(N29="TAK",Arkusz3!$B$21*J29,0)</f>
+        <f aca="false">IF(N29="TAK",Arkusz3!$B$19*J29,0)</f>
         <v>0</v>
       </c>
       <c r="AC29" s="7" t="n">
-        <f aca="false">IF(O29="TAK",Arkusz3!$B$22*J29,0)</f>
+        <f aca="false">IF(O29="TAK",Arkusz3!$B$19*J29,0)</f>
         <v>0</v>
       </c>
       <c r="AD29" s="7" t="n">
-        <f aca="false">IF(P29="TAK",Arkusz3!$B$23*J29,0)</f>
-        <v>12</v>
+        <f aca="false">IF(P29="TAK",Arkusz3!$B$19*J29,0)</f>
+        <v>5</v>
       </c>
       <c r="AE29" s="7" t="n">
-        <f aca="false">IF(Q29="TAK",Arkusz3!$B$24*J29,0)</f>
+        <f aca="false">IF(Q29="TAK",Arkusz3!$B$19*J29,0)</f>
         <v>5</v>
       </c>
       <c r="AF29" s="7" t="n">
-        <f aca="false">IF(R29="TAK",Arkusz3!$B$25*J29,0)</f>
-        <v>12</v>
+        <f aca="false">IF(R29="TAK",Arkusz3!$B$19*J29,0)</f>
+        <v>5</v>
       </c>
       <c r="AG29" s="7" t="n">
         <f aca="false">SUM(Z29:AF29)</f>
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="AH29" s="7" t="n">
         <f aca="false">IF(L29="Nie",0,5)</f>
@@ -6086,7 +6074,7 @@
       </c>
       <c r="AP29" s="7" t="n">
         <f aca="false">IF(AI29&gt;5,AA29*0.2*(AI29-5)+AA29,AA29)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AQ29" s="7" t="n">
         <f aca="false">IF(AJ29&gt;5,AB29*0.2*(AJ29-5)+AB29,AB29)</f>
@@ -6098,7 +6086,7 @@
       </c>
       <c r="AS29" s="7" t="n">
         <f aca="false">IF(AL29&gt;5,AD29*0.2*(AL29-5)+AD29,AD29)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AT29" s="7" t="n">
         <f aca="false">IF(AM29&gt;5,AE29*0.2*(AM29-5)+AE29,AE29)</f>
@@ -6106,15 +6094,15 @@
       </c>
       <c r="AU29" s="7" t="n">
         <f aca="false">IF(AN29&gt;5,AF29*0.2*(AN29-5)+AF29,AF29)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AV29" s="7" t="n">
         <f aca="false">SUM(AO29:AU29)+Y29</f>
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="AW29" s="7" t="n">
         <f aca="false">IF(S29="Roczna",AV29*12*0.95,AV29)</f>
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="AX29" s="7" t="s">
         <v>44</v>
@@ -6207,32 +6195,32 @@
         <v>0</v>
       </c>
       <c r="AA30" s="7" t="n">
-        <f aca="false">IF(M30="TAK",Arkusz3!$B$20*J30,0)</f>
+        <f aca="false">IF(M30="TAK",Arkusz3!$B$19*J30,0)</f>
         <v>0</v>
       </c>
       <c r="AB30" s="7" t="n">
-        <f aca="false">IF(N30="TAK",Arkusz3!$B$21*J30,0)</f>
+        <f aca="false">IF(N30="TAK",Arkusz3!$B$19*J30,0)</f>
         <v>0</v>
       </c>
       <c r="AC30" s="7" t="n">
-        <f aca="false">IF(O30="TAK",Arkusz3!$B$22*J30,0)</f>
-        <v>20</v>
+        <f aca="false">IF(O30="TAK",Arkusz3!$B$19*J30,0)</f>
+        <v>10</v>
       </c>
       <c r="AD30" s="7" t="n">
-        <f aca="false">IF(P30="TAK",Arkusz3!$B$23*J30,0)</f>
+        <f aca="false">IF(P30="TAK",Arkusz3!$B$19*J30,0)</f>
         <v>0</v>
       </c>
       <c r="AE30" s="7" t="n">
-        <f aca="false">IF(Q30="TAK",Arkusz3!$B$24*J30,0)</f>
+        <f aca="false">IF(Q30="TAK",Arkusz3!$B$19*J30,0)</f>
         <v>0</v>
       </c>
       <c r="AF30" s="7" t="n">
-        <f aca="false">IF(R30="TAK",Arkusz3!$B$25*J30,0)</f>
-        <v>24</v>
+        <f aca="false">IF(R30="TAK",Arkusz3!$B$19*J30,0)</f>
+        <v>10</v>
       </c>
       <c r="AG30" s="7" t="n">
         <f aca="false">SUM(Z30:AF30)</f>
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="AH30" s="7" t="n">
         <f aca="false">IF(L30="Nie",0,5)</f>
@@ -6276,7 +6264,7 @@
       </c>
       <c r="AR30" s="7" t="n">
         <f aca="false">IF(AK30&gt;5,AC30*0.2*(AK30-5)+AC30,AC30)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AS30" s="7" t="n">
         <f aca="false">IF(AL30&gt;5,AD30*0.2*(AL30-5)+AD30,AD30)</f>
@@ -6288,15 +6276,15 @@
       </c>
       <c r="AU30" s="7" t="n">
         <f aca="false">IF(AN30&gt;5,AF30*0.2*(AN30-5)+AF30,AF30)</f>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="AV30" s="7" t="n">
         <f aca="false">SUM(AO30:AU30)+Y30</f>
-        <v>428.5</v>
+        <v>404.5</v>
       </c>
       <c r="AW30" s="7" t="n">
         <f aca="false">IF(S30="Roczna",AV30*12*0.95,AV30)</f>
-        <v>428.5</v>
+        <v>404.5</v>
       </c>
       <c r="AX30" s="7" t="s">
         <v>44</v>
@@ -6389,32 +6377,32 @@
         <v>5</v>
       </c>
       <c r="AA31" s="7" t="n">
-        <f aca="false">IF(M31="TAK",Arkusz3!$B$20*J31,0)</f>
+        <f aca="false">IF(M31="TAK",Arkusz3!$B$19*J31,0)</f>
         <v>0</v>
       </c>
       <c r="AB31" s="7" t="n">
-        <f aca="false">IF(N31="TAK",Arkusz3!$B$21*J31,0)</f>
+        <f aca="false">IF(N31="TAK",Arkusz3!$B$19*J31,0)</f>
         <v>0</v>
       </c>
       <c r="AC31" s="7" t="n">
-        <f aca="false">IF(O31="TAK",Arkusz3!$B$22*J31,0)</f>
+        <f aca="false">IF(O31="TAK",Arkusz3!$B$19*J31,0)</f>
         <v>0</v>
       </c>
       <c r="AD31" s="7" t="n">
-        <f aca="false">IF(P31="TAK",Arkusz3!$B$23*J31,0)</f>
+        <f aca="false">IF(P31="TAK",Arkusz3!$B$19*J31,0)</f>
         <v>0</v>
       </c>
       <c r="AE31" s="7" t="n">
-        <f aca="false">IF(Q31="TAK",Arkusz3!$B$24*J31,0)</f>
+        <f aca="false">IF(Q31="TAK",Arkusz3!$B$19*J31,0)</f>
         <v>5</v>
       </c>
       <c r="AF31" s="7" t="n">
-        <f aca="false">IF(R31="TAK",Arkusz3!$B$25*J31,0)</f>
-        <v>12</v>
+        <f aca="false">IF(R31="TAK",Arkusz3!$B$19*J31,0)</f>
+        <v>5</v>
       </c>
       <c r="AG31" s="7" t="n">
         <f aca="false">SUM(Z31:AF31)</f>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AH31" s="7" t="n">
         <v>10</v>
@@ -6467,15 +6455,15 @@
       </c>
       <c r="AU31" s="7" t="n">
         <f aca="false">IF(AN31&gt;5,AF31*0.2*(AN31-5)+AF31,AF31)</f>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="AV31" s="7" t="n">
         <f aca="false">SUM(AO31:AU31)+Y31</f>
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="AW31" s="7" t="n">
         <f aca="false">IF(S31="Roczna",AV31*12*0.95,AV31)</f>
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="AX31" s="7" t="s">
         <v>49</v>
@@ -6568,32 +6556,32 @@
         <v>0</v>
       </c>
       <c r="AA32" s="7" t="n">
-        <f aca="false">IF(M32="TAK",Arkusz3!$B$20*J32,0)</f>
+        <f aca="false">IF(M32="TAK",Arkusz3!$B$19*J32,0)</f>
         <v>0</v>
       </c>
       <c r="AB32" s="7" t="n">
-        <f aca="false">IF(N32="TAK",Arkusz3!$B$21*J32,0)</f>
+        <f aca="false">IF(N32="TAK",Arkusz3!$B$19*J32,0)</f>
         <v>0</v>
       </c>
       <c r="AC32" s="7" t="n">
-        <f aca="false">IF(O32="TAK",Arkusz3!$B$22*J32,0)</f>
-        <v>10</v>
+        <f aca="false">IF(O32="TAK",Arkusz3!$B$19*J32,0)</f>
+        <v>5</v>
       </c>
       <c r="AD32" s="7" t="n">
-        <f aca="false">IF(P32="TAK",Arkusz3!$B$23*J32,0)</f>
+        <f aca="false">IF(P32="TAK",Arkusz3!$B$19*J32,0)</f>
         <v>0</v>
       </c>
       <c r="AE32" s="7" t="n">
-        <f aca="false">IF(Q32="TAK",Arkusz3!$B$24*J32,0)</f>
+        <f aca="false">IF(Q32="TAK",Arkusz3!$B$19*J32,0)</f>
         <v>0</v>
       </c>
       <c r="AF32" s="7" t="n">
-        <f aca="false">IF(R32="TAK",Arkusz3!$B$25*J32,0)</f>
-        <v>12</v>
+        <f aca="false">IF(R32="TAK",Arkusz3!$B$19*J32,0)</f>
+        <v>5</v>
       </c>
       <c r="AG32" s="7" t="n">
         <f aca="false">SUM(Z32:AF32)</f>
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="AH32" s="7" t="n">
         <f aca="false">IF(L32="Nie",0,5)</f>
@@ -6637,7 +6625,7 @@
       </c>
       <c r="AR32" s="7" t="n">
         <f aca="false">IF(AK32&gt;5,AC32*0.2*(AK32-5)+AC32,AC32)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AS32" s="7" t="n">
         <f aca="false">IF(AL32&gt;5,AD32*0.2*(AL32-5)+AD32,AD32)</f>
@@ -6649,15 +6637,15 @@
       </c>
       <c r="AU32" s="7" t="n">
         <f aca="false">IF(AN32&gt;5,AF32*0.2*(AN32-5)+AF32,AF32)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AV32" s="7" t="n">
         <f aca="false">SUM(AO32:AU32)+Y32</f>
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="AW32" s="7" t="n">
         <f aca="false">IF(S32="Roczna",AV32*12*0.95,AV32)</f>
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="AX32" s="7" t="s">
         <v>57</v>
@@ -6750,32 +6738,32 @@
         <v>0</v>
       </c>
       <c r="AA33" s="7" t="n">
-        <f aca="false">IF(M33="TAK",Arkusz3!$B$20*J33,0)</f>
-        <v>20</v>
+        <f aca="false">IF(M33="TAK",Arkusz3!$B$19*J33,0)</f>
+        <v>10</v>
       </c>
       <c r="AB33" s="7" t="n">
-        <f aca="false">IF(N33="TAK",Arkusz3!$B$21*J33,0)</f>
+        <f aca="false">IF(N33="TAK",Arkusz3!$B$19*J33,0)</f>
         <v>0</v>
       </c>
       <c r="AC33" s="7" t="n">
-        <f aca="false">IF(O33="TAK",Arkusz3!$B$22*J33,0)</f>
+        <f aca="false">IF(O33="TAK",Arkusz3!$B$19*J33,0)</f>
         <v>0</v>
       </c>
       <c r="AD33" s="7" t="n">
-        <f aca="false">IF(P33="TAK",Arkusz3!$B$23*J33,0)</f>
+        <f aca="false">IF(P33="TAK",Arkusz3!$B$19*J33,0)</f>
         <v>0</v>
       </c>
       <c r="AE33" s="7" t="n">
-        <f aca="false">IF(Q33="TAK",Arkusz3!$B$24*J33,0)</f>
+        <f aca="false">IF(Q33="TAK",Arkusz3!$B$19*J33,0)</f>
         <v>10</v>
       </c>
       <c r="AF33" s="7" t="n">
-        <f aca="false">IF(R33="TAK",Arkusz3!$B$25*J33,0)</f>
-        <v>24</v>
+        <f aca="false">IF(R33="TAK",Arkusz3!$B$19*J33,0)</f>
+        <v>10</v>
       </c>
       <c r="AG33" s="7" t="n">
         <f aca="false">SUM(Z33:AF33)</f>
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="AH33" s="7" t="n">
         <f aca="false">IF(L33="Nie",0,5)</f>
@@ -6811,7 +6799,7 @@
       </c>
       <c r="AP33" s="7" t="n">
         <f aca="false">IF(AI33&gt;5,AA33*0.2*(AI33-5)+AA33,AA33)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AQ33" s="7" t="n">
         <f aca="false">IF(AJ33&gt;5,AB33*0.2*(AJ33-5)+AB33,AB33)</f>
@@ -6831,15 +6819,15 @@
       </c>
       <c r="AU33" s="7" t="n">
         <f aca="false">IF(AN33&gt;5,AF33*0.2*(AN33-5)+AF33,AF33)</f>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="AV33" s="7" t="n">
         <f aca="false">SUM(AO33:AU33)+Y33</f>
-        <v>188.5</v>
+        <v>164.5</v>
       </c>
       <c r="AW33" s="7" t="n">
         <f aca="false">IF(S33="Roczna",AV33*12*0.95,AV33)</f>
-        <v>188.5</v>
+        <v>164.5</v>
       </c>
       <c r="AX33" s="7" t="s">
         <v>49</v>
@@ -6932,32 +6920,32 @@
         <v>0</v>
       </c>
       <c r="AA34" s="7" t="n">
-        <f aca="false">IF(M34="TAK",Arkusz3!$B$20*J34,0)</f>
-        <v>10</v>
+        <f aca="false">IF(M34="TAK",Arkusz3!$B$19*J34,0)</f>
+        <v>5</v>
       </c>
       <c r="AB34" s="7" t="n">
-        <f aca="false">IF(N34="TAK",Arkusz3!$B$21*J34,0)</f>
-        <v>8</v>
+        <f aca="false">IF(N34="TAK",Arkusz3!$B$19*J34,0)</f>
+        <v>5</v>
       </c>
       <c r="AC34" s="7" t="n">
-        <f aca="false">IF(O34="TAK",Arkusz3!$B$22*J34,0)</f>
+        <f aca="false">IF(O34="TAK",Arkusz3!$B$19*J34,0)</f>
         <v>0</v>
       </c>
       <c r="AD34" s="7" t="n">
-        <f aca="false">IF(P34="TAK",Arkusz3!$B$23*J34,0)</f>
-        <v>12</v>
+        <f aca="false">IF(P34="TAK",Arkusz3!$B$19*J34,0)</f>
+        <v>5</v>
       </c>
       <c r="AE34" s="7" t="n">
-        <f aca="false">IF(Q34="TAK",Arkusz3!$B$24*J34,0)</f>
+        <f aca="false">IF(Q34="TAK",Arkusz3!$B$19*J34,0)</f>
         <v>0</v>
       </c>
       <c r="AF34" s="7" t="n">
-        <f aca="false">IF(R34="TAK",Arkusz3!$B$25*J34,0)</f>
+        <f aca="false">IF(R34="TAK",Arkusz3!$B$19*J34,0)</f>
         <v>0</v>
       </c>
       <c r="AG34" s="7" t="n">
         <f aca="false">SUM(Z34:AF34)</f>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AH34" s="7" t="n">
         <f aca="false">IF(L34="Nie",0,5)</f>
@@ -6993,11 +6981,11 @@
       </c>
       <c r="AP34" s="7" t="n">
         <f aca="false">IF(AI34&gt;5,AA34*0.2*(AI34-5)+AA34,AA34)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AQ34" s="7" t="n">
         <f aca="false">IF(AJ34&gt;5,AB34*0.2*(AJ34-5)+AB34,AB34)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AR34" s="7" t="n">
         <f aca="false">IF(AK34&gt;5,AC34*0.2*(AK34-5)+AC34,AC34)</f>
@@ -7005,7 +6993,7 @@
       </c>
       <c r="AS34" s="7" t="n">
         <f aca="false">IF(AL34&gt;5,AD34*0.2*(AL34-5)+AD34,AD34)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AT34" s="7" t="n">
         <f aca="false">IF(AM34&gt;5,AE34*0.2*(AM34-5)+AE34,AE34)</f>
@@ -7017,11 +7005,11 @@
       </c>
       <c r="AV34" s="7" t="n">
         <f aca="false">SUM(AO34:AU34)+Y34</f>
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AW34" s="7" t="n">
         <f aca="false">IF(S34="Roczna",AV34*12*0.95,AV34)</f>
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AX34" s="7" t="s">
         <v>49</v>
@@ -7114,32 +7102,32 @@
         <v>0</v>
       </c>
       <c r="AA35" s="7" t="n">
-        <f aca="false">IF(M35="TAK",Arkusz3!$B$20*J35,0)</f>
-        <v>10</v>
+        <f aca="false">IF(M35="TAK",Arkusz3!$B$19*J35,0)</f>
+        <v>5</v>
       </c>
       <c r="AB35" s="7" t="n">
-        <f aca="false">IF(N35="TAK",Arkusz3!$B$21*J35,0)</f>
+        <f aca="false">IF(N35="TAK",Arkusz3!$B$19*J35,0)</f>
         <v>0</v>
       </c>
       <c r="AC35" s="7" t="n">
-        <f aca="false">IF(O35="TAK",Arkusz3!$B$22*J35,0)</f>
+        <f aca="false">IF(O35="TAK",Arkusz3!$B$19*J35,0)</f>
         <v>0</v>
       </c>
       <c r="AD35" s="7" t="n">
-        <f aca="false">IF(P35="TAK",Arkusz3!$B$23*J35,0)</f>
+        <f aca="false">IF(P35="TAK",Arkusz3!$B$19*J35,0)</f>
         <v>0</v>
       </c>
       <c r="AE35" s="7" t="n">
-        <f aca="false">IF(Q35="TAK",Arkusz3!$B$24*J35,0)</f>
+        <f aca="false">IF(Q35="TAK",Arkusz3!$B$19*J35,0)</f>
         <v>5</v>
       </c>
       <c r="AF35" s="7" t="n">
-        <f aca="false">IF(R35="TAK",Arkusz3!$B$25*J35,0)</f>
-        <v>12</v>
+        <f aca="false">IF(R35="TAK",Arkusz3!$B$19*J35,0)</f>
+        <v>5</v>
       </c>
       <c r="AG35" s="7" t="n">
         <f aca="false">SUM(Z35:AF35)</f>
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="AH35" s="7" t="n">
         <f aca="false">IF(L35="Nie",0,5)</f>
@@ -7175,7 +7163,7 @@
       </c>
       <c r="AP35" s="7" t="n">
         <f aca="false">IF(AI35&gt;5,AA35*0.2*(AI35-5)+AA35,AA35)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AQ35" s="7" t="n">
         <f aca="false">IF(AJ35&gt;5,AB35*0.2*(AJ35-5)+AB35,AB35)</f>
@@ -7195,15 +7183,15 @@
       </c>
       <c r="AU35" s="7" t="n">
         <f aca="false">IF(AN35&gt;5,AF35*0.2*(AN35-5)+AF35,AF35)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AV35" s="7" t="n">
         <f aca="false">SUM(AO35:AU35)+Y35</f>
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="AW35" s="7" t="n">
         <f aca="false">IF(S35="Roczna",AV35*12*0.95,AV35)</f>
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="AX35" s="7" t="s">
         <v>44</v>
@@ -7296,32 +7284,32 @@
         <v>0</v>
       </c>
       <c r="AA36" s="7" t="n">
-        <f aca="false">IF(M36="TAK",Arkusz3!$B$20*J36,0)</f>
-        <v>20</v>
+        <f aca="false">IF(M36="TAK",Arkusz3!$B$19*J36,0)</f>
+        <v>10</v>
       </c>
       <c r="AB36" s="7" t="n">
-        <f aca="false">IF(N36="TAK",Arkusz3!$B$21*J36,0)</f>
-        <v>16</v>
+        <f aca="false">IF(N36="TAK",Arkusz3!$B$19*J36,0)</f>
+        <v>10</v>
       </c>
       <c r="AC36" s="7" t="n">
-        <f aca="false">IF(O36="TAK",Arkusz3!$B$22*J36,0)</f>
+        <f aca="false">IF(O36="TAK",Arkusz3!$B$19*J36,0)</f>
         <v>0</v>
       </c>
       <c r="AD36" s="7" t="n">
-        <f aca="false">IF(P36="TAK",Arkusz3!$B$23*J36,0)</f>
-        <v>24</v>
+        <f aca="false">IF(P36="TAK",Arkusz3!$B$19*J36,0)</f>
+        <v>10</v>
       </c>
       <c r="AE36" s="7" t="n">
-        <f aca="false">IF(Q36="TAK",Arkusz3!$B$24*J36,0)</f>
+        <f aca="false">IF(Q36="TAK",Arkusz3!$B$19*J36,0)</f>
         <v>0</v>
       </c>
       <c r="AF36" s="7" t="n">
-        <f aca="false">IF(R36="TAK",Arkusz3!$B$25*J36,0)</f>
+        <f aca="false">IF(R36="TAK",Arkusz3!$B$19*J36,0)</f>
         <v>0</v>
       </c>
       <c r="AG36" s="7" t="n">
         <f aca="false">SUM(Z36:AF36)</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AH36" s="7" t="n">
         <f aca="false">IF(L36="Nie",0,5)</f>
@@ -7357,11 +7345,11 @@
       </c>
       <c r="AP36" s="7" t="n">
         <f aca="false">IF(AI36&gt;5,AA36*0.2*(AI36-5)+AA36,AA36)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AQ36" s="7" t="n">
         <f aca="false">IF(AJ36&gt;5,AB36*0.2*(AJ36-5)+AB36,AB36)</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AR36" s="7" t="n">
         <f aca="false">IF(AK36&gt;5,AC36*0.2*(AK36-5)+AC36,AC36)</f>
@@ -7369,7 +7357,7 @@
       </c>
       <c r="AS36" s="7" t="n">
         <f aca="false">IF(AL36&gt;5,AD36*0.2*(AL36-5)+AD36,AD36)</f>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="AT36" s="7" t="n">
         <f aca="false">IF(AM36&gt;5,AE36*0.2*(AM36-5)+AE36,AE36)</f>
@@ -7381,11 +7369,11 @@
       </c>
       <c r="AV36" s="7" t="n">
         <f aca="false">SUM(AO36:AU36)+Y36</f>
-        <v>244.5</v>
+        <v>214.5</v>
       </c>
       <c r="AW36" s="7" t="n">
         <f aca="false">IF(S36="Roczna",AV36*12*0.95,AV36)</f>
-        <v>2787.3</v>
+        <v>2445.3</v>
       </c>
       <c r="AX36" s="7" t="s">
         <v>44</v>
@@ -7478,32 +7466,32 @@
         <v>5</v>
       </c>
       <c r="AA37" s="7" t="n">
-        <f aca="false">IF(M37="TAK",Arkusz3!$B$20*J37,0)</f>
-        <v>10</v>
+        <f aca="false">IF(M37="TAK",Arkusz3!$B$19*J37,0)</f>
+        <v>5</v>
       </c>
       <c r="AB37" s="7" t="n">
-        <f aca="false">IF(N37="TAK",Arkusz3!$B$21*J37,0)</f>
+        <f aca="false">IF(N37="TAK",Arkusz3!$B$19*J37,0)</f>
         <v>0</v>
       </c>
       <c r="AC37" s="7" t="n">
-        <f aca="false">IF(O37="TAK",Arkusz3!$B$22*J37,0)</f>
+        <f aca="false">IF(O37="TAK",Arkusz3!$B$19*J37,0)</f>
         <v>0</v>
       </c>
       <c r="AD37" s="7" t="n">
-        <f aca="false">IF(P37="TAK",Arkusz3!$B$23*J37,0)</f>
+        <f aca="false">IF(P37="TAK",Arkusz3!$B$19*J37,0)</f>
         <v>0</v>
       </c>
       <c r="AE37" s="7" t="n">
-        <f aca="false">IF(Q37="TAK",Arkusz3!$B$24*J37,0)</f>
+        <f aca="false">IF(Q37="TAK",Arkusz3!$B$19*J37,0)</f>
         <v>5</v>
       </c>
       <c r="AF37" s="7" t="n">
-        <f aca="false">IF(R37="TAK",Arkusz3!$B$25*J37,0)</f>
-        <v>12</v>
+        <f aca="false">IF(R37="TAK",Arkusz3!$B$19*J37,0)</f>
+        <v>5</v>
       </c>
       <c r="AG37" s="7" t="n">
         <f aca="false">SUM(Z37:AF37)</f>
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="AH37" s="7" t="n">
         <f aca="false">IF(L37="Nie",0,5)</f>
@@ -7539,7 +7527,7 @@
       </c>
       <c r="AP37" s="7" t="n">
         <f aca="false">IF(AI37&gt;5,AA37*0.2*(AI37-5)+AA37,AA37)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AQ37" s="7" t="n">
         <f aca="false">IF(AJ37&gt;5,AB37*0.2*(AJ37-5)+AB37,AB37)</f>
@@ -7559,15 +7547,15 @@
       </c>
       <c r="AU37" s="7" t="n">
         <f aca="false">IF(AN37&gt;5,AF37*0.2*(AN37-5)+AF37,AF37)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AV37" s="7" t="n">
         <f aca="false">SUM(AO37:AU37)+Y37</f>
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="AW37" s="7" t="n">
         <f aca="false">IF(S37="Roczna",AV37*12*0.95,AV37)</f>
-        <v>820.8</v>
+        <v>684</v>
       </c>
       <c r="AX37" s="7" t="s">
         <v>57</v>
@@ -7660,32 +7648,32 @@
         <v>5</v>
       </c>
       <c r="AA38" s="7" t="n">
-        <f aca="false">IF(M38="TAK",Arkusz3!$B$20*J38,0)</f>
+        <f aca="false">IF(M38="TAK",Arkusz3!$B$19*J38,0)</f>
         <v>0</v>
       </c>
       <c r="AB38" s="7" t="n">
-        <f aca="false">IF(N38="TAK",Arkusz3!$B$21*J38,0)</f>
+        <f aca="false">IF(N38="TAK",Arkusz3!$B$19*J38,0)</f>
         <v>0</v>
       </c>
       <c r="AC38" s="7" t="n">
-        <f aca="false">IF(O38="TAK",Arkusz3!$B$22*J38,0)</f>
+        <f aca="false">IF(O38="TAK",Arkusz3!$B$19*J38,0)</f>
         <v>0</v>
       </c>
       <c r="AD38" s="7" t="n">
-        <f aca="false">IF(P38="TAK",Arkusz3!$B$23*J38,0)</f>
+        <f aca="false">IF(P38="TAK",Arkusz3!$B$19*J38,0)</f>
         <v>0</v>
       </c>
       <c r="AE38" s="7" t="n">
-        <f aca="false">IF(Q38="TAK",Arkusz3!$B$24*J38,0)</f>
+        <f aca="false">IF(Q38="TAK",Arkusz3!$B$19*J38,0)</f>
         <v>5</v>
       </c>
       <c r="AF38" s="7" t="n">
-        <f aca="false">IF(R38="TAK",Arkusz3!$B$25*J38,0)</f>
-        <v>12</v>
+        <f aca="false">IF(R38="TAK",Arkusz3!$B$19*J38,0)</f>
+        <v>5</v>
       </c>
       <c r="AG38" s="7" t="n">
         <f aca="false">SUM(Z38:AF38)</f>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AH38" s="7" t="n">
         <f aca="false">IF(L38="Nie",0,5)</f>
@@ -7741,15 +7729,15 @@
       </c>
       <c r="AU38" s="7" t="n">
         <f aca="false">IF(AN38&gt;5,AF38*0.2*(AN38-5)+AF38,AF38)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AV38" s="7" t="n">
         <f aca="false">SUM(AO38:AU38)+Y38</f>
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="AW38" s="7" t="n">
         <f aca="false">IF(S38="Roczna",AV38*12*0.95,AV38)</f>
-        <v>1618.8</v>
+        <v>1539</v>
       </c>
       <c r="AX38" s="7" t="s">
         <v>57</v>
@@ -7842,32 +7830,32 @@
         <v>0</v>
       </c>
       <c r="AA39" s="7" t="n">
-        <f aca="false">IF(M39="TAK",Arkusz3!$B$20*J39,0)</f>
+        <f aca="false">IF(M39="TAK",Arkusz3!$B$19*J39,0)</f>
         <v>0</v>
       </c>
       <c r="AB39" s="7" t="n">
-        <f aca="false">IF(N39="TAK",Arkusz3!$B$21*J39,0)</f>
-        <v>16</v>
+        <f aca="false">IF(N39="TAK",Arkusz3!$B$19*J39,0)</f>
+        <v>10</v>
       </c>
       <c r="AC39" s="7" t="n">
-        <f aca="false">IF(O39="TAK",Arkusz3!$B$22*J39,0)</f>
-        <v>20</v>
+        <f aca="false">IF(O39="TAK",Arkusz3!$B$19*J39,0)</f>
+        <v>10</v>
       </c>
       <c r="AD39" s="7" t="n">
-        <f aca="false">IF(P39="TAK",Arkusz3!$B$23*J39,0)</f>
-        <v>24</v>
+        <f aca="false">IF(P39="TAK",Arkusz3!$B$19*J39,0)</f>
+        <v>10</v>
       </c>
       <c r="AE39" s="7" t="n">
-        <f aca="false">IF(Q39="TAK",Arkusz3!$B$24*J39,0)</f>
+        <f aca="false">IF(Q39="TAK",Arkusz3!$B$19*J39,0)</f>
         <v>10</v>
       </c>
       <c r="AF39" s="7" t="n">
-        <f aca="false">IF(R39="TAK",Arkusz3!$B$25*J39,0)</f>
-        <v>24</v>
+        <f aca="false">IF(R39="TAK",Arkusz3!$B$19*J39,0)</f>
+        <v>10</v>
       </c>
       <c r="AG39" s="7" t="n">
         <f aca="false">SUM(Z39:AF39)</f>
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="AH39" s="7" t="n">
         <f aca="false">IF(L39="Nie",0,5)</f>
@@ -7907,15 +7895,15 @@
       </c>
       <c r="AQ39" s="7" t="n">
         <f aca="false">IF(AJ39&gt;5,AB39*0.2*(AJ39-5)+AB39,AB39)</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AR39" s="7" t="n">
         <f aca="false">IF(AK39&gt;5,AC39*0.2*(AK39-5)+AC39,AC39)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AS39" s="7" t="n">
         <f aca="false">IF(AL39&gt;5,AD39*0.2*(AL39-5)+AD39,AD39)</f>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="AT39" s="7" t="n">
         <f aca="false">IF(AM39&gt;5,AE39*0.2*(AM39-5)+AE39,AE39)</f>
@@ -7923,15 +7911,15 @@
       </c>
       <c r="AU39" s="7" t="n">
         <f aca="false">IF(AN39&gt;5,AF39*0.2*(AN39-5)+AF39,AF39)</f>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="AV39" s="7" t="n">
         <f aca="false">SUM(AO39:AU39)+Y39</f>
-        <v>228.5</v>
+        <v>184.5</v>
       </c>
       <c r="AW39" s="7" t="n">
         <f aca="false">IF(S39="Roczna",AV39*12*0.95,AV39)</f>
-        <v>228.5</v>
+        <v>184.5</v>
       </c>
       <c r="AX39" s="7" t="s">
         <v>44</v>
@@ -8024,32 +8012,32 @@
         <v>0</v>
       </c>
       <c r="AA40" s="7" t="n">
-        <f aca="false">IF(M40="TAK",Arkusz3!$B$20*J40,0)</f>
-        <v>10</v>
+        <f aca="false">IF(M40="TAK",Arkusz3!$B$19*J40,0)</f>
+        <v>5</v>
       </c>
       <c r="AB40" s="7" t="n">
-        <f aca="false">IF(N40="TAK",Arkusz3!$B$21*J40,0)</f>
+        <f aca="false">IF(N40="TAK",Arkusz3!$B$19*J40,0)</f>
         <v>0</v>
       </c>
       <c r="AC40" s="7" t="n">
-        <f aca="false">IF(O40="TAK",Arkusz3!$B$22*J40,0)</f>
+        <f aca="false">IF(O40="TAK",Arkusz3!$B$19*J40,0)</f>
         <v>0</v>
       </c>
       <c r="AD40" s="7" t="n">
-        <f aca="false">IF(P40="TAK",Arkusz3!$B$23*J40,0)</f>
+        <f aca="false">IF(P40="TAK",Arkusz3!$B$19*J40,0)</f>
         <v>0</v>
       </c>
       <c r="AE40" s="7" t="n">
-        <f aca="false">IF(Q40="TAK",Arkusz3!$B$24*J40,0)</f>
+        <f aca="false">IF(Q40="TAK",Arkusz3!$B$19*J40,0)</f>
         <v>5</v>
       </c>
       <c r="AF40" s="7" t="n">
-        <f aca="false">IF(R40="TAK",Arkusz3!$B$25*J40,0)</f>
-        <v>12</v>
+        <f aca="false">IF(R40="TAK",Arkusz3!$B$19*J40,0)</f>
+        <v>5</v>
       </c>
       <c r="AG40" s="7" t="n">
         <f aca="false">SUM(Z40:AF40)</f>
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="AH40" s="7" t="n">
         <f aca="false">IF(L40="Nie",0,5)</f>
@@ -8085,7 +8073,7 @@
       </c>
       <c r="AP40" s="7" t="n">
         <f aca="false">IF(AI40&gt;5,AA40*0.2*(AI40-5)+AA40,AA40)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AQ40" s="7" t="n">
         <f aca="false">IF(AJ40&gt;5,AB40*0.2*(AJ40-5)+AB40,AB40)</f>
@@ -8105,15 +8093,15 @@
       </c>
       <c r="AU40" s="7" t="n">
         <f aca="false">IF(AN40&gt;5,AF40*0.2*(AN40-5)+AF40,AF40)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AV40" s="7" t="n">
         <f aca="false">SUM(AO40:AU40)+Y40</f>
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="AW40" s="7" t="n">
         <f aca="false">IF(S40="Roczna",AV40*12*0.95,AV40)</f>
-        <v>1162.8</v>
+        <v>1026</v>
       </c>
       <c r="AX40" s="7" t="s">
         <v>57</v>
@@ -8206,32 +8194,32 @@
         <v>0</v>
       </c>
       <c r="AA41" s="7" t="n">
-        <f aca="false">IF(M41="TAK",Arkusz3!$B$20*J41,0)</f>
-        <v>10</v>
+        <f aca="false">IF(M41="TAK",Arkusz3!$B$19*J41,0)</f>
+        <v>5</v>
       </c>
       <c r="AB41" s="7" t="n">
-        <f aca="false">IF(N41="TAK",Arkusz3!$B$21*J41,0)</f>
+        <f aca="false">IF(N41="TAK",Arkusz3!$B$19*J41,0)</f>
         <v>0</v>
       </c>
       <c r="AC41" s="7" t="n">
-        <f aca="false">IF(O41="TAK",Arkusz3!$B$22*J41,0)</f>
-        <v>10</v>
+        <f aca="false">IF(O41="TAK",Arkusz3!$B$19*J41,0)</f>
+        <v>5</v>
       </c>
       <c r="AD41" s="7" t="n">
-        <f aca="false">IF(P41="TAK",Arkusz3!$B$23*J41,0)</f>
+        <f aca="false">IF(P41="TAK",Arkusz3!$B$19*J41,0)</f>
         <v>0</v>
       </c>
       <c r="AE41" s="7" t="n">
-        <f aca="false">IF(Q41="TAK",Arkusz3!$B$24*J41,0)</f>
+        <f aca="false">IF(Q41="TAK",Arkusz3!$B$19*J41,0)</f>
         <v>5</v>
       </c>
       <c r="AF41" s="7" t="n">
-        <f aca="false">IF(R41="TAK",Arkusz3!$B$25*J41,0)</f>
+        <f aca="false">IF(R41="TAK",Arkusz3!$B$19*J41,0)</f>
         <v>0</v>
       </c>
       <c r="AG41" s="7" t="n">
         <f aca="false">SUM(Z41:AF41)</f>
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AH41" s="7" t="n">
         <f aca="false">IF(L41="Nie",0,5)</f>
@@ -8265,7 +8253,7 @@
       </c>
       <c r="AP41" s="7" t="n">
         <f aca="false">IF(AI41&gt;5,AA41*0.2*(AI41-5)+AA41,AA41)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AQ41" s="7" t="n">
         <f aca="false">IF(AJ41&gt;5,AB41*0.2*(AJ41-5)+AB41,AB41)</f>
@@ -8273,7 +8261,7 @@
       </c>
       <c r="AR41" s="7" t="n">
         <f aca="false">IF(AK41&gt;5,AC41*0.2*(AK41-5)+AC41,AC41)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AS41" s="7" t="n">
         <f aca="false">IF(AL41&gt;5,AD41*0.2*(AL41-5)+AD41,AD41)</f>
@@ -8289,42 +8277,36 @@
       </c>
       <c r="AV41" s="7" t="n">
         <f aca="false">SUM(AO41:AU41)+Y41</f>
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="AW41" s="7" t="n">
         <f aca="false">IF(S41="Roczna",AV41*12*0.95,AV41)</f>
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="AX41" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="42" s="9" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9" t="n">
-        <v>41</v>
-      </c>
-      <c r="D42" s="9" t="n">
-        <v>27</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F42" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" s="9" t="n">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D42" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K42" s="9" t="n">
+      <c r="K42" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L42" s="1" t="s">
@@ -8334,7 +8316,7 @@
         <v>41</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O42" s="1" t="s">
         <v>41</v>
@@ -8343,127 +8325,134 @@
         <v>41</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S42" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="S42" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="T42" s="10" t="n">
+      <c r="T42" s="7" t="n">
         <f aca="false">G42*Arkusz3!$B$13+H42*Arkusz3!$B$14+I42*Arkusz3!$B$15</f>
         <v>0</v>
       </c>
-      <c r="U42" s="10" t="n">
+      <c r="U42" s="7" t="n">
         <f aca="false">IF((J42+F42)=1, Arkusz3!$C$5, Arkusz3!$B$5*J42)</f>
         <v>40</v>
       </c>
-      <c r="V42" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="W42" s="10" t="n">
+      <c r="V42" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="W42" s="7" t="n">
         <f aca="false">IF(V42&lt;10,T42+U42,0.2*(V42-10)*(T42+U42)+(T42+U42))</f>
         <v>40</v>
       </c>
-      <c r="X42" s="10" t="n">
+      <c r="X42" s="7" t="n">
         <f aca="false">IF(J42&gt;1,(U42/J42)*(J42-1)*10%,0)</f>
         <v>0</v>
       </c>
-      <c r="Y42" s="11" t="n">
+      <c r="Y42" s="8" t="n">
         <f aca="false">W42-X42</f>
         <v>40</v>
       </c>
-      <c r="Z42" s="10" t="n">
+      <c r="Z42" s="7" t="n">
         <f aca="false">IF(L42="TAK",Arkusz3!$B$19*J42,0)</f>
         <v>0</v>
       </c>
-      <c r="AA42" s="10" t="n">
-        <f aca="false">IF(M42="TAK",Arkusz3!$B$20*J42,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB42" s="10" t="n">
-        <f aca="false">IF(N42="TAK",Arkusz3!$B$21*J42,0)</f>
-        <v>8</v>
-      </c>
-      <c r="AC42" s="10" t="n">
-        <f aca="false">IF(O42="TAK",Arkusz3!$B$22*J42,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD42" s="10" t="n">
-        <f aca="false">IF(P42="TAK",Arkusz3!$B$23*J42,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE42" s="10" t="n">
-        <f aca="false">IF(Q42="TAK",Arkusz3!$B$24*J42,0)</f>
-        <v>5</v>
-      </c>
-      <c r="AF42" s="10" t="n">
-        <f aca="false">IF(R42="TAK",Arkusz3!$B$25*J42,0)</f>
-        <v>12</v>
-      </c>
-      <c r="AG42" s="10" t="n">
+      <c r="AA42" s="7" t="n">
+        <f aca="false">IF(M42="TAK",Arkusz3!$B$19*J42,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB42" s="7" t="n">
+        <f aca="false">IF(N42="TAK",Arkusz3!$B$19*J42,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC42" s="7" t="n">
+        <f aca="false">IF(O42="TAK",Arkusz3!$B$19*J42,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD42" s="7" t="n">
+        <f aca="false">IF(P42="TAK",Arkusz3!$B$19*J42,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE42" s="7" t="n">
+        <f aca="false">IF(Q42="TAK",Arkusz3!$B$19*J42,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF42" s="7" t="n">
+        <f aca="false">IF(R42="TAK",Arkusz3!$B$19*J42,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG42" s="7" t="n">
         <f aca="false">SUM(Z42:AF42)</f>
-        <v>25</v>
-      </c>
-      <c r="AH42" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI42" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ42" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK42" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL42" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM42" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AN42" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AO42" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="7" t="n">
+        <f aca="false">IF(L42="Nie",0,5)</f>
+        <v>0</v>
+      </c>
+      <c r="AI42" s="7" t="n">
+        <f aca="false">IF(M42="Nie",0,5)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="7" t="n">
+        <f aca="false">IF(N42="Nie",0,5)</f>
+        <v>0</v>
+      </c>
+      <c r="AK42" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="7" t="n">
+        <f aca="false">IF(P42="Nie",0,5)</f>
+        <v>0</v>
+      </c>
+      <c r="AM42" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN42" s="7" t="n">
+        <f aca="false">IF(R42="Nie",0,5)</f>
+        <v>0</v>
+      </c>
+      <c r="AO42" s="7" t="n">
         <f aca="false">IF(AH42&gt;5,Z42*0.2*(AH42-5)+Z42,Z42)</f>
         <v>0</v>
       </c>
-      <c r="AP42" s="10" t="n">
+      <c r="AP42" s="7" t="n">
         <f aca="false">IF(AI42&gt;5,AA42*0.2*(AI42-5)+AA42,AA42)</f>
         <v>0</v>
       </c>
-      <c r="AQ42" s="10" t="n">
+      <c r="AQ42" s="7" t="n">
         <f aca="false">IF(AJ42&gt;5,AB42*0.2*(AJ42-5)+AB42,AB42)</f>
-        <v>16</v>
-      </c>
-      <c r="AR42" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR42" s="7" t="n">
         <f aca="false">IF(AK42&gt;5,AC42*0.2*(AK42-5)+AC42,AC42)</f>
         <v>0</v>
       </c>
-      <c r="AS42" s="10" t="n">
+      <c r="AS42" s="7" t="n">
         <f aca="false">IF(AL42&gt;5,AD42*0.2*(AL42-5)+AD42,AD42)</f>
         <v>0</v>
       </c>
-      <c r="AT42" s="10" t="n">
+      <c r="AT42" s="7" t="n">
         <f aca="false">IF(AM42&gt;5,AE42*0.2*(AM42-5)+AE42,AE42)</f>
-        <v>10</v>
-      </c>
-      <c r="AU42" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU42" s="7" t="n">
         <f aca="false">IF(AN42&gt;5,AF42*0.2*(AN42-5)+AF42,AF42)</f>
-        <v>24</v>
-      </c>
-      <c r="AV42" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV42" s="7" t="n">
         <f aca="false">SUM(AO42:AU42)+Y42</f>
-        <v>90</v>
-      </c>
-      <c r="AW42" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AW42" s="7" t="n">
         <f aca="false">IF(S42="Roczna",AV42*12*0.95,AV42)</f>
-        <v>1026</v>
-      </c>
-      <c r="AX42" s="10"/>
+        <v>456</v>
+      </c>
+      <c r="AX42" s="7" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -9455,15 +9444,15 @@
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17"/>
@@ -9472,68 +9461,68 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="13" t="n">
+      <c r="B1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="10" t="n">
         <v>0.1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="13" t="n">
+      <c r="F1" s="10" t="n">
         <v>0.05</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="9" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="14" t="n">
+      <c r="B2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="11" t="n">
         <v>0.2</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="9" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7"/>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="16" t="s">
+      <c r="G4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="13" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="14" t="s">
         <v>131</v>
       </c>
       <c r="B5" s="7" t="n">
@@ -9559,7 +9548,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="G6" s="7" t="s">
@@ -9579,7 +9568,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="G7" s="7" t="s">
@@ -9599,7 +9588,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="14" t="s">
         <v>141</v>
       </c>
       <c r="B8" s="7" t="n">
@@ -9610,114 +9599,114 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="17" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="22" t="n">
+      <c r="B13" s="19" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="24" t="n">
+      <c r="B14" s="21" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="22" t="n">
+      <c r="B15" s="19" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="s">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C19" s="12"/>
+      <c r="B19" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C20" s="12"/>
+      <c r="B20" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="12" t="n">
+      <c r="B21" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="C21" s="12"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
+      <c r="B22" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="12" t="n">
+      <c r="B23" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
+      <c r="B24" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="12" t="n">
+      <c r="B25" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="C25" s="12"/>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -10726,97 +10715,97 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="18" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="14.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="14.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="17.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="29" style="0" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="25" t="s">
+      <c r="F1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="25" t="s">
+      <c r="J1" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="Q1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="R1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="25" t="s">
+      <c r="S1" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="T1" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="U1" s="25" t="s">
+      <c r="U1" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="V1" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="W1" s="25" t="s">
+      <c r="W1" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="X1" s="25" t="s">
+      <c r="X1" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="Y1" s="25" t="s">
+      <c r="Y1" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="Z1" s="25" t="s">
+      <c r="Z1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="25" t="s">
+      <c r="AA1" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="25" t="s">
+      <c r="AB1" s="22" t="s">
         <v>37</v>
       </c>
     </row>
@@ -10899,7 +10888,7 @@
       <c r="Z2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA2" s="26" t="n">
+      <c r="AA2" s="23" t="n">
         <v>404.5</v>
       </c>
       <c r="AB2" s="7" t="s">
@@ -10985,7 +10974,7 @@
       <c r="Z3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA3" s="26" t="n">
+      <c r="AA3" s="23" t="n">
         <v>3539.7</v>
       </c>
       <c r="AB3" s="7" t="s">
@@ -11071,7 +11060,7 @@
       <c r="Z4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA4" s="26" t="n">
+      <c r="AA4" s="23" t="n">
         <v>1197</v>
       </c>
       <c r="AB4" s="7" t="s">
@@ -11157,7 +11146,7 @@
       <c r="Z5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA5" s="26" t="n">
+      <c r="AA5" s="23" t="n">
         <v>264.5</v>
       </c>
       <c r="AB5" s="7" t="s">
@@ -11243,7 +11232,7 @@
       <c r="Z6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA6" s="26" t="n">
+      <c r="AA6" s="23" t="n">
         <v>169</v>
       </c>
       <c r="AB6" s="7" t="s">
@@ -11329,7 +11318,7 @@
       <c r="Z7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA7" s="26" t="n">
+      <c r="AA7" s="23" t="n">
         <v>264.5</v>
       </c>
       <c r="AB7" s="7" t="s">
@@ -11415,7 +11404,7 @@
       <c r="Z8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA8" s="26" t="n">
+      <c r="AA8" s="23" t="n">
         <v>175</v>
       </c>
       <c r="AB8" s="7" t="s">
@@ -11501,7 +11490,7 @@
       <c r="Z9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA9" s="26" t="n">
+      <c r="AA9" s="23" t="n">
         <v>200</v>
       </c>
       <c r="AB9" s="7" t="s">
@@ -11587,7 +11576,7 @@
       <c r="Z10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA10" s="26" t="n">
+      <c r="AA10" s="23" t="n">
         <v>95</v>
       </c>
       <c r="AB10" s="7" t="s">
@@ -11673,7 +11662,7 @@
       <c r="Z11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA11" s="26" t="n">
+      <c r="AA11" s="23" t="n">
         <v>95</v>
       </c>
       <c r="AB11" s="7" t="s">
@@ -11759,7 +11748,7 @@
       <c r="Z12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA12" s="26" t="n">
+      <c r="AA12" s="23" t="n">
         <v>284.5</v>
       </c>
       <c r="AB12" s="7" t="s">
@@ -11845,7 +11834,7 @@
       <c r="Z13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA13" s="26" t="n">
+      <c r="AA13" s="23" t="n">
         <v>244.5</v>
       </c>
       <c r="AB13" s="7" t="s">
@@ -11931,7 +11920,7 @@
       <c r="Z14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA14" s="26" t="n">
+      <c r="AA14" s="23" t="n">
         <v>1083</v>
       </c>
       <c r="AB14" s="7" t="s">
@@ -12017,7 +12006,7 @@
       <c r="Z15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA15" s="26" t="n">
+      <c r="AA15" s="23" t="n">
         <v>496.5</v>
       </c>
       <c r="AB15" s="7" t="s">
@@ -12103,7 +12092,7 @@
       <c r="Z16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA16" s="26" t="n">
+      <c r="AA16" s="23" t="n">
         <v>110</v>
       </c>
       <c r="AB16" s="7" t="s">
@@ -12189,7 +12178,7 @@
       <c r="Z17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA17" s="26" t="n">
+      <c r="AA17" s="23" t="n">
         <v>160</v>
       </c>
       <c r="AB17" s="7" t="s">
@@ -12275,7 +12264,7 @@
       <c r="Z18" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA18" s="26" t="n">
+      <c r="AA18" s="23" t="n">
         <v>3608.1</v>
       </c>
       <c r="AB18" s="7" t="s">
@@ -12361,7 +12350,7 @@
       <c r="Z19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA19" s="26" t="n">
+      <c r="AA19" s="23" t="n">
         <v>2946.9</v>
       </c>
       <c r="AB19" s="7" t="s">
@@ -12447,7 +12436,7 @@
       <c r="Z20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA20" s="26" t="n">
+      <c r="AA20" s="23" t="n">
         <v>374.5</v>
       </c>
       <c r="AB20" s="7" t="s">
@@ -12533,7 +12522,7 @@
       <c r="Z21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA21" s="26" t="n">
+      <c r="AA21" s="23" t="n">
         <v>111</v>
       </c>
       <c r="AB21" s="7" t="s">
@@ -12619,7 +12608,7 @@
       <c r="Z22" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA22" s="26" t="n">
+      <c r="AA22" s="23" t="n">
         <v>264.5</v>
       </c>
       <c r="AB22" s="7" t="s">
@@ -12705,7 +12694,7 @@
       <c r="Z23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA23" s="26" t="n">
+      <c r="AA23" s="23" t="n">
         <v>335</v>
       </c>
       <c r="AB23" s="7" t="s">
@@ -12791,7 +12780,7 @@
       <c r="Z24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA24" s="26" t="n">
+      <c r="AA24" s="23" t="n">
         <v>170</v>
       </c>
       <c r="AB24" s="7" t="s">
@@ -12877,7 +12866,7 @@
       <c r="Z25" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA25" s="26" t="n">
+      <c r="AA25" s="23" t="n">
         <v>150</v>
       </c>
       <c r="AB25" s="7" t="s">
@@ -12963,7 +12952,7 @@
       <c r="Z26" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA26" s="26" t="n">
+      <c r="AA26" s="23" t="n">
         <v>170.5</v>
       </c>
       <c r="AB26" s="7" t="s">
@@ -13049,7 +13038,7 @@
       <c r="Z27" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA27" s="26" t="n">
+      <c r="AA27" s="23" t="n">
         <v>374.5</v>
       </c>
       <c r="AB27" s="7" t="s">
@@ -13135,7 +13124,7 @@
       <c r="Z28" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA28" s="26" t="n">
+      <c r="AA28" s="23" t="n">
         <v>135</v>
       </c>
       <c r="AB28" s="7" t="s">
@@ -13221,7 +13210,7 @@
       <c r="Z29" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA29" s="26" t="n">
+      <c r="AA29" s="23" t="n">
         <v>145</v>
       </c>
       <c r="AB29" s="7" t="s">
@@ -13307,7 +13296,7 @@
       <c r="Z30" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA30" s="26" t="n">
+      <c r="AA30" s="23" t="n">
         <v>534.5</v>
       </c>
       <c r="AB30" s="7" t="s">
@@ -13393,7 +13382,7 @@
       <c r="Z31" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA31" s="26" t="n">
+      <c r="AA31" s="23" t="n">
         <v>86</v>
       </c>
       <c r="AB31" s="7" t="s">
@@ -13479,7 +13468,7 @@
       <c r="Z32" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA32" s="26" t="n">
+      <c r="AA32" s="23" t="n">
         <v>190</v>
       </c>
       <c r="AB32" s="7" t="s">
@@ -13565,7 +13554,7 @@
       <c r="Z33" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA33" s="26" t="n">
+      <c r="AA33" s="23" t="n">
         <v>304.5</v>
       </c>
       <c r="AB33" s="7" t="s">
@@ -13651,7 +13640,7 @@
       <c r="Z34" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA34" s="26" t="n">
+      <c r="AA34" s="23" t="n">
         <v>55</v>
       </c>
       <c r="AB34" s="7" t="s">
@@ -13737,7 +13726,7 @@
       <c r="Z35" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA35" s="26" t="n">
+      <c r="AA35" s="23" t="n">
         <v>215</v>
       </c>
       <c r="AB35" s="7" t="s">
@@ -13823,7 +13812,7 @@
       <c r="Z36" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA36" s="26" t="n">
+      <c r="AA36" s="23" t="n">
         <v>4611.3</v>
       </c>
       <c r="AB36" s="7" t="s">
@@ -13909,7 +13898,7 @@
       <c r="Z37" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA37" s="26" t="n">
+      <c r="AA37" s="23" t="n">
         <v>410.4</v>
       </c>
       <c r="AB37" s="7" t="s">
@@ -13995,7 +13984,7 @@
       <c r="Z38" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA38" s="26" t="n">
+      <c r="AA38" s="23" t="n">
         <v>1995</v>
       </c>
       <c r="AB38" s="7" t="s">
@@ -14081,7 +14070,7 @@
       <c r="Z39" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA39" s="26" t="n">
+      <c r="AA39" s="23" t="n">
         <v>324.5</v>
       </c>
       <c r="AB39" s="7" t="s">
@@ -14167,7 +14156,7 @@
       <c r="Z40" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA40" s="26" t="n">
+      <c r="AA40" s="23" t="n">
         <v>1539</v>
       </c>
       <c r="AB40" s="7" t="s">
@@ -14253,7 +14242,7 @@
       <c r="Z41" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA41" s="26" t="n">
+      <c r="AA41" s="23" t="n">
         <v>105</v>
       </c>
       <c r="AB41" s="7" t="s">

--- a/DaneDoTestów.xlsx
+++ b/DaneDoTestów.xlsx
@@ -528,7 +528,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -561,8 +561,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFF200"/>
       </patternFill>
     </fill>
     <fill>
@@ -670,7 +676,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -707,6 +713,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -715,11 +725,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -727,20 +737,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -748,6 +750,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -759,11 +769,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -804,7 +814,7 @@
       <rgbColor rgb="FFBDD6EE"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -846,10 +856,10 @@
   </sheetPr>
   <dimension ref="A1:AX43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AK1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="AK1" activeCellId="0" sqref="AK1"/>
-      <selection pane="bottomLeft" activeCell="AX52" activeCellId="0" sqref="AX52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="AO1" activeCellId="0" sqref="AO1"/>
+      <selection pane="bottomLeft" activeCell="AX42" activeCellId="0" sqref="AX42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1025,7 +1035,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
@@ -1112,59 +1122,59 @@
         <v>0</v>
       </c>
       <c r="AA2" s="7" t="n">
-        <f aca="false">IF(M2="TAK",Arkusz3!$B$19*J2,0)</f>
-        <v>10</v>
+        <f aca="false">IF(M2="TAK",Arkusz3!$B$20*J2,0)</f>
+        <v>20</v>
       </c>
       <c r="AB2" s="7" t="n">
-        <f aca="false">IF(N2="TAK",Arkusz3!$B$19*J2,0)</f>
+        <f aca="false">IF(N2="TAK",Arkusz3!$B$21*J2,0)</f>
         <v>0</v>
       </c>
       <c r="AC2" s="7" t="n">
-        <f aca="false">IF(O2="TAK",Arkusz3!$B$19*J2,0)</f>
-        <v>10</v>
+        <f aca="false">IF(O2="TAK",Arkusz3!$B$22*J2,0)</f>
+        <v>20</v>
       </c>
       <c r="AD2" s="7" t="n">
-        <f aca="false">IF(P2="TAK",Arkusz3!$B$19*J2,0)</f>
+        <f aca="false">IF(P2="TAK",Arkusz3!$B$23*J2,0)</f>
         <v>0</v>
       </c>
       <c r="AE2" s="7" t="n">
-        <f aca="false">IF(Q2="TAK",Arkusz3!$B$19*J2,0)</f>
+        <f aca="false">IF(Q2="TAK",Arkusz3!$B$24*J2,0)</f>
         <v>10</v>
       </c>
       <c r="AF2" s="7" t="n">
-        <f aca="false">IF(R2="TAK",Arkusz3!$B$19*J2,0)</f>
+        <f aca="false">IF(R2="TAK",Arkusz3!$B$25*J2,0)</f>
         <v>0</v>
       </c>
       <c r="AG2" s="7" t="n">
         <f aca="false">SUM(Z2:AF2)</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AH2" s="7" t="n">
-        <f aca="false">IF(L2="Nie",0,5)</f>
+        <f aca="false">IF(L2="Nie",0,V2)</f>
         <v>0</v>
       </c>
       <c r="AI2" s="7" t="n">
-        <f aca="false">IF(M2="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(M2="Nie",0,V2)</f>
+        <v>10</v>
       </c>
       <c r="AJ2" s="7" t="n">
-        <f aca="false">IF(N2="Nie",0,5)</f>
+        <f aca="false">IF(N2="Nie",0,V2)</f>
         <v>0</v>
       </c>
       <c r="AK2" s="7" t="n">
-        <f aca="false">IF(O2="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(O2="Nie",0,V2)</f>
+        <v>10</v>
       </c>
       <c r="AL2" s="7" t="n">
-        <f aca="false">IF(P2="Nie",0,5)</f>
+        <f aca="false">IF(P2="Nie",0,V2)</f>
         <v>0</v>
       </c>
       <c r="AM2" s="7" t="n">
-        <f aca="false">IF(Q2="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(Q2="Nie",0,V2)</f>
+        <v>10</v>
       </c>
       <c r="AN2" s="7" t="n">
-        <f aca="false">IF(R2="Nie",0,5)</f>
+        <f aca="false">IF(R2="Nie",0,V2)</f>
         <v>0</v>
       </c>
       <c r="AO2" s="7" t="n">
@@ -1173,7 +1183,7 @@
       </c>
       <c r="AP2" s="7" t="n">
         <f aca="false">IF(AI2&gt;5,AA2*0.2*(AI2-5)+AA2,AA2)</f>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AQ2" s="7" t="n">
         <f aca="false">IF(AJ2&gt;5,AB2*0.2*(AJ2-5)+AB2,AB2)</f>
@@ -1181,7 +1191,7 @@
       </c>
       <c r="AR2" s="7" t="n">
         <f aca="false">IF(AK2&gt;5,AC2*0.2*(AK2-5)+AC2,AC2)</f>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AS2" s="7" t="n">
         <f aca="false">IF(AL2&gt;5,AD2*0.2*(AL2-5)+AD2,AD2)</f>
@@ -1189,7 +1199,7 @@
       </c>
       <c r="AT2" s="7" t="n">
         <f aca="false">IF(AM2&gt;5,AE2*0.2*(AM2-5)+AE2,AE2)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AU2" s="7" t="n">
         <f aca="false">IF(AN2&gt;5,AF2*0.2*(AN2-5)+AF2,AF2)</f>
@@ -1197,17 +1207,17 @@
       </c>
       <c r="AV2" s="7" t="n">
         <f aca="false">SUM(AO2:AU2)+Y2</f>
-        <v>214.5</v>
+        <v>284.5</v>
       </c>
       <c r="AW2" s="7" t="n">
         <f aca="false">IF(S2="Roczna",AV2*12*0.95,AV2)</f>
-        <v>214.5</v>
+        <v>284.5</v>
       </c>
       <c r="AX2" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
@@ -1294,58 +1304,59 @@
         <v>0</v>
       </c>
       <c r="AA3" s="7" t="n">
-        <f aca="false">IF(M3="TAK",Arkusz3!$B$19*J3,0)</f>
-        <v>10</v>
+        <f aca="false">IF(M3="TAK",Arkusz3!$B$20*J3,0)</f>
+        <v>20</v>
       </c>
       <c r="AB3" s="7" t="n">
-        <f aca="false">IF(N3="TAK",Arkusz3!$B$19*J3,0)</f>
+        <f aca="false">IF(N3="TAK",Arkusz3!$B$21*J3,0)</f>
         <v>0</v>
       </c>
       <c r="AC3" s="7" t="n">
-        <f aca="false">IF(O3="TAK",Arkusz3!$B$19*J3,0)</f>
+        <f aca="false">IF(O3="TAK",Arkusz3!$B$22*J3,0)</f>
         <v>0</v>
       </c>
       <c r="AD3" s="7" t="n">
-        <f aca="false">IF(P3="TAK",Arkusz3!$B$19*J3,0)</f>
+        <f aca="false">IF(P3="TAK",Arkusz3!$B$23*J3,0)</f>
         <v>0</v>
       </c>
       <c r="AE3" s="7" t="n">
-        <f aca="false">IF(Q3="TAK",Arkusz3!$B$19*J3,0)</f>
+        <f aca="false">IF(Q3="TAK",Arkusz3!$B$24*J3,0)</f>
         <v>0</v>
       </c>
       <c r="AF3" s="7" t="n">
-        <f aca="false">IF(R3="TAK",Arkusz3!$B$19*J3,0)</f>
+        <f aca="false">IF(R3="TAK",Arkusz3!$B$25*J3,0)</f>
         <v>0</v>
       </c>
       <c r="AG3" s="7" t="n">
         <f aca="false">SUM(Z3:AF3)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AH3" s="7" t="n">
-        <f aca="false">IF(L3="Nie",0,5)</f>
+        <f aca="false">IF(L3="Nie",0,V3)</f>
         <v>0</v>
       </c>
       <c r="AI3" s="7" t="n">
-        <v>8</v>
+        <f aca="false">IF(M3="Nie",0,V3)</f>
+        <v>12</v>
       </c>
       <c r="AJ3" s="7" t="n">
-        <f aca="false">IF(N3="Nie",0,5)</f>
+        <f aca="false">IF(N3="Nie",0,V3)</f>
         <v>0</v>
       </c>
       <c r="AK3" s="7" t="n">
-        <f aca="false">IF(O3="Nie",0,5)</f>
+        <f aca="false">IF(O3="Nie",0,V3)</f>
         <v>0</v>
       </c>
       <c r="AL3" s="7" t="n">
-        <f aca="false">IF(P3="Nie",0,5)</f>
+        <f aca="false">IF(P3="Nie",0,V3)</f>
         <v>0</v>
       </c>
       <c r="AM3" s="7" t="n">
-        <f aca="false">IF(Q3="Nie",0,5)</f>
+        <f aca="false">IF(Q3="Nie",0,V3)</f>
         <v>0</v>
       </c>
       <c r="AN3" s="7" t="n">
-        <f aca="false">IF(R3="Nie",0,5)</f>
+        <f aca="false">IF(R3="Nie",0,V3)</f>
         <v>0</v>
       </c>
       <c r="AO3" s="7" t="n">
@@ -1354,7 +1365,7 @@
       </c>
       <c r="AP3" s="7" t="n">
         <f aca="false">IF(AI3&gt;5,AA3*0.2*(AI3-5)+AA3,AA3)</f>
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="AQ3" s="7" t="n">
         <f aca="false">IF(AJ3&gt;5,AB3*0.2*(AJ3-5)+AB3,AB3)</f>
@@ -1378,17 +1389,17 @@
       </c>
       <c r="AV3" s="7" t="n">
         <f aca="false">SUM(AO3:AU3)+Y3</f>
-        <v>185.5</v>
+        <v>217.5</v>
       </c>
       <c r="AW3" s="7" t="n">
         <f aca="false">IF(S3="Roczna",AV3*12*0.95,AV3)</f>
-        <v>2114.7</v>
+        <v>2479.5</v>
       </c>
       <c r="AX3" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
@@ -1475,57 +1486,59 @@
         <v>0</v>
       </c>
       <c r="AA4" s="7" t="n">
-        <f aca="false">IF(M4="TAK",Arkusz3!$B$19*J4,0)</f>
-        <v>5</v>
+        <f aca="false">IF(M4="TAK",Arkusz3!$B$20*J4,0)</f>
+        <v>10</v>
       </c>
       <c r="AB4" s="7" t="n">
-        <f aca="false">IF(N4="TAK",Arkusz3!$B$19*J4,0)</f>
+        <f aca="false">IF(N4="TAK",Arkusz3!$B$21*J4,0)</f>
         <v>0</v>
       </c>
       <c r="AC4" s="7" t="n">
-        <f aca="false">IF(O4="TAK",Arkusz3!$B$19*J4,0)</f>
-        <v>5</v>
+        <f aca="false">IF(O4="TAK",Arkusz3!$B$22*J4,0)</f>
+        <v>10</v>
       </c>
       <c r="AD4" s="7" t="n">
-        <f aca="false">IF(P4="TAK",Arkusz3!$B$19*J4,0)</f>
+        <f aca="false">IF(P4="TAK",Arkusz3!$B$23*J4,0)</f>
         <v>0</v>
       </c>
       <c r="AE4" s="7" t="n">
-        <f aca="false">IF(Q4="TAK",Arkusz3!$B$19*J4,0)</f>
+        <f aca="false">IF(Q4="TAK",Arkusz3!$B$24*J4,0)</f>
         <v>5</v>
       </c>
       <c r="AF4" s="7" t="n">
-        <f aca="false">IF(R4="TAK",Arkusz3!$B$19*J4,0)</f>
-        <v>5</v>
+        <f aca="false">IF(R4="TAK",Arkusz3!$B$25*J4,0)</f>
+        <v>12</v>
       </c>
       <c r="AG4" s="7" t="n">
         <f aca="false">SUM(Z4:AF4)</f>
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="AH4" s="7" t="n">
-        <f aca="false">IF(L4="Nie",0,5)</f>
+        <f aca="false">IF(L4="Nie",0,V4)</f>
         <v>0</v>
       </c>
       <c r="AI4" s="7" t="n">
-        <v>10</v>
+        <f aca="false">IF(M4="Nie",0,V4)</f>
+        <v>5</v>
       </c>
       <c r="AJ4" s="7" t="n">
-        <f aca="false">IF(N4="Nie",0,5)</f>
+        <f aca="false">IF(N4="Nie",0,V4)</f>
         <v>0</v>
       </c>
       <c r="AK4" s="7" t="n">
-        <v>10</v>
+        <f aca="false">IF(O4="Nie",0,V4)</f>
+        <v>5</v>
       </c>
       <c r="AL4" s="7" t="n">
-        <f aca="false">IF(P4="Nie",0,5)</f>
+        <f aca="false">IF(P4="Nie",0,V4)</f>
         <v>0</v>
       </c>
       <c r="AM4" s="7" t="n">
-        <f aca="false">IF(Q4="Nie",0,5)</f>
+        <f aca="false">IF(Q4="Nie",0,V4)</f>
         <v>5</v>
       </c>
       <c r="AN4" s="7" t="n">
-        <f aca="false">IF(R4="Nie",0,5)</f>
+        <f aca="false">IF(R4="Nie",0,V4)</f>
         <v>5</v>
       </c>
       <c r="AO4" s="7" t="n">
@@ -1554,21 +1567,21 @@
       </c>
       <c r="AU4" s="7" t="n">
         <f aca="false">IF(AN4&gt;5,AF4*0.2*(AN4-5)+AF4,AF4)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AV4" s="7" t="n">
         <f aca="false">SUM(AO4:AU4)+Y4</f>
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="AW4" s="7" t="n">
         <f aca="false">IF(S4="Roczna",AV4*12*0.95,AV4)</f>
-        <v>1368</v>
+        <v>1447.8</v>
       </c>
       <c r="AX4" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
@@ -1655,72 +1668,72 @@
         <v>10</v>
       </c>
       <c r="AA5" s="7" t="n">
-        <f aca="false">IF(M5="TAK",Arkusz3!$B$19*J5,0)</f>
-        <v>10</v>
+        <f aca="false">IF(M5="TAK",Arkusz3!$B$20*J5,0)</f>
+        <v>20</v>
       </c>
       <c r="AB5" s="7" t="n">
-        <f aca="false">IF(N5="TAK",Arkusz3!$B$19*J5,0)</f>
-        <v>10</v>
+        <f aca="false">IF(N5="TAK",Arkusz3!$B$21*J5,0)</f>
+        <v>16</v>
       </c>
       <c r="AC5" s="7" t="n">
-        <f aca="false">IF(O5="TAK",Arkusz3!$B$19*J5,0)</f>
+        <f aca="false">IF(O5="TAK",Arkusz3!$B$22*J5,0)</f>
         <v>0</v>
       </c>
       <c r="AD5" s="7" t="n">
-        <f aca="false">IF(P5="TAK",Arkusz3!$B$19*J5,0)</f>
-        <v>10</v>
+        <f aca="false">IF(P5="TAK",Arkusz3!$B$23*J5,0)</f>
+        <v>24</v>
       </c>
       <c r="AE5" s="7" t="n">
-        <f aca="false">IF(Q5="TAK",Arkusz3!$B$19*J5,0)</f>
+        <f aca="false">IF(Q5="TAK",Arkusz3!$B$24*J5,0)</f>
         <v>10</v>
       </c>
       <c r="AF5" s="7" t="n">
-        <f aca="false">IF(R5="TAK",Arkusz3!$B$19*J5,0)</f>
+        <f aca="false">IF(R5="TAK",Arkusz3!$B$25*J5,0)</f>
         <v>0</v>
       </c>
       <c r="AG5" s="7" t="n">
         <f aca="false">SUM(Z5:AF5)</f>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AH5" s="7" t="n">
-        <f aca="false">IF(L5="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(L5="Nie",0,V5)</f>
+        <v>10</v>
       </c>
       <c r="AI5" s="7" t="n">
-        <f aca="false">IF(M5="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(M5="Nie",0,V5)</f>
+        <v>10</v>
       </c>
       <c r="AJ5" s="7" t="n">
-        <f aca="false">IF(N5="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(N5="Nie",0,V5)</f>
+        <v>10</v>
       </c>
       <c r="AK5" s="7" t="n">
-        <f aca="false">IF(O5="Nie",0,5)</f>
+        <f aca="false">IF(O5="Nie",0,V5)</f>
         <v>0</v>
       </c>
       <c r="AL5" s="7" t="n">
-        <f aca="false">IF(P5="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(P5="Nie",0,V5)</f>
+        <v>10</v>
       </c>
       <c r="AM5" s="7" t="n">
-        <f aca="false">IF(Q5="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(Q5="Nie",0,V5)</f>
+        <v>10</v>
       </c>
       <c r="AN5" s="7" t="n">
-        <f aca="false">IF(R5="Nie",0,5)</f>
+        <f aca="false">IF(R5="Nie",0,V5)</f>
         <v>0</v>
       </c>
       <c r="AO5" s="7" t="n">
         <f aca="false">IF(AH5&gt;5,Z5*0.2*(AH5-5)+Z5,Z5)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AP5" s="7" t="n">
         <f aca="false">IF(AI5&gt;5,AA5*0.2*(AI5-5)+AA5,AA5)</f>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AQ5" s="7" t="n">
         <f aca="false">IF(AJ5&gt;5,AB5*0.2*(AJ5-5)+AB5,AB5)</f>
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="AR5" s="7" t="n">
         <f aca="false">IF(AK5&gt;5,AC5*0.2*(AK5-5)+AC5,AC5)</f>
@@ -1728,11 +1741,11 @@
       </c>
       <c r="AS5" s="7" t="n">
         <f aca="false">IF(AL5&gt;5,AD5*0.2*(AL5-5)+AD5,AD5)</f>
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="AT5" s="7" t="n">
         <f aca="false">IF(AM5&gt;5,AE5*0.2*(AM5-5)+AE5,AE5)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AU5" s="7" t="n">
         <f aca="false">IF(AN5&gt;5,AF5*0.2*(AN5-5)+AF5,AF5)</f>
@@ -1740,17 +1753,17 @@
       </c>
       <c r="AV5" s="7" t="n">
         <f aca="false">SUM(AO5:AU5)+Y5</f>
-        <v>154.5</v>
+        <v>264.5</v>
       </c>
       <c r="AW5" s="7" t="n">
         <f aca="false">IF(S5="Roczna",AV5*12*0.95,AV5)</f>
-        <v>154.5</v>
+        <v>264.5</v>
       </c>
       <c r="AX5" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
@@ -1837,60 +1850,60 @@
         <v>0</v>
       </c>
       <c r="AA6" s="7" t="n">
-        <f aca="false">IF(M6="TAK",Arkusz3!$B$19*J6,0)</f>
+        <f aca="false">IF(M6="TAK",Arkusz3!$B$20*J6,0)</f>
         <v>0</v>
       </c>
       <c r="AB6" s="7" t="n">
-        <f aca="false">IF(N6="TAK",Arkusz3!$B$19*J6,0)</f>
+        <f aca="false">IF(N6="TAK",Arkusz3!$B$21*J6,0)</f>
         <v>0</v>
       </c>
       <c r="AC6" s="7" t="n">
-        <f aca="false">IF(O6="TAK",Arkusz3!$B$19*J6,0)</f>
-        <v>5</v>
+        <f aca="false">IF(O6="TAK",Arkusz3!$B$22*J6,0)</f>
+        <v>10</v>
       </c>
       <c r="AD6" s="7" t="n">
-        <f aca="false">IF(P6="TAK",Arkusz3!$B$19*J6,0)</f>
+        <f aca="false">IF(P6="TAK",Arkusz3!$B$23*J6,0)</f>
         <v>0</v>
       </c>
       <c r="AE6" s="7" t="n">
-        <f aca="false">IF(Q6="TAK",Arkusz3!$B$19*J6,0)</f>
+        <f aca="false">IF(Q6="TAK",Arkusz3!$B$24*J6,0)</f>
         <v>5</v>
       </c>
       <c r="AF6" s="7" t="n">
-        <f aca="false">IF(R6="TAK",Arkusz3!$B$19*J6,0)</f>
-        <v>5</v>
+        <f aca="false">IF(R6="TAK",Arkusz3!$B$25*J6,0)</f>
+        <v>12</v>
       </c>
       <c r="AG6" s="7" t="n">
         <f aca="false">SUM(Z6:AF6)</f>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AH6" s="7" t="n">
-        <f aca="false">IF(L6="Nie",0,5)</f>
+        <f aca="false">IF(L6="Nie",0,V6)</f>
         <v>0</v>
       </c>
       <c r="AI6" s="7" t="n">
-        <f aca="false">IF(M6="Nie",0,5)</f>
+        <f aca="false">IF(M6="Nie",0,V6)</f>
         <v>0</v>
       </c>
       <c r="AJ6" s="7" t="n">
-        <f aca="false">IF(N6="Nie",0,5)</f>
+        <f aca="false">IF(N6="Nie",0,V6)</f>
         <v>0</v>
       </c>
       <c r="AK6" s="7" t="n">
-        <f aca="false">IF(O6="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(O6="Nie",0,V6)</f>
+        <v>11</v>
       </c>
       <c r="AL6" s="7" t="n">
-        <f aca="false">IF(P6="Nie",0,5)</f>
+        <f aca="false">IF(P6="Nie",0,V6)</f>
         <v>0</v>
       </c>
       <c r="AM6" s="7" t="n">
-        <f aca="false">IF(Q6="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(Q6="Nie",0,V6)</f>
+        <v>11</v>
       </c>
       <c r="AN6" s="7" t="n">
-        <f aca="false">IF(R6="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(R6="Nie",0,V6)</f>
+        <v>11</v>
       </c>
       <c r="AO6" s="7" t="n">
         <f aca="false">IF(AH6&gt;5,Z6*0.2*(AH6-5)+Z6,Z6)</f>
@@ -1906,7 +1919,7 @@
       </c>
       <c r="AR6" s="7" t="n">
         <f aca="false">IF(AK6&gt;5,AC6*0.2*(AK6-5)+AC6,AC6)</f>
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="AS6" s="7" t="n">
         <f aca="false">IF(AL6&gt;5,AD6*0.2*(AL6-5)+AD6,AD6)</f>
@@ -1914,25 +1927,25 @@
       </c>
       <c r="AT6" s="7" t="n">
         <f aca="false">IF(AM6&gt;5,AE6*0.2*(AM6-5)+AE6,AE6)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AU6" s="7" t="n">
         <f aca="false">IF(AN6&gt;5,AF6*0.2*(AN6-5)+AF6,AF6)</f>
-        <v>5</v>
+        <v>26.4</v>
       </c>
       <c r="AV6" s="7" t="n">
         <f aca="false">SUM(AO6:AU6)+Y6</f>
-        <v>117</v>
+        <v>161.4</v>
       </c>
       <c r="AW6" s="7" t="n">
         <f aca="false">IF(S6="Roczna",AV6*12*0.95,AV6)</f>
-        <v>117</v>
+        <v>161.4</v>
       </c>
       <c r="AX6" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
@@ -2019,60 +2032,60 @@
         <v>0</v>
       </c>
       <c r="AA7" s="7" t="n">
-        <f aca="false">IF(M7="TAK",Arkusz3!$B$19*J7,0)</f>
-        <v>10</v>
+        <f aca="false">IF(M7="TAK",Arkusz3!$B$20*J7,0)</f>
+        <v>20</v>
       </c>
       <c r="AB7" s="7" t="n">
-        <f aca="false">IF(N7="TAK",Arkusz3!$B$19*J7,0)</f>
+        <f aca="false">IF(N7="TAK",Arkusz3!$B$21*J7,0)</f>
         <v>0</v>
       </c>
       <c r="AC7" s="7" t="n">
-        <f aca="false">IF(O7="TAK",Arkusz3!$B$19*J7,0)</f>
-        <v>10</v>
+        <f aca="false">IF(O7="TAK",Arkusz3!$B$22*J7,0)</f>
+        <v>20</v>
       </c>
       <c r="AD7" s="7" t="n">
-        <f aca="false">IF(P7="TAK",Arkusz3!$B$19*J7,0)</f>
-        <v>10</v>
+        <f aca="false">IF(P7="TAK",Arkusz3!$B$23*J7,0)</f>
+        <v>24</v>
       </c>
       <c r="AE7" s="7" t="n">
-        <f aca="false">IF(Q7="TAK",Arkusz3!$B$19*J7,0)</f>
+        <f aca="false">IF(Q7="TAK",Arkusz3!$B$24*J7,0)</f>
         <v>10</v>
       </c>
       <c r="AF7" s="7" t="n">
-        <f aca="false">IF(R7="TAK",Arkusz3!$B$19*J7,0)</f>
-        <v>10</v>
+        <f aca="false">IF(R7="TAK",Arkusz3!$B$25*J7,0)</f>
+        <v>24</v>
       </c>
       <c r="AG7" s="7" t="n">
         <f aca="false">SUM(Z7:AF7)</f>
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="AH7" s="7" t="n">
-        <f aca="false">IF(L7="Nie",0,5)</f>
+        <f aca="false">IF(L7="Nie",0,V7)</f>
         <v>0</v>
       </c>
       <c r="AI7" s="7" t="n">
-        <f aca="false">IF(M7="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(M7="Nie",0,V7)</f>
+        <v>10</v>
       </c>
       <c r="AJ7" s="7" t="n">
-        <f aca="false">IF(N7="Nie",0,5)</f>
+        <f aca="false">IF(N7="Nie",0,V7)</f>
         <v>0</v>
       </c>
       <c r="AK7" s="7" t="n">
-        <f aca="false">IF(O7="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(O7="Nie",0,V7)</f>
+        <v>10</v>
       </c>
       <c r="AL7" s="7" t="n">
-        <f aca="false">IF(P7="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(P7="Nie",0,V7)</f>
+        <v>10</v>
       </c>
       <c r="AM7" s="7" t="n">
-        <f aca="false">IF(Q7="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(Q7="Nie",0,V7)</f>
+        <v>10</v>
       </c>
       <c r="AN7" s="7" t="n">
-        <f aca="false">IF(R7="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(R7="Nie",0,V7)</f>
+        <v>10</v>
       </c>
       <c r="AO7" s="7" t="n">
         <f aca="false">IF(AH7&gt;5,Z7*0.2*(AH7-5)+Z7,Z7)</f>
@@ -2080,7 +2093,7 @@
       </c>
       <c r="AP7" s="7" t="n">
         <f aca="false">IF(AI7&gt;5,AA7*0.2*(AI7-5)+AA7,AA7)</f>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AQ7" s="7" t="n">
         <f aca="false">IF(AJ7&gt;5,AB7*0.2*(AJ7-5)+AB7,AB7)</f>
@@ -2088,33 +2101,33 @@
       </c>
       <c r="AR7" s="7" t="n">
         <f aca="false">IF(AK7&gt;5,AC7*0.2*(AK7-5)+AC7,AC7)</f>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AS7" s="7" t="n">
         <f aca="false">IF(AL7&gt;5,AD7*0.2*(AL7-5)+AD7,AD7)</f>
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="AT7" s="7" t="n">
         <f aca="false">IF(AM7&gt;5,AE7*0.2*(AM7-5)+AE7,AE7)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AU7" s="7" t="n">
         <f aca="false">IF(AN7&gt;5,AF7*0.2*(AN7-5)+AF7,AF7)</f>
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="AV7" s="7" t="n">
         <f aca="false">SUM(AO7:AU7)+Y7</f>
-        <v>154.5</v>
+        <v>300.5</v>
       </c>
       <c r="AW7" s="7" t="n">
         <f aca="false">IF(S7="Roczna",AV7*12*0.95,AV7)</f>
-        <v>154.5</v>
+        <v>300.5</v>
       </c>
       <c r="AX7" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
@@ -2201,64 +2214,64 @@
         <v>5</v>
       </c>
       <c r="AA8" s="7" t="n">
-        <f aca="false">IF(M8="TAK",Arkusz3!$B$19*J8,0)</f>
+        <f aca="false">IF(M8="TAK",Arkusz3!$B$20*J8,0)</f>
         <v>0</v>
       </c>
       <c r="AB8" s="7" t="n">
-        <f aca="false">IF(N8="TAK",Arkusz3!$B$19*J8,0)</f>
+        <f aca="false">IF(N8="TAK",Arkusz3!$B$21*J8,0)</f>
         <v>0</v>
       </c>
       <c r="AC8" s="7" t="n">
-        <f aca="false">IF(O8="TAK",Arkusz3!$B$19*J8,0)</f>
+        <f aca="false">IF(O8="TAK",Arkusz3!$B$22*J8,0)</f>
         <v>0</v>
       </c>
       <c r="AD8" s="7" t="n">
-        <f aca="false">IF(P8="TAK",Arkusz3!$B$19*J8,0)</f>
+        <f aca="false">IF(P8="TAK",Arkusz3!$B$23*J8,0)</f>
         <v>0</v>
       </c>
       <c r="AE8" s="7" t="n">
-        <f aca="false">IF(Q8="TAK",Arkusz3!$B$19*J8,0)</f>
+        <f aca="false">IF(Q8="TAK",Arkusz3!$B$24*J8,0)</f>
         <v>5</v>
       </c>
       <c r="AF8" s="7" t="n">
-        <f aca="false">IF(R8="TAK",Arkusz3!$B$19*J8,0)</f>
-        <v>5</v>
+        <f aca="false">IF(R8="TAK",Arkusz3!$B$25*J8,0)</f>
+        <v>12</v>
       </c>
       <c r="AG8" s="7" t="n">
         <f aca="false">SUM(Z8:AF8)</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AH8" s="7" t="n">
-        <f aca="false">IF(L8="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(L8="Nie",0,V8)</f>
+        <v>20</v>
       </c>
       <c r="AI8" s="7" t="n">
-        <f aca="false">IF(M8="Nie",0,5)</f>
+        <f aca="false">IF(M8="Nie",0,V8)</f>
         <v>0</v>
       </c>
       <c r="AJ8" s="7" t="n">
-        <f aca="false">IF(N8="Nie",0,5)</f>
+        <f aca="false">IF(N8="Nie",0,V8)</f>
         <v>0</v>
       </c>
       <c r="AK8" s="7" t="n">
-        <f aca="false">IF(O8="Nie",0,5)</f>
+        <f aca="false">IF(O8="Nie",0,V8)</f>
         <v>0</v>
       </c>
       <c r="AL8" s="7" t="n">
-        <f aca="false">IF(P8="Nie",0,5)</f>
+        <f aca="false">IF(P8="Nie",0,V8)</f>
         <v>0</v>
       </c>
       <c r="AM8" s="7" t="n">
-        <f aca="false">IF(Q8="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(Q8="Nie",0,V8)</f>
+        <v>20</v>
       </c>
       <c r="AN8" s="7" t="n">
-        <f aca="false">IF(R8="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(R8="Nie",0,V8)</f>
+        <v>20</v>
       </c>
       <c r="AO8" s="7" t="n">
         <f aca="false">IF(AH8&gt;5,Z8*0.2*(AH8-5)+Z8,Z8)</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AP8" s="7" t="n">
         <f aca="false">IF(AI8&gt;5,AA8*0.2*(AI8-5)+AA8,AA8)</f>
@@ -2278,25 +2291,25 @@
       </c>
       <c r="AT8" s="7" t="n">
         <f aca="false">IF(AM8&gt;5,AE8*0.2*(AM8-5)+AE8,AE8)</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AU8" s="7" t="n">
         <f aca="false">IF(AN8&gt;5,AF8*0.2*(AN8-5)+AF8,AF8)</f>
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="AV8" s="7" t="n">
         <f aca="false">SUM(AO8:AU8)+Y8</f>
-        <v>135</v>
+        <v>208</v>
       </c>
       <c r="AW8" s="7" t="n">
         <f aca="false">IF(S8="Roczna",AV8*12*0.95,AV8)</f>
-        <v>135</v>
+        <v>208</v>
       </c>
       <c r="AX8" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
@@ -2383,68 +2396,68 @@
         <v>5</v>
       </c>
       <c r="AA9" s="7" t="n">
-        <f aca="false">IF(M9="TAK",Arkusz3!$B$19*J9,0)</f>
-        <v>5</v>
+        <f aca="false">IF(M9="TAK",Arkusz3!$B$20*J9,0)</f>
+        <v>10</v>
       </c>
       <c r="AB9" s="7" t="n">
-        <f aca="false">IF(N9="TAK",Arkusz3!$B$19*J9,0)</f>
+        <f aca="false">IF(N9="TAK",Arkusz3!$B$21*J9,0)</f>
         <v>0</v>
       </c>
       <c r="AC9" s="7" t="n">
-        <f aca="false">IF(O9="TAK",Arkusz3!$B$19*J9,0)</f>
-        <v>5</v>
+        <f aca="false">IF(O9="TAK",Arkusz3!$B$22*J9,0)</f>
+        <v>10</v>
       </c>
       <c r="AD9" s="7" t="n">
-        <f aca="false">IF(P9="TAK",Arkusz3!$B$19*J9,0)</f>
+        <f aca="false">IF(P9="TAK",Arkusz3!$B$23*J9,0)</f>
         <v>0</v>
       </c>
       <c r="AE9" s="7" t="n">
-        <f aca="false">IF(Q9="TAK",Arkusz3!$B$19*J9,0)</f>
+        <f aca="false">IF(Q9="TAK",Arkusz3!$B$24*J9,0)</f>
         <v>0</v>
       </c>
       <c r="AF9" s="7" t="n">
-        <f aca="false">IF(R9="TAK",Arkusz3!$B$19*J9,0)</f>
-        <v>5</v>
+        <f aca="false">IF(R9="TAK",Arkusz3!$B$25*J9,0)</f>
+        <v>12</v>
       </c>
       <c r="AG9" s="7" t="n">
         <f aca="false">SUM(Z9:AF9)</f>
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="AH9" s="7" t="n">
-        <f aca="false">IF(L9="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(L9="Nie",0,V9)</f>
+        <v>10</v>
       </c>
       <c r="AI9" s="7" t="n">
-        <f aca="false">IF(M9="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(M9="Nie",0,V9)</f>
+        <v>10</v>
       </c>
       <c r="AJ9" s="7" t="n">
-        <f aca="false">IF(N9="Nie",0,5)</f>
+        <f aca="false">IF(N9="Nie",0,V9)</f>
         <v>0</v>
       </c>
       <c r="AK9" s="7" t="n">
-        <f aca="false">IF(O9="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(O9="Nie",0,V9)</f>
+        <v>10</v>
       </c>
       <c r="AL9" s="7" t="n">
-        <f aca="false">IF(P9="Nie",0,5)</f>
+        <f aca="false">IF(P9="Nie",0,V9)</f>
         <v>0</v>
       </c>
       <c r="AM9" s="7" t="n">
-        <f aca="false">IF(Q9="Nie",0,5)</f>
+        <f aca="false">IF(Q9="Nie",0,V9)</f>
         <v>0</v>
       </c>
       <c r="AN9" s="7" t="n">
-        <f aca="false">IF(R9="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(R9="Nie",0,V9)</f>
+        <v>10</v>
       </c>
       <c r="AO9" s="7" t="n">
         <f aca="false">IF(AH9&gt;5,Z9*0.2*(AH9-5)+Z9,Z9)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AP9" s="7" t="n">
         <f aca="false">IF(AI9&gt;5,AA9*0.2*(AI9-5)+AA9,AA9)</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AQ9" s="7" t="n">
         <f aca="false">IF(AJ9&gt;5,AB9*0.2*(AJ9-5)+AB9,AB9)</f>
@@ -2452,7 +2465,7 @@
       </c>
       <c r="AR9" s="7" t="n">
         <f aca="false">IF(AK9&gt;5,AC9*0.2*(AK9-5)+AC9,AC9)</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AS9" s="7" t="n">
         <f aca="false">IF(AL9&gt;5,AD9*0.2*(AL9-5)+AD9,AD9)</f>
@@ -2464,21 +2477,21 @@
       </c>
       <c r="AU9" s="7" t="n">
         <f aca="false">IF(AN9&gt;5,AF9*0.2*(AN9-5)+AF9,AF9)</f>
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="AV9" s="7" t="n">
         <f aca="false">SUM(AO9:AU9)+Y9</f>
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="AW9" s="7" t="n">
         <f aca="false">IF(S9="Roczna",AV9*12*0.95,AV9)</f>
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="AX9" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
@@ -2565,59 +2578,59 @@
         <v>0</v>
       </c>
       <c r="AA10" s="7" t="n">
-        <f aca="false">IF(M10="TAK",Arkusz3!$B$19*J10,0)</f>
+        <f aca="false">IF(M10="TAK",Arkusz3!$B$20*J10,0)</f>
         <v>0</v>
       </c>
       <c r="AB10" s="7" t="n">
-        <f aca="false">IF(N10="TAK",Arkusz3!$B$19*J10,0)</f>
+        <f aca="false">IF(N10="TAK",Arkusz3!$B$21*J10,0)</f>
         <v>0</v>
       </c>
       <c r="AC10" s="7" t="n">
-        <f aca="false">IF(O10="TAK",Arkusz3!$B$19*J10,0)</f>
-        <v>5</v>
+        <f aca="false">IF(O10="TAK",Arkusz3!$B$22*J10,0)</f>
+        <v>10</v>
       </c>
       <c r="AD10" s="7" t="n">
-        <f aca="false">IF(P10="TAK",Arkusz3!$B$19*J10,0)</f>
+        <f aca="false">IF(P10="TAK",Arkusz3!$B$23*J10,0)</f>
         <v>0</v>
       </c>
       <c r="AE10" s="7" t="n">
-        <f aca="false">IF(Q10="TAK",Arkusz3!$B$19*J10,0)</f>
+        <f aca="false">IF(Q10="TAK",Arkusz3!$B$24*J10,0)</f>
         <v>5</v>
       </c>
       <c r="AF10" s="7" t="n">
-        <f aca="false">IF(R10="TAK",Arkusz3!$B$19*J10,0)</f>
-        <v>5</v>
+        <f aca="false">IF(R10="TAK",Arkusz3!$B$25*J10,0)</f>
+        <v>12</v>
       </c>
       <c r="AG10" s="7" t="n">
         <f aca="false">SUM(Z10:AF10)</f>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AH10" s="7" t="n">
-        <f aca="false">IF(L10="Nie",0,5)</f>
+        <f aca="false">IF(L10="Nie",0,V10)</f>
         <v>0</v>
       </c>
       <c r="AI10" s="7" t="n">
-        <f aca="false">IF(M10="Nie",0,5)</f>
+        <f aca="false">IF(M10="Nie",0,V10)</f>
         <v>0</v>
       </c>
       <c r="AJ10" s="7" t="n">
-        <f aca="false">IF(N10="Nie",0,5)</f>
+        <f aca="false">IF(N10="Nie",0,V10)</f>
         <v>0</v>
       </c>
       <c r="AK10" s="7" t="n">
-        <f aca="false">IF(O10="Nie",0,5)</f>
+        <f aca="false">IF(O10="Nie",0,V10)</f>
         <v>5</v>
       </c>
       <c r="AL10" s="7" t="n">
-        <f aca="false">IF(P10="Nie",0,5)</f>
+        <f aca="false">IF(P10="Nie",0,V10)</f>
         <v>0</v>
       </c>
       <c r="AM10" s="7" t="n">
-        <f aca="false">IF(Q10="Nie",0,5)</f>
+        <f aca="false">IF(Q10="Nie",0,V10)</f>
         <v>5</v>
       </c>
       <c r="AN10" s="7" t="n">
-        <f aca="false">IF(R10="Nie",0,5)</f>
+        <f aca="false">IF(R10="Nie",0,V10)</f>
         <v>5</v>
       </c>
       <c r="AO10" s="7" t="n">
@@ -2634,7 +2647,7 @@
       </c>
       <c r="AR10" s="7" t="n">
         <f aca="false">IF(AK10&gt;5,AC10*0.2*(AK10-5)+AC10,AC10)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AS10" s="7" t="n">
         <f aca="false">IF(AL10&gt;5,AD10*0.2*(AL10-5)+AD10,AD10)</f>
@@ -2646,21 +2659,21 @@
       </c>
       <c r="AU10" s="7" t="n">
         <f aca="false">IF(AN10&gt;5,AF10*0.2*(AN10-5)+AF10,AF10)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AV10" s="7" t="n">
         <f aca="false">SUM(AO10:AU10)+Y10</f>
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="AW10" s="7" t="n">
         <f aca="false">IF(S10="Roczna",AV10*12*0.95,AV10)</f>
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="AX10" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
@@ -2747,59 +2760,59 @@
         <v>0</v>
       </c>
       <c r="AA11" s="7" t="n">
-        <f aca="false">IF(M11="TAK",Arkusz3!$B$19*J11,0)</f>
-        <v>5</v>
+        <f aca="false">IF(M11="TAK",Arkusz3!$B$20*J11,0)</f>
+        <v>10</v>
       </c>
       <c r="AB11" s="7" t="n">
-        <f aca="false">IF(N11="TAK",Arkusz3!$B$19*J11,0)</f>
-        <v>5</v>
+        <f aca="false">IF(N11="TAK",Arkusz3!$B$21*J11,0)</f>
+        <v>8</v>
       </c>
       <c r="AC11" s="7" t="n">
-        <f aca="false">IF(O11="TAK",Arkusz3!$B$19*J11,0)</f>
+        <f aca="false">IF(O11="TAK",Arkusz3!$B$22*J11,0)</f>
         <v>0</v>
       </c>
       <c r="AD11" s="7" t="n">
-        <f aca="false">IF(P11="TAK",Arkusz3!$B$19*J11,0)</f>
-        <v>5</v>
+        <f aca="false">IF(P11="TAK",Arkusz3!$B$23*J11,0)</f>
+        <v>12</v>
       </c>
       <c r="AE11" s="7" t="n">
-        <f aca="false">IF(Q11="TAK",Arkusz3!$B$19*J11,0)</f>
+        <f aca="false">IF(Q11="TAK",Arkusz3!$B$24*J11,0)</f>
         <v>0</v>
       </c>
       <c r="AF11" s="7" t="n">
-        <f aca="false">IF(R11="TAK",Arkusz3!$B$19*J11,0)</f>
+        <f aca="false">IF(R11="TAK",Arkusz3!$B$25*J11,0)</f>
         <v>0</v>
       </c>
       <c r="AG11" s="7" t="n">
         <f aca="false">SUM(Z11:AF11)</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AH11" s="7" t="n">
-        <f aca="false">IF(L11="Nie",0,5)</f>
+        <f aca="false">IF(L11="Nie",0,V11)</f>
         <v>0</v>
       </c>
       <c r="AI11" s="7" t="n">
-        <f aca="false">IF(M11="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(M11="Nie",0,V11)</f>
+        <v>10</v>
       </c>
       <c r="AJ11" s="7" t="n">
-        <f aca="false">IF(N11="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(N11="Nie",0,V11)</f>
+        <v>10</v>
       </c>
       <c r="AK11" s="7" t="n">
-        <f aca="false">IF(O11="Nie",0,5)</f>
+        <f aca="false">IF(O11="Nie",0,V11)</f>
         <v>0</v>
       </c>
       <c r="AL11" s="7" t="n">
-        <f aca="false">IF(P11="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(P11="Nie",0,V11)</f>
+        <v>10</v>
       </c>
       <c r="AM11" s="7" t="n">
-        <f aca="false">IF(Q11="Nie",0,5)</f>
+        <f aca="false">IF(Q11="Nie",0,V11)</f>
         <v>0</v>
       </c>
       <c r="AN11" s="7" t="n">
-        <f aca="false">IF(R11="Nie",0,5)</f>
+        <f aca="false">IF(R11="Nie",0,V11)</f>
         <v>0</v>
       </c>
       <c r="AO11" s="7" t="n">
@@ -2808,11 +2821,11 @@
       </c>
       <c r="AP11" s="7" t="n">
         <f aca="false">IF(AI11&gt;5,AA11*0.2*(AI11-5)+AA11,AA11)</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AQ11" s="7" t="n">
         <f aca="false">IF(AJ11&gt;5,AB11*0.2*(AJ11-5)+AB11,AB11)</f>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AR11" s="7" t="n">
         <f aca="false">IF(AK11&gt;5,AC11*0.2*(AK11-5)+AC11,AC11)</f>
@@ -2820,7 +2833,7 @@
       </c>
       <c r="AS11" s="7" t="n">
         <f aca="false">IF(AL11&gt;5,AD11*0.2*(AL11-5)+AD11,AD11)</f>
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="AT11" s="7" t="n">
         <f aca="false">IF(AM11&gt;5,AE11*0.2*(AM11-5)+AE11,AE11)</f>
@@ -2832,17 +2845,17 @@
       </c>
       <c r="AV11" s="7" t="n">
         <f aca="false">SUM(AO11:AU11)+Y11</f>
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="AW11" s="7" t="n">
         <f aca="false">IF(S11="Roczna",AV11*12*0.95,AV11)</f>
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="AX11" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
@@ -2929,60 +2942,60 @@
         <v>0</v>
       </c>
       <c r="AA12" s="7" t="n">
-        <f aca="false">IF(M12="TAK",Arkusz3!$B$19*J12,0)</f>
+        <f aca="false">IF(M12="TAK",Arkusz3!$B$20*J12,0)</f>
         <v>0</v>
       </c>
       <c r="AB12" s="7" t="n">
-        <f aca="false">IF(N12="TAK",Arkusz3!$B$19*J12,0)</f>
-        <v>10</v>
+        <f aca="false">IF(N12="TAK",Arkusz3!$B$21*J12,0)</f>
+        <v>16</v>
       </c>
       <c r="AC12" s="7" t="n">
-        <f aca="false">IF(O12="TAK",Arkusz3!$B$19*J12,0)</f>
+        <f aca="false">IF(O12="TAK",Arkusz3!$B$22*J12,0)</f>
         <v>0</v>
       </c>
       <c r="AD12" s="7" t="n">
-        <f aca="false">IF(P12="TAK",Arkusz3!$B$19*J12,0)</f>
+        <f aca="false">IF(P12="TAK",Arkusz3!$B$23*J12,0)</f>
         <v>0</v>
       </c>
       <c r="AE12" s="7" t="n">
-        <f aca="false">IF(Q12="TAK",Arkusz3!$B$19*J12,0)</f>
+        <f aca="false">IF(Q12="TAK",Arkusz3!$B$24*J12,0)</f>
         <v>10</v>
       </c>
       <c r="AF12" s="7" t="n">
-        <f aca="false">IF(R12="TAK",Arkusz3!$B$19*J12,0)</f>
-        <v>10</v>
+        <f aca="false">IF(R12="TAK",Arkusz3!$B$25*J12,0)</f>
+        <v>24</v>
       </c>
       <c r="AG12" s="7" t="n">
         <f aca="false">SUM(Z12:AF12)</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AH12" s="7" t="n">
-        <f aca="false">IF(L12="Nie",0,5)</f>
+        <f aca="false">IF(L12="Nie",0,V12)</f>
         <v>0</v>
       </c>
       <c r="AI12" s="7" t="n">
-        <f aca="false">IF(M12="Nie",0,5)</f>
+        <f aca="false">IF(M12="Nie",0,V12)</f>
         <v>0</v>
       </c>
       <c r="AJ12" s="7" t="n">
-        <f aca="false">IF(N12="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(N12="Nie",0,V12)</f>
+        <v>10</v>
       </c>
       <c r="AK12" s="7" t="n">
-        <f aca="false">IF(O12="Nie",0,5)</f>
+        <f aca="false">IF(O12="Nie",0,V12)</f>
         <v>0</v>
       </c>
       <c r="AL12" s="7" t="n">
-        <f aca="false">IF(P12="Nie",0,5)</f>
+        <f aca="false">IF(P12="Nie",0,V12)</f>
         <v>0</v>
       </c>
       <c r="AM12" s="7" t="n">
-        <f aca="false">IF(Q12="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(Q12="Nie",0,V12)</f>
+        <v>10</v>
       </c>
       <c r="AN12" s="7" t="n">
-        <f aca="false">IF(R12="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(R12="Nie",0,V12)</f>
+        <v>10</v>
       </c>
       <c r="AO12" s="7" t="n">
         <f aca="false">IF(AH12&gt;5,Z12*0.2*(AH12-5)+Z12,Z12)</f>
@@ -2994,7 +3007,7 @@
       </c>
       <c r="AQ12" s="7" t="n">
         <f aca="false">IF(AJ12&gt;5,AB12*0.2*(AJ12-5)+AB12,AB12)</f>
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="AR12" s="7" t="n">
         <f aca="false">IF(AK12&gt;5,AC12*0.2*(AK12-5)+AC12,AC12)</f>
@@ -3006,25 +3019,25 @@
       </c>
       <c r="AT12" s="7" t="n">
         <f aca="false">IF(AM12&gt;5,AE12*0.2*(AM12-5)+AE12,AE12)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AU12" s="7" t="n">
         <f aca="false">IF(AN12&gt;5,AF12*0.2*(AN12-5)+AF12,AF12)</f>
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="AV12" s="7" t="n">
         <f aca="false">SUM(AO12:AU12)+Y12</f>
-        <v>154.5</v>
+        <v>224.5</v>
       </c>
       <c r="AW12" s="7" t="n">
         <f aca="false">IF(S12="Roczna",AV12*12*0.95,AV12)</f>
-        <v>154.5</v>
+        <v>224.5</v>
       </c>
       <c r="AX12" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
@@ -3111,64 +3124,64 @@
         <v>10</v>
       </c>
       <c r="AA13" s="7" t="n">
-        <f aca="false">IF(M13="TAK",Arkusz3!$B$19*J13,0)</f>
+        <f aca="false">IF(M13="TAK",Arkusz3!$B$20*J13,0)</f>
         <v>0</v>
       </c>
       <c r="AB13" s="7" t="n">
-        <f aca="false">IF(N13="TAK",Arkusz3!$B$19*J13,0)</f>
+        <f aca="false">IF(N13="TAK",Arkusz3!$B$21*J13,0)</f>
         <v>0</v>
       </c>
       <c r="AC13" s="7" t="n">
-        <f aca="false">IF(O13="TAK",Arkusz3!$B$19*J13,0)</f>
+        <f aca="false">IF(O13="TAK",Arkusz3!$B$22*J13,0)</f>
         <v>0</v>
       </c>
       <c r="AD13" s="7" t="n">
-        <f aca="false">IF(P13="TAK",Arkusz3!$B$19*J13,0)</f>
+        <f aca="false">IF(P13="TAK",Arkusz3!$B$23*J13,0)</f>
         <v>0</v>
       </c>
       <c r="AE13" s="7" t="n">
-        <f aca="false">IF(Q13="TAK",Arkusz3!$B$19*J13,0)</f>
+        <f aca="false">IF(Q13="TAK",Arkusz3!$B$24*J13,0)</f>
         <v>10</v>
       </c>
       <c r="AF13" s="7" t="n">
-        <f aca="false">IF(R13="TAK",Arkusz3!$B$19*J13,0)</f>
-        <v>10</v>
+        <f aca="false">IF(R13="TAK",Arkusz3!$B$25*J13,0)</f>
+        <v>24</v>
       </c>
       <c r="AG13" s="7" t="n">
         <f aca="false">SUM(Z13:AF13)</f>
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="AH13" s="7" t="n">
-        <f aca="false">IF(L13="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(L13="Nie",0,V13)</f>
+        <v>10</v>
       </c>
       <c r="AI13" s="7" t="n">
-        <f aca="false">IF(M13="Nie",0,5)</f>
+        <f aca="false">IF(M13="Nie",0,V13)</f>
         <v>0</v>
       </c>
       <c r="AJ13" s="7" t="n">
-        <f aca="false">IF(N13="Nie",0,5)</f>
+        <f aca="false">IF(N13="Nie",0,V13)</f>
         <v>0</v>
       </c>
       <c r="AK13" s="7" t="n">
-        <f aca="false">IF(O13="Nie",0,5)</f>
+        <f aca="false">IF(O13="Nie",0,V13)</f>
         <v>0</v>
       </c>
       <c r="AL13" s="7" t="n">
-        <f aca="false">IF(P13="Nie",0,5)</f>
+        <f aca="false">IF(P13="Nie",0,V13)</f>
         <v>0</v>
       </c>
       <c r="AM13" s="7" t="n">
-        <f aca="false">IF(Q13="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(Q13="Nie",0,V13)</f>
+        <v>10</v>
       </c>
       <c r="AN13" s="7" t="n">
-        <f aca="false">IF(R13="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(R13="Nie",0,V13)</f>
+        <v>10</v>
       </c>
       <c r="AO13" s="7" t="n">
         <f aca="false">IF(AH13&gt;5,Z13*0.2*(AH13-5)+Z13,Z13)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AP13" s="7" t="n">
         <f aca="false">IF(AI13&gt;5,AA13*0.2*(AI13-5)+AA13,AA13)</f>
@@ -3188,25 +3201,25 @@
       </c>
       <c r="AT13" s="7" t="n">
         <f aca="false">IF(AM13&gt;5,AE13*0.2*(AM13-5)+AE13,AE13)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AU13" s="7" t="n">
         <f aca="false">IF(AN13&gt;5,AF13*0.2*(AN13-5)+AF13,AF13)</f>
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="AV13" s="7" t="n">
         <f aca="false">SUM(AO13:AU13)+Y13</f>
-        <v>134.5</v>
+        <v>192.5</v>
       </c>
       <c r="AW13" s="7" t="n">
         <f aca="false">IF(S13="Roczna",AV13*12*0.95,AV13)</f>
-        <v>134.5</v>
+        <v>192.5</v>
       </c>
       <c r="AX13" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
@@ -3293,59 +3306,59 @@
         <v>0</v>
       </c>
       <c r="AA14" s="7" t="n">
-        <f aca="false">IF(M14="TAK",Arkusz3!$B$19*J14,0)</f>
-        <v>5</v>
+        <f aca="false">IF(M14="TAK",Arkusz3!$B$20*J14,0)</f>
+        <v>10</v>
       </c>
       <c r="AB14" s="7" t="n">
-        <f aca="false">IF(N14="TAK",Arkusz3!$B$19*J14,0)</f>
-        <v>5</v>
+        <f aca="false">IF(N14="TAK",Arkusz3!$B$21*J14,0)</f>
+        <v>8</v>
       </c>
       <c r="AC14" s="7" t="n">
-        <f aca="false">IF(O14="TAK",Arkusz3!$B$19*J14,0)</f>
+        <f aca="false">IF(O14="TAK",Arkusz3!$B$22*J14,0)</f>
         <v>0</v>
       </c>
       <c r="AD14" s="7" t="n">
-        <f aca="false">IF(P14="TAK",Arkusz3!$B$19*J14,0)</f>
-        <v>5</v>
+        <f aca="false">IF(P14="TAK",Arkusz3!$B$23*J14,0)</f>
+        <v>12</v>
       </c>
       <c r="AE14" s="7" t="n">
-        <f aca="false">IF(Q14="TAK",Arkusz3!$B$19*J14,0)</f>
+        <f aca="false">IF(Q14="TAK",Arkusz3!$B$24*J14,0)</f>
         <v>0</v>
       </c>
       <c r="AF14" s="7" t="n">
-        <f aca="false">IF(R14="TAK",Arkusz3!$B$19*J14,0)</f>
+        <f aca="false">IF(R14="TAK",Arkusz3!$B$25*J14,0)</f>
         <v>0</v>
       </c>
       <c r="AG14" s="7" t="n">
         <f aca="false">SUM(Z14:AF14)</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AH14" s="7" t="n">
-        <f aca="false">IF(L14="Nie",0,5)</f>
+        <f aca="false">IF(L14="Nie",0,V14)</f>
         <v>0</v>
       </c>
       <c r="AI14" s="7" t="n">
-        <f aca="false">IF(M14="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(M14="Nie",0,V14)</f>
+        <v>10</v>
       </c>
       <c r="AJ14" s="7" t="n">
-        <f aca="false">IF(N14="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(N14="Nie",0,V14)</f>
+        <v>10</v>
       </c>
       <c r="AK14" s="7" t="n">
-        <f aca="false">IF(O14="Nie",0,5)</f>
+        <f aca="false">IF(O14="Nie",0,V14)</f>
         <v>0</v>
       </c>
       <c r="AL14" s="7" t="n">
-        <f aca="false">IF(P14="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(P14="Nie",0,V14)</f>
+        <v>10</v>
       </c>
       <c r="AM14" s="7" t="n">
-        <f aca="false">IF(Q14="Nie",0,5)</f>
+        <f aca="false">IF(Q14="Nie",0,V14)</f>
         <v>0</v>
       </c>
       <c r="AN14" s="7" t="n">
-        <f aca="false">IF(R14="Nie",0,5)</f>
+        <f aca="false">IF(R14="Nie",0,V14)</f>
         <v>0</v>
       </c>
       <c r="AO14" s="7" t="n">
@@ -3354,11 +3367,11 @@
       </c>
       <c r="AP14" s="7" t="n">
         <f aca="false">IF(AI14&gt;5,AA14*0.2*(AI14-5)+AA14,AA14)</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AQ14" s="7" t="n">
         <f aca="false">IF(AJ14&gt;5,AB14*0.2*(AJ14-5)+AB14,AB14)</f>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AR14" s="7" t="n">
         <f aca="false">IF(AK14&gt;5,AC14*0.2*(AK14-5)+AC14,AC14)</f>
@@ -3366,7 +3379,7 @@
       </c>
       <c r="AS14" s="7" t="n">
         <f aca="false">IF(AL14&gt;5,AD14*0.2*(AL14-5)+AD14,AD14)</f>
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="AT14" s="7" t="n">
         <f aca="false">IF(AM14&gt;5,AE14*0.2*(AM14-5)+AE14,AE14)</f>
@@ -3378,17 +3391,17 @@
       </c>
       <c r="AV14" s="7" t="n">
         <f aca="false">SUM(AO14:AU14)+Y14</f>
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="AW14" s="7" t="n">
         <f aca="false">IF(S14="Roczna",AV14*12*0.95,AV14)</f>
-        <v>627</v>
+        <v>1140</v>
       </c>
       <c r="AX14" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
@@ -3475,60 +3488,60 @@
         <v>0</v>
       </c>
       <c r="AA15" s="7" t="n">
-        <f aca="false">IF(M15="TAK",Arkusz3!$B$19*J15,0)</f>
-        <v>10</v>
+        <f aca="false">IF(M15="TAK",Arkusz3!$B$20*J15,0)</f>
+        <v>20</v>
       </c>
       <c r="AB15" s="7" t="n">
-        <f aca="false">IF(N15="TAK",Arkusz3!$B$19*J15,0)</f>
+        <f aca="false">IF(N15="TAK",Arkusz3!$B$21*J15,0)</f>
         <v>0</v>
       </c>
       <c r="AC15" s="7" t="n">
-        <f aca="false">IF(O15="TAK",Arkusz3!$B$19*J15,0)</f>
-        <v>10</v>
+        <f aca="false">IF(O15="TAK",Arkusz3!$B$22*J15,0)</f>
+        <v>20</v>
       </c>
       <c r="AD15" s="7" t="n">
-        <f aca="false">IF(P15="TAK",Arkusz3!$B$19*J15,0)</f>
+        <f aca="false">IF(P15="TAK",Arkusz3!$B$23*J15,0)</f>
         <v>0</v>
       </c>
       <c r="AE15" s="7" t="n">
-        <f aca="false">IF(Q15="TAK",Arkusz3!$B$19*J15,0)</f>
+        <f aca="false">IF(Q15="TAK",Arkusz3!$B$24*J15,0)</f>
         <v>10</v>
       </c>
       <c r="AF15" s="7" t="n">
-        <f aca="false">IF(R15="TAK",Arkusz3!$B$19*J15,0)</f>
-        <v>10</v>
+        <f aca="false">IF(R15="TAK",Arkusz3!$B$25*J15,0)</f>
+        <v>24</v>
       </c>
       <c r="AG15" s="7" t="n">
         <f aca="false">SUM(Z15:AF15)</f>
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AH15" s="7" t="n">
-        <f aca="false">IF(L15="Nie",0,5)</f>
+        <f aca="false">IF(L15="Nie",0,V15)</f>
         <v>0</v>
       </c>
       <c r="AI15" s="7" t="n">
-        <f aca="false">IF(M15="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(M15="Nie",0,V15)</f>
+        <v>14</v>
       </c>
       <c r="AJ15" s="7" t="n">
-        <f aca="false">IF(N15="Nie",0,5)</f>
+        <f aca="false">IF(N15="Nie",0,V15)</f>
         <v>0</v>
       </c>
       <c r="AK15" s="7" t="n">
-        <f aca="false">IF(O15="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(O15="Nie",0,V15)</f>
+        <v>14</v>
       </c>
       <c r="AL15" s="7" t="n">
-        <f aca="false">IF(P15="Nie",0,5)</f>
+        <f aca="false">IF(P15="Nie",0,V15)</f>
         <v>0</v>
       </c>
       <c r="AM15" s="7" t="n">
-        <f aca="false">IF(Q15="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(Q15="Nie",0,V15)</f>
+        <v>14</v>
       </c>
       <c r="AN15" s="7" t="n">
-        <f aca="false">IF(R15="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(R15="Nie",0,V15)</f>
+        <v>14</v>
       </c>
       <c r="AO15" s="7" t="n">
         <f aca="false">IF(AH15&gt;5,Z15*0.2*(AH15-5)+Z15,Z15)</f>
@@ -3536,7 +3549,7 @@
       </c>
       <c r="AP15" s="7" t="n">
         <f aca="false">IF(AI15&gt;5,AA15*0.2*(AI15-5)+AA15,AA15)</f>
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="AQ15" s="7" t="n">
         <f aca="false">IF(AJ15&gt;5,AB15*0.2*(AJ15-5)+AB15,AB15)</f>
@@ -3544,7 +3557,7 @@
       </c>
       <c r="AR15" s="7" t="n">
         <f aca="false">IF(AK15&gt;5,AC15*0.2*(AK15-5)+AC15,AC15)</f>
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="AS15" s="7" t="n">
         <f aca="false">IF(AL15&gt;5,AD15*0.2*(AL15-5)+AD15,AD15)</f>
@@ -3552,25 +3565,25 @@
       </c>
       <c r="AT15" s="7" t="n">
         <f aca="false">IF(AM15&gt;5,AE15*0.2*(AM15-5)+AE15,AE15)</f>
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="AU15" s="7" t="n">
         <f aca="false">IF(AN15&gt;5,AF15*0.2*(AN15-5)+AF15,AF15)</f>
-        <v>10</v>
+        <v>67.2</v>
       </c>
       <c r="AV15" s="7" t="n">
         <f aca="false">SUM(AO15:AU15)+Y15</f>
-        <v>331.5</v>
+        <v>498.7</v>
       </c>
       <c r="AW15" s="7" t="n">
         <f aca="false">IF(S15="Roczna",AV15*12*0.95,AV15)</f>
-        <v>331.5</v>
+        <v>498.7</v>
       </c>
       <c r="AX15" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
@@ -3657,56 +3670,59 @@
         <v>0</v>
       </c>
       <c r="AA16" s="7" t="n">
-        <f aca="false">IF(M16="TAK",Arkusz3!$B$19*J16,0)</f>
-        <v>5</v>
+        <f aca="false">IF(M16="TAK",Arkusz3!$B$20*J16,0)</f>
+        <v>10</v>
       </c>
       <c r="AB16" s="7" t="n">
-        <f aca="false">IF(N16="TAK",Arkusz3!$B$19*J16,0)</f>
-        <v>5</v>
+        <f aca="false">IF(N16="TAK",Arkusz3!$B$21*J16,0)</f>
+        <v>8</v>
       </c>
       <c r="AC16" s="7" t="n">
-        <f aca="false">IF(O16="TAK",Arkusz3!$B$19*J16,0)</f>
+        <f aca="false">IF(O16="TAK",Arkusz3!$B$22*J16,0)</f>
         <v>0</v>
       </c>
       <c r="AD16" s="7" t="n">
-        <f aca="false">IF(P16="TAK",Arkusz3!$B$19*J16,0)</f>
-        <v>5</v>
+        <f aca="false">IF(P16="TAK",Arkusz3!$B$23*J16,0)</f>
+        <v>12</v>
       </c>
       <c r="AE16" s="7" t="n">
-        <f aca="false">IF(Q16="TAK",Arkusz3!$B$19*J16,0)</f>
+        <f aca="false">IF(Q16="TAK",Arkusz3!$B$24*J16,0)</f>
         <v>0</v>
       </c>
       <c r="AF16" s="7" t="n">
-        <f aca="false">IF(R16="TAK",Arkusz3!$B$19*J16,0)</f>
+        <f aca="false">IF(R16="TAK",Arkusz3!$B$25*J16,0)</f>
         <v>0</v>
       </c>
       <c r="AG16" s="7" t="n">
         <f aca="false">SUM(Z16:AF16)</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AH16" s="7" t="n">
-        <f aca="false">IF(L16="Nie",0,5)</f>
+        <f aca="false">IF(L16="Nie",0,V16)</f>
         <v>0</v>
       </c>
       <c r="AI16" s="7" t="n">
+        <f aca="false">IF(M16="Nie",0,V16)</f>
         <v>10</v>
       </c>
       <c r="AJ16" s="7" t="n">
+        <f aca="false">IF(N16="Nie",0,V16)</f>
         <v>10</v>
       </c>
       <c r="AK16" s="7" t="n">
-        <f aca="false">IF(O16="Nie",0,5)</f>
+        <f aca="false">IF(O16="Nie",0,V16)</f>
         <v>0</v>
       </c>
       <c r="AL16" s="7" t="n">
+        <f aca="false">IF(P16="Nie",0,V16)</f>
         <v>10</v>
       </c>
       <c r="AM16" s="7" t="n">
-        <f aca="false">IF(Q16="Nie",0,5)</f>
+        <f aca="false">IF(Q16="Nie",0,V16)</f>
         <v>0</v>
       </c>
       <c r="AN16" s="7" t="n">
-        <f aca="false">IF(R16="Nie",0,5)</f>
+        <f aca="false">IF(R16="Nie",0,V16)</f>
         <v>0</v>
       </c>
       <c r="AO16" s="7" t="n">
@@ -3715,11 +3731,11 @@
       </c>
       <c r="AP16" s="7" t="n">
         <f aca="false">IF(AI16&gt;5,AA16*0.2*(AI16-5)+AA16,AA16)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AQ16" s="7" t="n">
         <f aca="false">IF(AJ16&gt;5,AB16*0.2*(AJ16-5)+AB16,AB16)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AR16" s="7" t="n">
         <f aca="false">IF(AK16&gt;5,AC16*0.2*(AK16-5)+AC16,AC16)</f>
@@ -3727,7 +3743,7 @@
       </c>
       <c r="AS16" s="7" t="n">
         <f aca="false">IF(AL16&gt;5,AD16*0.2*(AL16-5)+AD16,AD16)</f>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AT16" s="7" t="n">
         <f aca="false">IF(AM16&gt;5,AE16*0.2*(AM16-5)+AE16,AE16)</f>
@@ -3739,17 +3755,17 @@
       </c>
       <c r="AV16" s="7" t="n">
         <f aca="false">SUM(AO16:AU16)+Y16</f>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AW16" s="7" t="n">
         <f aca="false">IF(S16="Roczna",AV16*12*0.95,AV16)</f>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AX16" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
@@ -3836,59 +3852,59 @@
         <v>0</v>
       </c>
       <c r="AA17" s="7" t="n">
-        <f aca="false">IF(M17="TAK",Arkusz3!$B$19*J17,0)</f>
-        <v>5</v>
+        <f aca="false">IF(M17="TAK",Arkusz3!$B$20*J17,0)</f>
+        <v>10</v>
       </c>
       <c r="AB17" s="7" t="n">
-        <f aca="false">IF(N17="TAK",Arkusz3!$B$19*J17,0)</f>
+        <f aca="false">IF(N17="TAK",Arkusz3!$B$21*J17,0)</f>
         <v>0</v>
       </c>
       <c r="AC17" s="7" t="n">
-        <f aca="false">IF(O17="TAK",Arkusz3!$B$19*J17,0)</f>
+        <f aca="false">IF(O17="TAK",Arkusz3!$B$22*J17,0)</f>
         <v>0</v>
       </c>
       <c r="AD17" s="7" t="n">
-        <f aca="false">IF(P17="TAK",Arkusz3!$B$19*J17,0)</f>
+        <f aca="false">IF(P17="TAK",Arkusz3!$B$23*J17,0)</f>
         <v>0</v>
       </c>
       <c r="AE17" s="7" t="n">
-        <f aca="false">IF(Q17="TAK",Arkusz3!$B$19*J17,0)</f>
+        <f aca="false">IF(Q17="TAK",Arkusz3!$B$24*J17,0)</f>
         <v>5</v>
       </c>
       <c r="AF17" s="7" t="n">
-        <f aca="false">IF(R17="TAK",Arkusz3!$B$19*J17,0)</f>
+        <f aca="false">IF(R17="TAK",Arkusz3!$B$25*J17,0)</f>
         <v>0</v>
       </c>
       <c r="AG17" s="7" t="n">
         <f aca="false">SUM(Z17:AF17)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AH17" s="7" t="n">
-        <f aca="false">IF(L17="Nie",0,5)</f>
+        <f aca="false">IF(L17="Nie",0,V17)</f>
         <v>0</v>
       </c>
       <c r="AI17" s="7" t="n">
-        <f aca="false">IF(M17="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(M17="Nie",0,V17)</f>
+        <v>10</v>
       </c>
       <c r="AJ17" s="7" t="n">
-        <f aca="false">IF(N17="Nie",0,5)</f>
+        <f aca="false">IF(N17="Nie",0,V17)</f>
         <v>0</v>
       </c>
       <c r="AK17" s="7" t="n">
-        <f aca="false">IF(O17="Nie",0,5)</f>
+        <f aca="false">IF(O17="Nie",0,V17)</f>
         <v>0</v>
       </c>
       <c r="AL17" s="7" t="n">
-        <f aca="false">IF(P17="Nie",0,5)</f>
+        <f aca="false">IF(P17="Nie",0,V17)</f>
         <v>0</v>
       </c>
       <c r="AM17" s="7" t="n">
-        <f aca="false">IF(Q17="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(Q17="Nie",0,V17)</f>
+        <v>10</v>
       </c>
       <c r="AN17" s="7" t="n">
-        <f aca="false">IF(R17="Nie",0,5)</f>
+        <f aca="false">IF(R17="Nie",0,V17)</f>
         <v>0</v>
       </c>
       <c r="AO17" s="7" t="n">
@@ -3897,7 +3913,7 @@
       </c>
       <c r="AP17" s="7" t="n">
         <f aca="false">IF(AI17&gt;5,AA17*0.2*(AI17-5)+AA17,AA17)</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AQ17" s="7" t="n">
         <f aca="false">IF(AJ17&gt;5,AB17*0.2*(AJ17-5)+AB17,AB17)</f>
@@ -3913,7 +3929,7 @@
       </c>
       <c r="AT17" s="7" t="n">
         <f aca="false">IF(AM17&gt;5,AE17*0.2*(AM17-5)+AE17,AE17)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AU17" s="7" t="n">
         <f aca="false">IF(AN17&gt;5,AF17*0.2*(AN17-5)+AF17,AF17)</f>
@@ -3921,17 +3937,17 @@
       </c>
       <c r="AV17" s="7" t="n">
         <f aca="false">SUM(AO17:AU17)+Y17</f>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AW17" s="7" t="n">
         <f aca="false">IF(S17="Roczna",AV17*12*0.95,AV17)</f>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AX17" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
@@ -4018,57 +4034,60 @@
         <v>0</v>
       </c>
       <c r="AA18" s="7" t="n">
-        <f aca="false">IF(M18="TAK",Arkusz3!$B$19*J18,0)</f>
-        <v>10</v>
+        <f aca="false">IF(M18="TAK",Arkusz3!$B$20*J18,0)</f>
+        <v>20</v>
       </c>
       <c r="AB18" s="7" t="n">
-        <f aca="false">IF(N18="TAK",Arkusz3!$B$19*J18,0)</f>
+        <f aca="false">IF(N18="TAK",Arkusz3!$B$21*J18,0)</f>
         <v>0</v>
       </c>
       <c r="AC18" s="7" t="n">
-        <f aca="false">IF(O18="TAK",Arkusz3!$B$19*J18,0)</f>
-        <v>10</v>
+        <f aca="false">IF(O18="TAK",Arkusz3!$B$22*J18,0)</f>
+        <v>20</v>
       </c>
       <c r="AD18" s="7" t="n">
-        <f aca="false">IF(P18="TAK",Arkusz3!$B$19*J18,0)</f>
+        <f aca="false">IF(P18="TAK",Arkusz3!$B$23*J18,0)</f>
         <v>0</v>
       </c>
       <c r="AE18" s="7" t="n">
-        <f aca="false">IF(Q18="TAK",Arkusz3!$B$19*J18,0)</f>
+        <f aca="false">IF(Q18="TAK",Arkusz3!$B$24*J18,0)</f>
         <v>10</v>
       </c>
       <c r="AF18" s="7" t="n">
-        <f aca="false">IF(R18="TAK",Arkusz3!$B$19*J18,0)</f>
-        <v>10</v>
+        <f aca="false">IF(R18="TAK",Arkusz3!$B$25*J18,0)</f>
+        <v>24</v>
       </c>
       <c r="AG18" s="7" t="n">
         <f aca="false">SUM(Z18:AF18)</f>
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AH18" s="7" t="n">
-        <f aca="false">IF(L18="Nie",0,5)</f>
+        <f aca="false">IF(L18="Nie",0,V18)</f>
         <v>0</v>
       </c>
       <c r="AI18" s="7" t="n">
-        <f aca="false">IF(M18="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(M18="Nie",0,V18)</f>
+        <v>10</v>
       </c>
       <c r="AJ18" s="7" t="n">
-        <f aca="false">IF(N18="Nie",0,5)</f>
+        <f aca="false">IF(N18="Nie",0,V18)</f>
         <v>0</v>
       </c>
       <c r="AK18" s="7" t="n">
-        <v>2</v>
+        <f aca="false">IF(O18="Nie",0,V18)</f>
+        <v>10</v>
       </c>
       <c r="AL18" s="7" t="n">
-        <f aca="false">IF(P18="Nie",0,5)</f>
+        <f aca="false">IF(P18="Nie",0,V18)</f>
         <v>0</v>
       </c>
       <c r="AM18" s="7" t="n">
-        <v>2</v>
+        <f aca="false">IF(Q18="Nie",0,V18)</f>
+        <v>10</v>
       </c>
       <c r="AN18" s="7" t="n">
-        <v>2</v>
+        <f aca="false">IF(R18="Nie",0,V18)</f>
+        <v>10</v>
       </c>
       <c r="AO18" s="7" t="n">
         <f aca="false">IF(AH18&gt;5,Z18*0.2*(AH18-5)+Z18,Z18)</f>
@@ -4076,7 +4095,7 @@
       </c>
       <c r="AP18" s="7" t="n">
         <f aca="false">IF(AI18&gt;5,AA18*0.2*(AI18-5)+AA18,AA18)</f>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AQ18" s="7" t="n">
         <f aca="false">IF(AJ18&gt;5,AB18*0.2*(AJ18-5)+AB18,AB18)</f>
@@ -4084,7 +4103,7 @@
       </c>
       <c r="AR18" s="7" t="n">
         <f aca="false">IF(AK18&gt;5,AC18*0.2*(AK18-5)+AC18,AC18)</f>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AS18" s="7" t="n">
         <f aca="false">IF(AL18&gt;5,AD18*0.2*(AL18-5)+AD18,AD18)</f>
@@ -4092,25 +4111,25 @@
       </c>
       <c r="AT18" s="7" t="n">
         <f aca="false">IF(AM18&gt;5,AE18*0.2*(AM18-5)+AE18,AE18)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AU18" s="7" t="n">
         <f aca="false">IF(AN18&gt;5,AF18*0.2*(AN18-5)+AF18,AF18)</f>
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="AV18" s="7" t="n">
         <f aca="false">SUM(AO18:AU18)+Y18</f>
-        <v>184.5</v>
+        <v>292.5</v>
       </c>
       <c r="AW18" s="7" t="n">
         <f aca="false">IF(S18="Roczna",AV18*12*0.95,AV18)</f>
-        <v>2103.3</v>
+        <v>3334.5</v>
       </c>
       <c r="AX18" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
@@ -4197,59 +4216,60 @@
         <v>0</v>
       </c>
       <c r="AA19" s="7" t="n">
-        <f aca="false">IF(M19="TAK",Arkusz3!$B$19*J19,0)</f>
+        <f aca="false">IF(M19="TAK",Arkusz3!$B$20*J19,0)</f>
         <v>0</v>
       </c>
       <c r="AB19" s="7" t="n">
-        <f aca="false">IF(N19="TAK",Arkusz3!$B$19*J19,0)</f>
+        <f aca="false">IF(N19="TAK",Arkusz3!$B$21*J19,0)</f>
         <v>0</v>
       </c>
       <c r="AC19" s="7" t="n">
-        <f aca="false">IF(O19="TAK",Arkusz3!$B$19*J19,0)</f>
+        <f aca="false">IF(O19="TAK",Arkusz3!$B$22*J19,0)</f>
         <v>0</v>
       </c>
       <c r="AD19" s="7" t="n">
-        <f aca="false">IF(P19="TAK",Arkusz3!$B$19*J19,0)</f>
+        <f aca="false">IF(P19="TAK",Arkusz3!$B$23*J19,0)</f>
         <v>0</v>
       </c>
       <c r="AE19" s="7" t="n">
-        <f aca="false">IF(Q19="TAK",Arkusz3!$B$19*J19,0)</f>
+        <f aca="false">IF(Q19="TAK",Arkusz3!$B$24*J19,0)</f>
         <v>0</v>
       </c>
       <c r="AF19" s="7" t="n">
-        <f aca="false">IF(R19="TAK",Arkusz3!$B$19*J19,0)</f>
-        <v>10</v>
+        <f aca="false">IF(R19="TAK",Arkusz3!$B$25*J19,0)</f>
+        <v>24</v>
       </c>
       <c r="AG19" s="7" t="n">
         <f aca="false">SUM(Z19:AF19)</f>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AH19" s="7" t="n">
-        <f aca="false">IF(L19="Nie",0,5)</f>
+        <f aca="false">IF(L19="Nie",0,V19)</f>
         <v>0</v>
       </c>
       <c r="AI19" s="7" t="n">
-        <f aca="false">IF(M19="Nie",0,5)</f>
+        <f aca="false">IF(M19="Nie",0,V19)</f>
         <v>0</v>
       </c>
       <c r="AJ19" s="7" t="n">
-        <f aca="false">IF(N19="Nie",0,5)</f>
+        <f aca="false">IF(N19="Nie",0,V19)</f>
         <v>0</v>
       </c>
       <c r="AK19" s="7" t="n">
-        <f aca="false">IF(O19="Nie",0,5)</f>
+        <f aca="false">IF(O19="Nie",0,V19)</f>
         <v>0</v>
       </c>
       <c r="AL19" s="7" t="n">
-        <f aca="false">IF(P19="Nie",0,5)</f>
+        <f aca="false">IF(P19="Nie",0,V19)</f>
         <v>0</v>
       </c>
       <c r="AM19" s="7" t="n">
-        <f aca="false">IF(Q19="Nie",0,5)</f>
+        <f aca="false">IF(Q19="Nie",0,V19)</f>
         <v>0</v>
       </c>
       <c r="AN19" s="7" t="n">
-        <v>2</v>
+        <f aca="false">IF(R19="Nie",0,V19)</f>
+        <v>10</v>
       </c>
       <c r="AO19" s="7" t="n">
         <f aca="false">IF(AH19&gt;5,Z19*0.2*(AH19-5)+Z19,Z19)</f>
@@ -4277,21 +4297,21 @@
       </c>
       <c r="AU19" s="7" t="n">
         <f aca="false">IF(AN19&gt;5,AF19*0.2*(AN19-5)+AF19,AF19)</f>
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="AV19" s="7" t="n">
         <f aca="false">SUM(AO19:AU19)+Y19</f>
-        <v>134.5</v>
+        <v>172.5</v>
       </c>
       <c r="AW19" s="7" t="n">
         <f aca="false">IF(S19="Roczna",AV19*12*0.95,AV19)</f>
-        <v>1533.3</v>
+        <v>1966.5</v>
       </c>
       <c r="AX19" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
@@ -4378,60 +4398,60 @@
         <v>0</v>
       </c>
       <c r="AA20" s="7" t="n">
-        <f aca="false">IF(M20="TAK",Arkusz3!$B$19*J20,0)</f>
-        <v>10</v>
+        <f aca="false">IF(M20="TAK",Arkusz3!$B$20*J20,0)</f>
+        <v>20</v>
       </c>
       <c r="AB20" s="7" t="n">
-        <f aca="false">IF(N20="TAK",Arkusz3!$B$19*J20,0)</f>
-        <v>10</v>
+        <f aca="false">IF(N20="TAK",Arkusz3!$B$21*J20,0)</f>
+        <v>16</v>
       </c>
       <c r="AC20" s="7" t="n">
-        <f aca="false">IF(O20="TAK",Arkusz3!$B$19*J20,0)</f>
-        <v>10</v>
+        <f aca="false">IF(O20="TAK",Arkusz3!$B$22*J20,0)</f>
+        <v>20</v>
       </c>
       <c r="AD20" s="7" t="n">
-        <f aca="false">IF(P20="TAK",Arkusz3!$B$19*J20,0)</f>
+        <f aca="false">IF(P20="TAK",Arkusz3!$B$23*J20,0)</f>
         <v>0</v>
       </c>
       <c r="AE20" s="7" t="n">
-        <f aca="false">IF(Q20="TAK",Arkusz3!$B$19*J20,0)</f>
+        <f aca="false">IF(Q20="TAK",Arkusz3!$B$24*J20,0)</f>
         <v>0</v>
       </c>
       <c r="AF20" s="7" t="n">
-        <f aca="false">IF(R20="TAK",Arkusz3!$B$19*J20,0)</f>
-        <v>10</v>
+        <f aca="false">IF(R20="TAK",Arkusz3!$B$25*J20,0)</f>
+        <v>24</v>
       </c>
       <c r="AG20" s="7" t="n">
         <f aca="false">SUM(Z20:AF20)</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AH20" s="7" t="n">
-        <f aca="false">IF(L20="Nie",0,5)</f>
+        <f aca="false">IF(L20="Nie",0,V20)</f>
         <v>0</v>
       </c>
       <c r="AI20" s="7" t="n">
-        <f aca="false">IF(M20="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(M20="Nie",0,V20)</f>
+        <v>10</v>
       </c>
       <c r="AJ20" s="7" t="n">
-        <f aca="false">IF(N20="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(N20="Nie",0,V20)</f>
+        <v>10</v>
       </c>
       <c r="AK20" s="7" t="n">
-        <f aca="false">IF(O20="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(O20="Nie",0,V20)</f>
+        <v>10</v>
       </c>
       <c r="AL20" s="7" t="n">
-        <f aca="false">IF(P20="Nie",0,5)</f>
+        <f aca="false">IF(P20="Nie",0,V20)</f>
         <v>0</v>
       </c>
       <c r="AM20" s="7" t="n">
-        <f aca="false">IF(Q20="Nie",0,5)</f>
+        <f aca="false">IF(Q20="Nie",0,V20)</f>
         <v>0</v>
       </c>
       <c r="AN20" s="7" t="n">
-        <f aca="false">IF(R20="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(R20="Nie",0,V20)</f>
+        <v>10</v>
       </c>
       <c r="AO20" s="7" t="n">
         <f aca="false">IF(AH20&gt;5,Z20*0.2*(AH20-5)+Z20,Z20)</f>
@@ -4439,15 +4459,15 @@
       </c>
       <c r="AP20" s="7" t="n">
         <f aca="false">IF(AI20&gt;5,AA20*0.2*(AI20-5)+AA20,AA20)</f>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AQ20" s="7" t="n">
         <f aca="false">IF(AJ20&gt;5,AB20*0.2*(AJ20-5)+AB20,AB20)</f>
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="AR20" s="7" t="n">
         <f aca="false">IF(AK20&gt;5,AC20*0.2*(AK20-5)+AC20,AC20)</f>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AS20" s="7" t="n">
         <f aca="false">IF(AL20&gt;5,AD20*0.2*(AL20-5)+AD20,AD20)</f>
@@ -4459,15 +4479,15 @@
       </c>
       <c r="AU20" s="7" t="n">
         <f aca="false">IF(AN20&gt;5,AF20*0.2*(AN20-5)+AF20,AF20)</f>
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="AV20" s="7" t="n">
         <f aca="false">SUM(AO20:AU20)+Y20</f>
-        <v>204.5</v>
+        <v>324.5</v>
       </c>
       <c r="AW20" s="7" t="n">
         <f aca="false">IF(S20="Roczna",AV20*12*0.95,AV20)</f>
-        <v>204.5</v>
+        <v>324.5</v>
       </c>
       <c r="AX20" s="7" t="s">
         <v>44</v>
@@ -4560,64 +4580,64 @@
         <v>5</v>
       </c>
       <c r="AA21" s="7" t="n">
-        <f aca="false">IF(M21="TAK",Arkusz3!$B$19*J21,0)</f>
+        <f aca="false">IF(M21="TAK",Arkusz3!$B$20*J21,0)</f>
         <v>0</v>
       </c>
       <c r="AB21" s="7" t="n">
-        <f aca="false">IF(N21="TAK",Arkusz3!$B$19*J21,0)</f>
+        <f aca="false">IF(N21="TAK",Arkusz3!$B$21*J21,0)</f>
         <v>0</v>
       </c>
       <c r="AC21" s="7" t="n">
-        <f aca="false">IF(O21="TAK",Arkusz3!$B$19*J21,0)</f>
+        <f aca="false">IF(O21="TAK",Arkusz3!$B$22*J21,0)</f>
         <v>0</v>
       </c>
       <c r="AD21" s="7" t="n">
-        <f aca="false">IF(P21="TAK",Arkusz3!$B$19*J21,0)</f>
+        <f aca="false">IF(P21="TAK",Arkusz3!$B$23*J21,0)</f>
         <v>0</v>
       </c>
       <c r="AE21" s="7" t="n">
-        <f aca="false">IF(Q21="TAK",Arkusz3!$B$19*J21,0)</f>
+        <f aca="false">IF(Q21="TAK",Arkusz3!$B$24*J21,0)</f>
         <v>5</v>
       </c>
       <c r="AF21" s="7" t="n">
-        <f aca="false">IF(R21="TAK",Arkusz3!$B$19*J21,0)</f>
-        <v>5</v>
+        <f aca="false">IF(R21="TAK",Arkusz3!$B$25*J21,0)</f>
+        <v>12</v>
       </c>
       <c r="AG21" s="7" t="n">
         <f aca="false">SUM(Z21:AF21)</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AH21" s="7" t="n">
-        <f aca="false">IF(L21="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(L21="Nie",0,V21)</f>
+        <v>12</v>
       </c>
       <c r="AI21" s="7" t="n">
-        <f aca="false">IF(M21="Nie",0,5)</f>
+        <f aca="false">IF(M21="Nie",0,V21)</f>
         <v>0</v>
       </c>
       <c r="AJ21" s="7" t="n">
-        <f aca="false">IF(N21="Nie",0,5)</f>
+        <f aca="false">IF(N21="Nie",0,V21)</f>
         <v>0</v>
       </c>
       <c r="AK21" s="7" t="n">
-        <f aca="false">IF(O21="Nie",0,5)</f>
+        <f aca="false">IF(O21="Nie",0,V21)</f>
         <v>0</v>
       </c>
       <c r="AL21" s="7" t="n">
-        <f aca="false">IF(P21="Nie",0,5)</f>
+        <f aca="false">IF(P21="Nie",0,V21)</f>
         <v>0</v>
       </c>
       <c r="AM21" s="7" t="n">
-        <f aca="false">IF(Q21="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(Q21="Nie",0,V21)</f>
+        <v>12</v>
       </c>
       <c r="AN21" s="7" t="n">
-        <f aca="false">IF(R21="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(R21="Nie",0,V21)</f>
+        <v>12</v>
       </c>
       <c r="AO21" s="7" t="n">
         <f aca="false">IF(AH21&gt;5,Z21*0.2*(AH21-5)+Z21,Z21)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AP21" s="7" t="n">
         <f aca="false">IF(AI21&gt;5,AA21*0.2*(AI21-5)+AA21,AA21)</f>
@@ -4637,19 +4657,19 @@
       </c>
       <c r="AT21" s="7" t="n">
         <f aca="false">IF(AM21&gt;5,AE21*0.2*(AM21-5)+AE21,AE21)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AU21" s="7" t="n">
         <f aca="false">IF(AN21&gt;5,AF21*0.2*(AN21-5)+AF21,AF21)</f>
-        <v>5</v>
+        <v>28.8</v>
       </c>
       <c r="AV21" s="7" t="n">
         <f aca="false">SUM(AO21:AU21)+Y21</f>
-        <v>71</v>
+        <v>108.8</v>
       </c>
       <c r="AW21" s="7" t="n">
         <f aca="false">IF(S21="Roczna",AV21*12*0.95,AV21)</f>
-        <v>71</v>
+        <v>108.8</v>
       </c>
       <c r="AX21" s="7" t="s">
         <v>57</v>
@@ -4742,57 +4762,59 @@
         <v>0</v>
       </c>
       <c r="AA22" s="7" t="n">
-        <f aca="false">IF(M22="TAK",Arkusz3!$B$19*J22,0)</f>
-        <v>10</v>
+        <f aca="false">IF(M22="TAK",Arkusz3!$B$20*J22,0)</f>
+        <v>20</v>
       </c>
       <c r="AB22" s="7" t="n">
-        <f aca="false">IF(N22="TAK",Arkusz3!$B$19*J22,0)</f>
-        <v>10</v>
+        <f aca="false">IF(N22="TAK",Arkusz3!$B$21*J22,0)</f>
+        <v>16</v>
       </c>
       <c r="AC22" s="7" t="n">
-        <f aca="false">IF(O22="TAK",Arkusz3!$B$19*J22,0)</f>
+        <f aca="false">IF(O22="TAK",Arkusz3!$B$22*J22,0)</f>
         <v>0</v>
       </c>
       <c r="AD22" s="7" t="n">
-        <f aca="false">IF(P22="TAK",Arkusz3!$B$19*J22,0)</f>
-        <v>10</v>
+        <f aca="false">IF(P22="TAK",Arkusz3!$B$23*J22,0)</f>
+        <v>24</v>
       </c>
       <c r="AE22" s="7" t="n">
-        <f aca="false">IF(Q22="TAK",Arkusz3!$B$19*J22,0)</f>
+        <f aca="false">IF(Q22="TAK",Arkusz3!$B$24*J22,0)</f>
         <v>0</v>
       </c>
       <c r="AF22" s="7" t="n">
-        <f aca="false">IF(R22="TAK",Arkusz3!$B$19*J22,0)</f>
+        <f aca="false">IF(R22="TAK",Arkusz3!$B$25*J22,0)</f>
         <v>0</v>
       </c>
       <c r="AG22" s="7" t="n">
         <f aca="false">SUM(Z22:AF22)</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AH22" s="7" t="n">
-        <f aca="false">IF(L22="Nie",0,5)</f>
+        <f aca="false">IF(L22="Nie",0,V22)</f>
         <v>0</v>
       </c>
       <c r="AI22" s="7" t="n">
-        <f aca="false">IF(M22="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(M22="Nie",0,V22)</f>
+        <v>10</v>
       </c>
       <c r="AJ22" s="7" t="n">
+        <f aca="false">IF(N22="Nie",0,V22)</f>
         <v>10</v>
       </c>
       <c r="AK22" s="7" t="n">
-        <f aca="false">IF(O22="Nie",0,5)</f>
+        <f aca="false">IF(O22="Nie",0,V22)</f>
         <v>0</v>
       </c>
       <c r="AL22" s="7" t="n">
+        <f aca="false">IF(P22="Nie",0,V22)</f>
         <v>10</v>
       </c>
       <c r="AM22" s="7" t="n">
-        <f aca="false">IF(Q22="Nie",0,5)</f>
+        <f aca="false">IF(Q22="Nie",0,V22)</f>
         <v>0</v>
       </c>
       <c r="AN22" s="7" t="n">
-        <f aca="false">IF(R22="Nie",0,5)</f>
+        <f aca="false">IF(R22="Nie",0,V22)</f>
         <v>0</v>
       </c>
       <c r="AO22" s="7" t="n">
@@ -4801,11 +4823,11 @@
       </c>
       <c r="AP22" s="7" t="n">
         <f aca="false">IF(AI22&gt;5,AA22*0.2*(AI22-5)+AA22,AA22)</f>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AQ22" s="7" t="n">
         <f aca="false">IF(AJ22&gt;5,AB22*0.2*(AJ22-5)+AB22,AB22)</f>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="AR22" s="7" t="n">
         <f aca="false">IF(AK22&gt;5,AC22*0.2*(AK22-5)+AC22,AC22)</f>
@@ -4813,7 +4835,7 @@
       </c>
       <c r="AS22" s="7" t="n">
         <f aca="false">IF(AL22&gt;5,AD22*0.2*(AL22-5)+AD22,AD22)</f>
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="AT22" s="7" t="n">
         <f aca="false">IF(AM22&gt;5,AE22*0.2*(AM22-5)+AE22,AE22)</f>
@@ -4825,11 +4847,11 @@
       </c>
       <c r="AV22" s="7" t="n">
         <f aca="false">SUM(AO22:AU22)+Y22</f>
-        <v>154.5</v>
+        <v>224.5</v>
       </c>
       <c r="AW22" s="7" t="n">
         <f aca="false">IF(S22="Roczna",AV22*12*0.95,AV22)</f>
-        <v>154.5</v>
+        <v>224.5</v>
       </c>
       <c r="AX22" s="7" t="s">
         <v>44</v>
@@ -4922,60 +4944,60 @@
         <v>0</v>
       </c>
       <c r="AA23" s="7" t="n">
-        <f aca="false">IF(M23="TAK",Arkusz3!$B$19*J23,0)</f>
+        <f aca="false">IF(M23="TAK",Arkusz3!$B$20*J23,0)</f>
         <v>0</v>
       </c>
       <c r="AB23" s="7" t="n">
-        <f aca="false">IF(N23="TAK",Arkusz3!$B$19*J23,0)</f>
+        <f aca="false">IF(N23="TAK",Arkusz3!$B$21*J23,0)</f>
         <v>0</v>
       </c>
       <c r="AC23" s="7" t="n">
-        <f aca="false">IF(O23="TAK",Arkusz3!$B$19*J23,0)</f>
-        <v>5</v>
+        <f aca="false">IF(O23="TAK",Arkusz3!$B$22*J23,0)</f>
+        <v>10</v>
       </c>
       <c r="AD23" s="7" t="n">
-        <f aca="false">IF(P23="TAK",Arkusz3!$B$19*J23,0)</f>
+        <f aca="false">IF(P23="TAK",Arkusz3!$B$23*J23,0)</f>
         <v>0</v>
       </c>
       <c r="AE23" s="7" t="n">
-        <f aca="false">IF(Q23="TAK",Arkusz3!$B$19*J23,0)</f>
+        <f aca="false">IF(Q23="TAK",Arkusz3!$B$24*J23,0)</f>
         <v>5</v>
       </c>
       <c r="AF23" s="7" t="n">
-        <f aca="false">IF(R23="TAK",Arkusz3!$B$19*J23,0)</f>
-        <v>5</v>
+        <f aca="false">IF(R23="TAK",Arkusz3!$B$25*J23,0)</f>
+        <v>12</v>
       </c>
       <c r="AG23" s="7" t="n">
         <f aca="false">SUM(Z23:AF23)</f>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AH23" s="7" t="n">
-        <f aca="false">IF(L23="Nie",0,5)</f>
+        <f aca="false">IF(L23="Nie",0,V23)</f>
         <v>0</v>
       </c>
       <c r="AI23" s="7" t="n">
-        <f aca="false">IF(M23="Nie",0,5)</f>
+        <f aca="false">IF(M23="Nie",0,V23)</f>
         <v>0</v>
       </c>
       <c r="AJ23" s="7" t="n">
-        <f aca="false">IF(N23="Nie",0,5)</f>
+        <f aca="false">IF(N23="Nie",0,V23)</f>
         <v>0</v>
       </c>
       <c r="AK23" s="7" t="n">
-        <f aca="false">IF(O23="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(O23="Nie",0,V23)</f>
+        <v>20</v>
       </c>
       <c r="AL23" s="7" t="n">
-        <f aca="false">IF(P23="Nie",0,5)</f>
+        <f aca="false">IF(P23="Nie",0,V23)</f>
         <v>0</v>
       </c>
       <c r="AM23" s="7" t="n">
-        <f aca="false">IF(Q23="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(Q23="Nie",0,V23)</f>
+        <v>20</v>
       </c>
       <c r="AN23" s="7" t="n">
-        <f aca="false">IF(R23="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(R23="Nie",0,V23)</f>
+        <v>20</v>
       </c>
       <c r="AO23" s="7" t="n">
         <f aca="false">IF(AH23&gt;5,Z23*0.2*(AH23-5)+Z23,Z23)</f>
@@ -4991,7 +5013,7 @@
       </c>
       <c r="AR23" s="7" t="n">
         <f aca="false">IF(AK23&gt;5,AC23*0.2*(AK23-5)+AC23,AC23)</f>
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="AS23" s="7" t="n">
         <f aca="false">IF(AL23&gt;5,AD23*0.2*(AL23-5)+AD23,AD23)</f>
@@ -4999,19 +5021,19 @@
       </c>
       <c r="AT23" s="7" t="n">
         <f aca="false">IF(AM23&gt;5,AE23*0.2*(AM23-5)+AE23,AE23)</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AU23" s="7" t="n">
         <f aca="false">IF(AN23&gt;5,AF23*0.2*(AN23-5)+AF23,AF23)</f>
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="AV23" s="7" t="n">
         <f aca="false">SUM(AO23:AU23)+Y23</f>
-        <v>300</v>
+        <v>393</v>
       </c>
       <c r="AW23" s="7" t="n">
         <f aca="false">IF(S23="Roczna",AV23*12*0.95,AV23)</f>
-        <v>300</v>
+        <v>393</v>
       </c>
       <c r="AX23" s="7" t="s">
         <v>44</v>
@@ -5104,60 +5126,60 @@
         <v>0</v>
       </c>
       <c r="AA24" s="7" t="n">
-        <f aca="false">IF(M24="TAK",Arkusz3!$B$19*J24,0)</f>
+        <f aca="false">IF(M24="TAK",Arkusz3!$B$20*J24,0)</f>
         <v>0</v>
       </c>
       <c r="AB24" s="7" t="n">
-        <f aca="false">IF(N24="TAK",Arkusz3!$B$19*J24,0)</f>
-        <v>5</v>
+        <f aca="false">IF(N24="TAK",Arkusz3!$B$21*J24,0)</f>
+        <v>8</v>
       </c>
       <c r="AC24" s="7" t="n">
-        <f aca="false">IF(O24="TAK",Arkusz3!$B$19*J24,0)</f>
-        <v>5</v>
+        <f aca="false">IF(O24="TAK",Arkusz3!$B$22*J24,0)</f>
+        <v>10</v>
       </c>
       <c r="AD24" s="7" t="n">
-        <f aca="false">IF(P24="TAK",Arkusz3!$B$19*J24,0)</f>
+        <f aca="false">IF(P24="TAK",Arkusz3!$B$23*J24,0)</f>
         <v>0</v>
       </c>
       <c r="AE24" s="7" t="n">
-        <f aca="false">IF(Q24="TAK",Arkusz3!$B$19*J24,0)</f>
+        <f aca="false">IF(Q24="TAK",Arkusz3!$B$24*J24,0)</f>
         <v>5</v>
       </c>
       <c r="AF24" s="7" t="n">
-        <f aca="false">IF(R24="TAK",Arkusz3!$B$19*J24,0)</f>
-        <v>5</v>
+        <f aca="false">IF(R24="TAK",Arkusz3!$B$25*J24,0)</f>
+        <v>12</v>
       </c>
       <c r="AG24" s="7" t="n">
         <f aca="false">SUM(Z24:AF24)</f>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="AH24" s="7" t="n">
-        <f aca="false">IF(L24="Nie",0,5)</f>
+        <f aca="false">IF(L24="Nie",0,V24)</f>
         <v>0</v>
       </c>
       <c r="AI24" s="7" t="n">
-        <f aca="false">IF(M24="Nie",0,5)</f>
+        <f aca="false">IF(M24="Nie",0,V24)</f>
         <v>0</v>
       </c>
       <c r="AJ24" s="7" t="n">
-        <f aca="false">IF(N24="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(N24="Nie",0,V24)</f>
+        <v>10</v>
       </c>
       <c r="AK24" s="7" t="n">
-        <f aca="false">IF(O24="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(O24="Nie",0,V24)</f>
+        <v>10</v>
       </c>
       <c r="AL24" s="7" t="n">
-        <f aca="false">IF(P24="Nie",0,5)</f>
+        <f aca="false">IF(P24="Nie",0,V24)</f>
         <v>0</v>
       </c>
       <c r="AM24" s="7" t="n">
-        <f aca="false">IF(Q24="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(Q24="Nie",0,V24)</f>
+        <v>10</v>
       </c>
       <c r="AN24" s="7" t="n">
-        <f aca="false">IF(R24="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(R24="Nie",0,V24)</f>
+        <v>10</v>
       </c>
       <c r="AO24" s="7" t="n">
         <f aca="false">IF(AH24&gt;5,Z24*0.2*(AH24-5)+Z24,Z24)</f>
@@ -5169,11 +5191,11 @@
       </c>
       <c r="AQ24" s="7" t="n">
         <f aca="false">IF(AJ24&gt;5,AB24*0.2*(AJ24-5)+AB24,AB24)</f>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AR24" s="7" t="n">
         <f aca="false">IF(AK24&gt;5,AC24*0.2*(AK24-5)+AC24,AC24)</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AS24" s="7" t="n">
         <f aca="false">IF(AL24&gt;5,AD24*0.2*(AL24-5)+AD24,AD24)</f>
@@ -5181,19 +5203,19 @@
       </c>
       <c r="AT24" s="7" t="n">
         <f aca="false">IF(AM24&gt;5,AE24*0.2*(AM24-5)+AE24,AE24)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AU24" s="7" t="n">
         <f aca="false">IF(AN24&gt;5,AF24*0.2*(AN24-5)+AF24,AF24)</f>
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="AV24" s="7" t="n">
         <f aca="false">SUM(AO24:AU24)+Y24</f>
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="AW24" s="7" t="n">
         <f aca="false">IF(S24="Roczna",AV24*12*0.95,AV24)</f>
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="AX24" s="7" t="s">
         <v>49</v>
@@ -5286,59 +5308,59 @@
         <v>0</v>
       </c>
       <c r="AA25" s="7" t="n">
-        <f aca="false">IF(M25="TAK",Arkusz3!$B$19*J25,0)</f>
-        <v>5</v>
+        <f aca="false">IF(M25="TAK",Arkusz3!$B$20*J25,0)</f>
+        <v>10</v>
       </c>
       <c r="AB25" s="7" t="n">
-        <f aca="false">IF(N25="TAK",Arkusz3!$B$19*J25,0)</f>
+        <f aca="false">IF(N25="TAK",Arkusz3!$B$21*J25,0)</f>
         <v>0</v>
       </c>
       <c r="AC25" s="7" t="n">
-        <f aca="false">IF(O25="TAK",Arkusz3!$B$19*J25,0)</f>
-        <v>5</v>
+        <f aca="false">IF(O25="TAK",Arkusz3!$B$22*J25,0)</f>
+        <v>10</v>
       </c>
       <c r="AD25" s="7" t="n">
-        <f aca="false">IF(P25="TAK",Arkusz3!$B$19*J25,0)</f>
+        <f aca="false">IF(P25="TAK",Arkusz3!$B$23*J25,0)</f>
         <v>0</v>
       </c>
       <c r="AE25" s="7" t="n">
-        <f aca="false">IF(Q25="TAK",Arkusz3!$B$19*J25,0)</f>
+        <f aca="false">IF(Q25="TAK",Arkusz3!$B$24*J25,0)</f>
         <v>0</v>
       </c>
       <c r="AF25" s="7" t="n">
-        <f aca="false">IF(R25="TAK",Arkusz3!$B$19*J25,0)</f>
+        <f aca="false">IF(R25="TAK",Arkusz3!$B$25*J25,0)</f>
         <v>0</v>
       </c>
       <c r="AG25" s="7" t="n">
         <f aca="false">SUM(Z25:AF25)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AH25" s="7" t="n">
-        <f aca="false">IF(L25="Nie",0,5)</f>
+        <f aca="false">IF(L25="Nie",0,V25)</f>
         <v>0</v>
       </c>
       <c r="AI25" s="7" t="n">
-        <f aca="false">IF(M25="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(M25="Nie",0,V25)</f>
+        <v>10</v>
       </c>
       <c r="AJ25" s="7" t="n">
-        <f aca="false">IF(N25="Nie",0,5)</f>
+        <f aca="false">IF(N25="Nie",0,V25)</f>
         <v>0</v>
       </c>
       <c r="AK25" s="7" t="n">
-        <f aca="false">IF(O25="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(O25="Nie",0,V25)</f>
+        <v>10</v>
       </c>
       <c r="AL25" s="7" t="n">
-        <f aca="false">IF(P25="Nie",0,5)</f>
+        <f aca="false">IF(P25="Nie",0,V25)</f>
         <v>0</v>
       </c>
       <c r="AM25" s="7" t="n">
-        <f aca="false">IF(Q25="Nie",0,5)</f>
+        <f aca="false">IF(Q25="Nie",0,V25)</f>
         <v>0</v>
       </c>
       <c r="AN25" s="7" t="n">
-        <f aca="false">IF(R25="Nie",0,5)</f>
+        <f aca="false">IF(R25="Nie",0,V25)</f>
         <v>0</v>
       </c>
       <c r="AO25" s="7" t="n">
@@ -5347,7 +5369,7 @@
       </c>
       <c r="AP25" s="7" t="n">
         <f aca="false">IF(AI25&gt;5,AA25*0.2*(AI25-5)+AA25,AA25)</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AQ25" s="7" t="n">
         <f aca="false">IF(AJ25&gt;5,AB25*0.2*(AJ25-5)+AB25,AB25)</f>
@@ -5355,7 +5377,7 @@
       </c>
       <c r="AR25" s="7" t="n">
         <f aca="false">IF(AK25&gt;5,AC25*0.2*(AK25-5)+AC25,AC25)</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AS25" s="7" t="n">
         <f aca="false">IF(AL25&gt;5,AD25*0.2*(AL25-5)+AD25,AD25)</f>
@@ -5371,11 +5393,11 @@
       </c>
       <c r="AV25" s="7" t="n">
         <f aca="false">SUM(AO25:AU25)+Y25</f>
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="AW25" s="7" t="n">
         <f aca="false">IF(S25="Roczna",AV25*12*0.95,AV25)</f>
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="AX25" s="7" t="s">
         <v>57</v>
@@ -5468,60 +5490,60 @@
         <v>0</v>
       </c>
       <c r="AA26" s="7" t="n">
-        <f aca="false">IF(M26="TAK",Arkusz3!$B$19*J26,0)</f>
-        <v>10</v>
+        <f aca="false">IF(M26="TAK",Arkusz3!$B$20*J26,0)</f>
+        <v>20</v>
       </c>
       <c r="AB26" s="7" t="n">
-        <f aca="false">IF(N26="TAK",Arkusz3!$B$19*J26,0)</f>
-        <v>10</v>
+        <f aca="false">IF(N26="TAK",Arkusz3!$B$21*J26,0)</f>
+        <v>16</v>
       </c>
       <c r="AC26" s="7" t="n">
-        <f aca="false">IF(O26="TAK",Arkusz3!$B$19*J26,0)</f>
+        <f aca="false">IF(O26="TAK",Arkusz3!$B$22*J26,0)</f>
         <v>0</v>
       </c>
       <c r="AD26" s="7" t="n">
-        <f aca="false">IF(P26="TAK",Arkusz3!$B$19*J26,0)</f>
-        <v>10</v>
+        <f aca="false">IF(P26="TAK",Arkusz3!$B$23*J26,0)</f>
+        <v>24</v>
       </c>
       <c r="AE26" s="7" t="n">
-        <f aca="false">IF(Q26="TAK",Arkusz3!$B$19*J26,0)</f>
+        <f aca="false">IF(Q26="TAK",Arkusz3!$B$24*J26,0)</f>
         <v>0</v>
       </c>
       <c r="AF26" s="7" t="n">
-        <f aca="false">IF(R26="TAK",Arkusz3!$B$19*J26,0)</f>
-        <v>10</v>
+        <f aca="false">IF(R26="TAK",Arkusz3!$B$25*J26,0)</f>
+        <v>24</v>
       </c>
       <c r="AG26" s="7" t="n">
         <f aca="false">SUM(Z26:AF26)</f>
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="AH26" s="7" t="n">
-        <f aca="false">IF(L26="Nie",0,5)</f>
+        <f aca="false">IF(L26="Nie",0,V26)</f>
         <v>0</v>
       </c>
       <c r="AI26" s="7" t="n">
-        <f aca="false">IF(M26="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(M26="Nie",0,V26)</f>
+        <v>4</v>
       </c>
       <c r="AJ26" s="7" t="n">
-        <f aca="false">IF(N26="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(N26="Nie",0,V26)</f>
+        <v>4</v>
       </c>
       <c r="AK26" s="7" t="n">
-        <f aca="false">IF(O26="Nie",0,5)</f>
+        <f aca="false">IF(O26="Nie",0,V26)</f>
         <v>0</v>
       </c>
       <c r="AL26" s="7" t="n">
-        <f aca="false">IF(P26="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(P26="Nie",0,V26)</f>
+        <v>4</v>
       </c>
       <c r="AM26" s="7" t="n">
-        <f aca="false">IF(Q26="Nie",0,5)</f>
+        <f aca="false">IF(Q26="Nie",0,V26)</f>
         <v>0</v>
       </c>
       <c r="AN26" s="7" t="n">
-        <f aca="false">IF(R26="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(R26="Nie",0,V26)</f>
+        <v>4</v>
       </c>
       <c r="AO26" s="7" t="n">
         <f aca="false">IF(AH26&gt;5,Z26*0.2*(AH26-5)+Z26,Z26)</f>
@@ -5529,11 +5551,11 @@
       </c>
       <c r="AP26" s="7" t="n">
         <f aca="false">IF(AI26&gt;5,AA26*0.2*(AI26-5)+AA26,AA26)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AQ26" s="7" t="n">
         <f aca="false">IF(AJ26&gt;5,AB26*0.2*(AJ26-5)+AB26,AB26)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AR26" s="7" t="n">
         <f aca="false">IF(AK26&gt;5,AC26*0.2*(AK26-5)+AC26,AC26)</f>
@@ -5541,7 +5563,7 @@
       </c>
       <c r="AS26" s="7" t="n">
         <f aca="false">IF(AL26&gt;5,AD26*0.2*(AL26-5)+AD26,AD26)</f>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AT26" s="7" t="n">
         <f aca="false">IF(AM26&gt;5,AE26*0.2*(AM26-5)+AE26,AE26)</f>
@@ -5549,15 +5571,15 @@
       </c>
       <c r="AU26" s="7" t="n">
         <f aca="false">IF(AN26&gt;5,AF26*0.2*(AN26-5)+AF26,AF26)</f>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AV26" s="7" t="n">
         <f aca="false">SUM(AO26:AU26)+Y26</f>
-        <v>204.5</v>
+        <v>248.5</v>
       </c>
       <c r="AW26" s="7" t="n">
         <f aca="false">IF(S26="Roczna",AV26*12*0.95,AV26)</f>
-        <v>204.5</v>
+        <v>248.5</v>
       </c>
       <c r="AX26" s="7" t="s">
         <v>49</v>
@@ -5650,59 +5672,60 @@
         <v>0</v>
       </c>
       <c r="AA27" s="7" t="n">
-        <f aca="false">IF(M27="TAK",Arkusz3!$B$19*J27,0)</f>
-        <v>10</v>
+        <f aca="false">IF(M27="TAK",Arkusz3!$B$20*J27,0)</f>
+        <v>20</v>
       </c>
       <c r="AB27" s="7" t="n">
-        <f aca="false">IF(N27="TAK",Arkusz3!$B$19*J27,0)</f>
+        <f aca="false">IF(N27="TAK",Arkusz3!$B$21*J27,0)</f>
         <v>0</v>
       </c>
       <c r="AC27" s="7" t="n">
-        <f aca="false">IF(O27="TAK",Arkusz3!$B$19*J27,0)</f>
-        <v>10</v>
+        <f aca="false">IF(O27="TAK",Arkusz3!$B$22*J27,0)</f>
+        <v>20</v>
       </c>
       <c r="AD27" s="7" t="n">
-        <f aca="false">IF(P27="TAK",Arkusz3!$B$19*J27,0)</f>
+        <f aca="false">IF(P27="TAK",Arkusz3!$B$23*J27,0)</f>
         <v>0</v>
       </c>
       <c r="AE27" s="7" t="n">
-        <f aca="false">IF(Q27="TAK",Arkusz3!$B$19*J27,0)</f>
+        <f aca="false">IF(Q27="TAK",Arkusz3!$B$24*J27,0)</f>
         <v>10</v>
       </c>
       <c r="AF27" s="7" t="n">
-        <f aca="false">IF(R27="TAK",Arkusz3!$B$19*J27,0)</f>
-        <v>10</v>
+        <f aca="false">IF(R27="TAK",Arkusz3!$B$25*J27,0)</f>
+        <v>24</v>
       </c>
       <c r="AG27" s="7" t="n">
         <f aca="false">SUM(Z27:AF27)</f>
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AH27" s="7" t="n">
-        <f aca="false">IF(L27="Nie",0,5)</f>
+        <f aca="false">IF(L27="Nie",0,V27)</f>
         <v>0</v>
       </c>
       <c r="AI27" s="7" t="n">
+        <f aca="false">IF(M27="Nie",0,V27)</f>
         <v>10</v>
       </c>
       <c r="AJ27" s="7" t="n">
-        <f aca="false">IF(N27="Nie",0,5)</f>
+        <f aca="false">IF(N27="Nie",0,V27)</f>
         <v>0</v>
       </c>
       <c r="AK27" s="7" t="n">
-        <f aca="false">IF(O27="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(O27="Nie",0,V27)</f>
+        <v>10</v>
       </c>
       <c r="AL27" s="7" t="n">
-        <f aca="false">IF(P27="Nie",0,5)</f>
+        <f aca="false">IF(P27="Nie",0,V27)</f>
         <v>0</v>
       </c>
       <c r="AM27" s="7" t="n">
-        <f aca="false">IF(Q27="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(Q27="Nie",0,V27)</f>
+        <v>10</v>
       </c>
       <c r="AN27" s="7" t="n">
-        <f aca="false">IF(R27="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(R27="Nie",0,V27)</f>
+        <v>10</v>
       </c>
       <c r="AO27" s="7" t="n">
         <f aca="false">IF(AH27&gt;5,Z27*0.2*(AH27-5)+Z27,Z27)</f>
@@ -5710,7 +5733,7 @@
       </c>
       <c r="AP27" s="7" t="n">
         <f aca="false">IF(AI27&gt;5,AA27*0.2*(AI27-5)+AA27,AA27)</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AQ27" s="7" t="n">
         <f aca="false">IF(AJ27&gt;5,AB27*0.2*(AJ27-5)+AB27,AB27)</f>
@@ -5718,7 +5741,7 @@
       </c>
       <c r="AR27" s="7" t="n">
         <f aca="false">IF(AK27&gt;5,AC27*0.2*(AK27-5)+AC27,AC27)</f>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AS27" s="7" t="n">
         <f aca="false">IF(AL27&gt;5,AD27*0.2*(AL27-5)+AD27,AD27)</f>
@@ -5726,19 +5749,19 @@
       </c>
       <c r="AT27" s="7" t="n">
         <f aca="false">IF(AM27&gt;5,AE27*0.2*(AM27-5)+AE27,AE27)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AU27" s="7" t="n">
         <f aca="false">IF(AN27&gt;5,AF27*0.2*(AN27-5)+AF27,AF27)</f>
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="AV27" s="7" t="n">
         <f aca="false">SUM(AO27:AU27)+Y27</f>
-        <v>209.5</v>
+        <v>307.5</v>
       </c>
       <c r="AW27" s="7" t="n">
         <f aca="false">IF(S27="Roczna",AV27*12*0.95,AV27)</f>
-        <v>209.5</v>
+        <v>307.5</v>
       </c>
       <c r="AX27" s="7" t="s">
         <v>57</v>
@@ -5831,64 +5854,64 @@
         <v>5</v>
       </c>
       <c r="AA28" s="7" t="n">
-        <f aca="false">IF(M28="TAK",Arkusz3!$B$19*J28,0)</f>
+        <f aca="false">IF(M28="TAK",Arkusz3!$B$20*J28,0)</f>
         <v>0</v>
       </c>
       <c r="AB28" s="7" t="n">
-        <f aca="false">IF(N28="TAK",Arkusz3!$B$19*J28,0)</f>
+        <f aca="false">IF(N28="TAK",Arkusz3!$B$21*J28,0)</f>
         <v>0</v>
       </c>
       <c r="AC28" s="7" t="n">
-        <f aca="false">IF(O28="TAK",Arkusz3!$B$19*J28,0)</f>
+        <f aca="false">IF(O28="TAK",Arkusz3!$B$22*J28,0)</f>
         <v>0</v>
       </c>
       <c r="AD28" s="7" t="n">
-        <f aca="false">IF(P28="TAK",Arkusz3!$B$19*J28,0)</f>
+        <f aca="false">IF(P28="TAK",Arkusz3!$B$23*J28,0)</f>
         <v>0</v>
       </c>
       <c r="AE28" s="7" t="n">
-        <f aca="false">IF(Q28="TAK",Arkusz3!$B$19*J28,0)</f>
+        <f aca="false">IF(Q28="TAK",Arkusz3!$B$24*J28,0)</f>
         <v>5</v>
       </c>
       <c r="AF28" s="7" t="n">
-        <f aca="false">IF(R28="TAK",Arkusz3!$B$19*J28,0)</f>
-        <v>5</v>
+        <f aca="false">IF(R28="TAK",Arkusz3!$B$25*J28,0)</f>
+        <v>12</v>
       </c>
       <c r="AG28" s="7" t="n">
         <f aca="false">SUM(Z28:AF28)</f>
+        <v>22</v>
+      </c>
+      <c r="AH28" s="7" t="n">
+        <f aca="false">IF(L28="Nie",0,V28)</f>
         <v>15</v>
       </c>
-      <c r="AH28" s="7" t="n">
-        <f aca="false">IF(L28="Nie",0,5)</f>
-        <v>5</v>
-      </c>
       <c r="AI28" s="7" t="n">
-        <f aca="false">IF(M28="Nie",0,5)</f>
+        <f aca="false">IF(M28="Nie",0,V28)</f>
         <v>0</v>
       </c>
       <c r="AJ28" s="7" t="n">
-        <f aca="false">IF(N28="Nie",0,5)</f>
+        <f aca="false">IF(N28="Nie",0,V28)</f>
         <v>0</v>
       </c>
       <c r="AK28" s="7" t="n">
-        <f aca="false">IF(O28="Nie",0,5)</f>
+        <f aca="false">IF(O28="Nie",0,V28)</f>
         <v>0</v>
       </c>
       <c r="AL28" s="7" t="n">
-        <f aca="false">IF(P28="Nie",0,5)</f>
+        <f aca="false">IF(P28="Nie",0,V28)</f>
         <v>0</v>
       </c>
       <c r="AM28" s="7" t="n">
-        <f aca="false">IF(Q28="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(Q28="Nie",0,V28)</f>
+        <v>15</v>
       </c>
       <c r="AN28" s="7" t="n">
-        <f aca="false">IF(R28="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(R28="Nie",0,V28)</f>
+        <v>15</v>
       </c>
       <c r="AO28" s="7" t="n">
         <f aca="false">IF(AH28&gt;5,Z28*0.2*(AH28-5)+Z28,Z28)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AP28" s="7" t="n">
         <f aca="false">IF(AI28&gt;5,AA28*0.2*(AI28-5)+AA28,AA28)</f>
@@ -5908,19 +5931,19 @@
       </c>
       <c r="AT28" s="7" t="n">
         <f aca="false">IF(AM28&gt;5,AE28*0.2*(AM28-5)+AE28,AE28)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AU28" s="7" t="n">
         <f aca="false">IF(AN28&gt;5,AF28*0.2*(AN28-5)+AF28,AF28)</f>
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="AV28" s="7" t="n">
         <f aca="false">SUM(AO28:AU28)+Y28</f>
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="AW28" s="7" t="n">
         <f aca="false">IF(S28="Roczna",AV28*12*0.95,AV28)</f>
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="AX28" s="7" t="s">
         <v>44</v>
@@ -6013,68 +6036,68 @@
         <v>5</v>
       </c>
       <c r="AA29" s="7" t="n">
-        <f aca="false">IF(M29="TAK",Arkusz3!$B$19*J29,0)</f>
-        <v>5</v>
+        <f aca="false">IF(M29="TAK",Arkusz3!$B$20*J29,0)</f>
+        <v>10</v>
       </c>
       <c r="AB29" s="7" t="n">
-        <f aca="false">IF(N29="TAK",Arkusz3!$B$19*J29,0)</f>
+        <f aca="false">IF(N29="TAK",Arkusz3!$B$21*J29,0)</f>
         <v>0</v>
       </c>
       <c r="AC29" s="7" t="n">
-        <f aca="false">IF(O29="TAK",Arkusz3!$B$19*J29,0)</f>
+        <f aca="false">IF(O29="TAK",Arkusz3!$B$22*J29,0)</f>
         <v>0</v>
       </c>
       <c r="AD29" s="7" t="n">
-        <f aca="false">IF(P29="TAK",Arkusz3!$B$19*J29,0)</f>
-        <v>5</v>
+        <f aca="false">IF(P29="TAK",Arkusz3!$B$23*J29,0)</f>
+        <v>12</v>
       </c>
       <c r="AE29" s="7" t="n">
-        <f aca="false">IF(Q29="TAK",Arkusz3!$B$19*J29,0)</f>
+        <f aca="false">IF(Q29="TAK",Arkusz3!$B$24*J29,0)</f>
         <v>5</v>
       </c>
       <c r="AF29" s="7" t="n">
-        <f aca="false">IF(R29="TAK",Arkusz3!$B$19*J29,0)</f>
-        <v>5</v>
+        <f aca="false">IF(R29="TAK",Arkusz3!$B$25*J29,0)</f>
+        <v>12</v>
       </c>
       <c r="AG29" s="7" t="n">
         <f aca="false">SUM(Z29:AF29)</f>
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="AH29" s="7" t="n">
-        <f aca="false">IF(L29="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(L29="Nie",0,V29)</f>
+        <v>10</v>
       </c>
       <c r="AI29" s="7" t="n">
-        <f aca="false">IF(M29="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(M29="Nie",0,V29)</f>
+        <v>10</v>
       </c>
       <c r="AJ29" s="7" t="n">
-        <f aca="false">IF(N29="Nie",0,5)</f>
+        <f aca="false">IF(N29="Nie",0,V29)</f>
         <v>0</v>
       </c>
       <c r="AK29" s="7" t="n">
-        <f aca="false">IF(O29="Nie",0,5)</f>
+        <f aca="false">IF(O29="Nie",0,V29)</f>
         <v>0</v>
       </c>
       <c r="AL29" s="7" t="n">
-        <f aca="false">IF(P29="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(P29="Nie",0,V29)</f>
+        <v>10</v>
       </c>
       <c r="AM29" s="7" t="n">
-        <f aca="false">IF(Q29="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(Q29="Nie",0,V29)</f>
+        <v>10</v>
       </c>
       <c r="AN29" s="7" t="n">
-        <f aca="false">IF(R29="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(R29="Nie",0,V29)</f>
+        <v>10</v>
       </c>
       <c r="AO29" s="7" t="n">
         <f aca="false">IF(AH29&gt;5,Z29*0.2*(AH29-5)+Z29,Z29)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AP29" s="7" t="n">
         <f aca="false">IF(AI29&gt;5,AA29*0.2*(AI29-5)+AA29,AA29)</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AQ29" s="7" t="n">
         <f aca="false">IF(AJ29&gt;5,AB29*0.2*(AJ29-5)+AB29,AB29)</f>
@@ -6086,23 +6109,23 @@
       </c>
       <c r="AS29" s="7" t="n">
         <f aca="false">IF(AL29&gt;5,AD29*0.2*(AL29-5)+AD29,AD29)</f>
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="AT29" s="7" t="n">
         <f aca="false">IF(AM29&gt;5,AE29*0.2*(AM29-5)+AE29,AE29)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AU29" s="7" t="n">
         <f aca="false">IF(AN29&gt;5,AF29*0.2*(AN29-5)+AF29,AF29)</f>
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="AV29" s="7" t="n">
         <f aca="false">SUM(AO29:AU29)+Y29</f>
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="AW29" s="7" t="n">
         <f aca="false">IF(S29="Roczna",AV29*12*0.95,AV29)</f>
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="AX29" s="7" t="s">
         <v>44</v>
@@ -6195,60 +6218,60 @@
         <v>0</v>
       </c>
       <c r="AA30" s="7" t="n">
-        <f aca="false">IF(M30="TAK",Arkusz3!$B$19*J30,0)</f>
+        <f aca="false">IF(M30="TAK",Arkusz3!$B$20*J30,0)</f>
         <v>0</v>
       </c>
       <c r="AB30" s="7" t="n">
-        <f aca="false">IF(N30="TAK",Arkusz3!$B$19*J30,0)</f>
+        <f aca="false">IF(N30="TAK",Arkusz3!$B$21*J30,0)</f>
         <v>0</v>
       </c>
       <c r="AC30" s="7" t="n">
-        <f aca="false">IF(O30="TAK",Arkusz3!$B$19*J30,0)</f>
-        <v>10</v>
+        <f aca="false">IF(O30="TAK",Arkusz3!$B$22*J30,0)</f>
+        <v>20</v>
       </c>
       <c r="AD30" s="7" t="n">
-        <f aca="false">IF(P30="TAK",Arkusz3!$B$19*J30,0)</f>
+        <f aca="false">IF(P30="TAK",Arkusz3!$B$23*J30,0)</f>
         <v>0</v>
       </c>
       <c r="AE30" s="7" t="n">
-        <f aca="false">IF(Q30="TAK",Arkusz3!$B$19*J30,0)</f>
+        <f aca="false">IF(Q30="TAK",Arkusz3!$B$24*J30,0)</f>
         <v>0</v>
       </c>
       <c r="AF30" s="7" t="n">
-        <f aca="false">IF(R30="TAK",Arkusz3!$B$19*J30,0)</f>
-        <v>10</v>
+        <f aca="false">IF(R30="TAK",Arkusz3!$B$25*J30,0)</f>
+        <v>24</v>
       </c>
       <c r="AG30" s="7" t="n">
         <f aca="false">SUM(Z30:AF30)</f>
+        <v>44</v>
+      </c>
+      <c r="AH30" s="7" t="n">
+        <f aca="false">IF(L30="Nie",0,V30)</f>
+        <v>0</v>
+      </c>
+      <c r="AI30" s="7" t="n">
+        <f aca="false">IF(M30="Nie",0,V30)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="7" t="n">
+        <f aca="false">IF(N30="Nie",0,V30)</f>
+        <v>0</v>
+      </c>
+      <c r="AK30" s="7" t="n">
+        <f aca="false">IF(O30="Nie",0,V30)</f>
         <v>20</v>
       </c>
-      <c r="AH30" s="7" t="n">
-        <f aca="false">IF(L30="Nie",0,5)</f>
-        <v>0</v>
-      </c>
-      <c r="AI30" s="7" t="n">
-        <f aca="false">IF(M30="Nie",0,5)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ30" s="7" t="n">
-        <f aca="false">IF(N30="Nie",0,5)</f>
-        <v>0</v>
-      </c>
-      <c r="AK30" s="7" t="n">
-        <f aca="false">IF(O30="Nie",0,5)</f>
-        <v>5</v>
-      </c>
       <c r="AL30" s="7" t="n">
-        <f aca="false">IF(P30="Nie",0,5)</f>
+        <f aca="false">IF(P30="Nie",0,V30)</f>
         <v>0</v>
       </c>
       <c r="AM30" s="7" t="n">
-        <f aca="false">IF(Q30="Nie",0,5)</f>
+        <f aca="false">IF(Q30="Nie",0,V30)</f>
         <v>0</v>
       </c>
       <c r="AN30" s="7" t="n">
-        <f aca="false">IF(R30="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(R30="Nie",0,V30)</f>
+        <v>20</v>
       </c>
       <c r="AO30" s="7" t="n">
         <f aca="false">IF(AH30&gt;5,Z30*0.2*(AH30-5)+Z30,Z30)</f>
@@ -6264,7 +6287,7 @@
       </c>
       <c r="AR30" s="7" t="n">
         <f aca="false">IF(AK30&gt;5,AC30*0.2*(AK30-5)+AC30,AC30)</f>
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="AS30" s="7" t="n">
         <f aca="false">IF(AL30&gt;5,AD30*0.2*(AL30-5)+AD30,AD30)</f>
@@ -6276,15 +6299,15 @@
       </c>
       <c r="AU30" s="7" t="n">
         <f aca="false">IF(AN30&gt;5,AF30*0.2*(AN30-5)+AF30,AF30)</f>
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="AV30" s="7" t="n">
         <f aca="false">SUM(AO30:AU30)+Y30</f>
-        <v>404.5</v>
+        <v>560.5</v>
       </c>
       <c r="AW30" s="7" t="n">
         <f aca="false">IF(S30="Roczna",AV30*12*0.95,AV30)</f>
-        <v>404.5</v>
+        <v>560.5</v>
       </c>
       <c r="AX30" s="7" t="s">
         <v>44</v>
@@ -6377,61 +6400,64 @@
         <v>5</v>
       </c>
       <c r="AA31" s="7" t="n">
-        <f aca="false">IF(M31="TAK",Arkusz3!$B$19*J31,0)</f>
+        <f aca="false">IF(M31="TAK",Arkusz3!$B$20*J31,0)</f>
         <v>0</v>
       </c>
       <c r="AB31" s="7" t="n">
-        <f aca="false">IF(N31="TAK",Arkusz3!$B$19*J31,0)</f>
+        <f aca="false">IF(N31="TAK",Arkusz3!$B$21*J31,0)</f>
         <v>0</v>
       </c>
       <c r="AC31" s="7" t="n">
-        <f aca="false">IF(O31="TAK",Arkusz3!$B$19*J31,0)</f>
+        <f aca="false">IF(O31="TAK",Arkusz3!$B$22*J31,0)</f>
         <v>0</v>
       </c>
       <c r="AD31" s="7" t="n">
-        <f aca="false">IF(P31="TAK",Arkusz3!$B$19*J31,0)</f>
+        <f aca="false">IF(P31="TAK",Arkusz3!$B$23*J31,0)</f>
         <v>0</v>
       </c>
       <c r="AE31" s="7" t="n">
-        <f aca="false">IF(Q31="TAK",Arkusz3!$B$19*J31,0)</f>
+        <f aca="false">IF(Q31="TAK",Arkusz3!$B$24*J31,0)</f>
         <v>5</v>
       </c>
       <c r="AF31" s="7" t="n">
-        <f aca="false">IF(R31="TAK",Arkusz3!$B$19*J31,0)</f>
-        <v>5</v>
+        <f aca="false">IF(R31="TAK",Arkusz3!$B$25*J31,0)</f>
+        <v>12</v>
       </c>
       <c r="AG31" s="7" t="n">
         <f aca="false">SUM(Z31:AF31)</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AH31" s="7" t="n">
-        <v>10</v>
+        <f aca="false">IF(L31="Nie",0,V31)</f>
+        <v>7</v>
       </c>
       <c r="AI31" s="7" t="n">
-        <f aca="false">IF(M31="Nie",0,5)</f>
+        <f aca="false">IF(M31="Nie",0,V31)</f>
         <v>0</v>
       </c>
       <c r="AJ31" s="7" t="n">
-        <f aca="false">IF(N31="Nie",0,5)</f>
+        <f aca="false">IF(N31="Nie",0,V31)</f>
         <v>0</v>
       </c>
       <c r="AK31" s="7" t="n">
-        <f aca="false">IF(O31="Nie",0,5)</f>
+        <f aca="false">IF(O31="Nie",0,V31)</f>
         <v>0</v>
       </c>
       <c r="AL31" s="7" t="n">
-        <f aca="false">IF(P31="Nie",0,5)</f>
+        <f aca="false">IF(P31="Nie",0,V31)</f>
         <v>0</v>
       </c>
       <c r="AM31" s="7" t="n">
-        <v>10</v>
+        <f aca="false">IF(Q31="Nie",0,V31)</f>
+        <v>7</v>
       </c>
       <c r="AN31" s="7" t="n">
-        <v>10</v>
+        <f aca="false">IF(R31="Nie",0,V31)</f>
+        <v>7</v>
       </c>
       <c r="AO31" s="7" t="n">
         <f aca="false">IF(AH31&gt;5,Z31*0.2*(AH31-5)+Z31,Z31)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AP31" s="7" t="n">
         <f aca="false">IF(AI31&gt;5,AA31*0.2*(AI31-5)+AA31,AA31)</f>
@@ -6451,19 +6477,19 @@
       </c>
       <c r="AT31" s="7" t="n">
         <f aca="false">IF(AM31&gt;5,AE31*0.2*(AM31-5)+AE31,AE31)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AU31" s="7" t="n">
         <f aca="false">IF(AN31&gt;5,AF31*0.2*(AN31-5)+AF31,AF31)</f>
-        <v>10</v>
+        <v>16.8</v>
       </c>
       <c r="AV31" s="7" t="n">
         <f aca="false">SUM(AO31:AU31)+Y31</f>
-        <v>70</v>
+        <v>70.8</v>
       </c>
       <c r="AW31" s="7" t="n">
         <f aca="false">IF(S31="Roczna",AV31*12*0.95,AV31)</f>
-        <v>70</v>
+        <v>70.8</v>
       </c>
       <c r="AX31" s="7" t="s">
         <v>49</v>
@@ -6556,60 +6582,60 @@
         <v>0</v>
       </c>
       <c r="AA32" s="7" t="n">
-        <f aca="false">IF(M32="TAK",Arkusz3!$B$19*J32,0)</f>
+        <f aca="false">IF(M32="TAK",Arkusz3!$B$20*J32,0)</f>
         <v>0</v>
       </c>
       <c r="AB32" s="7" t="n">
-        <f aca="false">IF(N32="TAK",Arkusz3!$B$19*J32,0)</f>
+        <f aca="false">IF(N32="TAK",Arkusz3!$B$21*J32,0)</f>
         <v>0</v>
       </c>
       <c r="AC32" s="7" t="n">
-        <f aca="false">IF(O32="TAK",Arkusz3!$B$19*J32,0)</f>
-        <v>5</v>
+        <f aca="false">IF(O32="TAK",Arkusz3!$B$22*J32,0)</f>
+        <v>10</v>
       </c>
       <c r="AD32" s="7" t="n">
-        <f aca="false">IF(P32="TAK",Arkusz3!$B$19*J32,0)</f>
+        <f aca="false">IF(P32="TAK",Arkusz3!$B$23*J32,0)</f>
         <v>0</v>
       </c>
       <c r="AE32" s="7" t="n">
-        <f aca="false">IF(Q32="TAK",Arkusz3!$B$19*J32,0)</f>
+        <f aca="false">IF(Q32="TAK",Arkusz3!$B$24*J32,0)</f>
         <v>0</v>
       </c>
       <c r="AF32" s="7" t="n">
-        <f aca="false">IF(R32="TAK",Arkusz3!$B$19*J32,0)</f>
-        <v>5</v>
+        <f aca="false">IF(R32="TAK",Arkusz3!$B$25*J32,0)</f>
+        <v>12</v>
       </c>
       <c r="AG32" s="7" t="n">
         <f aca="false">SUM(Z32:AF32)</f>
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AH32" s="7" t="n">
-        <f aca="false">IF(L32="Nie",0,5)</f>
+        <f aca="false">IF(L32="Nie",0,V32)</f>
         <v>0</v>
       </c>
       <c r="AI32" s="7" t="n">
-        <f aca="false">IF(M32="Nie",0,5)</f>
+        <f aca="false">IF(M32="Nie",0,V32)</f>
         <v>0</v>
       </c>
       <c r="AJ32" s="7" t="n">
-        <f aca="false">IF(N32="Nie",0,5)</f>
+        <f aca="false">IF(N32="Nie",0,V32)</f>
         <v>0</v>
       </c>
       <c r="AK32" s="7" t="n">
-        <f aca="false">IF(O32="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(O32="Nie",0,V32)</f>
+        <v>10</v>
       </c>
       <c r="AL32" s="7" t="n">
-        <f aca="false">IF(P32="Nie",0,5)</f>
+        <f aca="false">IF(P32="Nie",0,V32)</f>
         <v>0</v>
       </c>
       <c r="AM32" s="7" t="n">
-        <f aca="false">IF(Q32="Nie",0,5)</f>
+        <f aca="false">IF(Q32="Nie",0,V32)</f>
         <v>0</v>
       </c>
       <c r="AN32" s="7" t="n">
-        <f aca="false">IF(R32="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(R32="Nie",0,V32)</f>
+        <v>10</v>
       </c>
       <c r="AO32" s="7" t="n">
         <f aca="false">IF(AH32&gt;5,Z32*0.2*(AH32-5)+Z32,Z32)</f>
@@ -6625,7 +6651,7 @@
       </c>
       <c r="AR32" s="7" t="n">
         <f aca="false">IF(AK32&gt;5,AC32*0.2*(AK32-5)+AC32,AC32)</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AS32" s="7" t="n">
         <f aca="false">IF(AL32&gt;5,AD32*0.2*(AL32-5)+AD32,AD32)</f>
@@ -6637,15 +6663,15 @@
       </c>
       <c r="AU32" s="7" t="n">
         <f aca="false">IF(AN32&gt;5,AF32*0.2*(AN32-5)+AF32,AF32)</f>
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="AV32" s="7" t="n">
         <f aca="false">SUM(AO32:AU32)+Y32</f>
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="AW32" s="7" t="n">
         <f aca="false">IF(S32="Roczna",AV32*12*0.95,AV32)</f>
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="AX32" s="7" t="s">
         <v>57</v>
@@ -6738,60 +6764,60 @@
         <v>0</v>
       </c>
       <c r="AA33" s="7" t="n">
-        <f aca="false">IF(M33="TAK",Arkusz3!$B$19*J33,0)</f>
-        <v>10</v>
+        <f aca="false">IF(M33="TAK",Arkusz3!$B$20*J33,0)</f>
+        <v>20</v>
       </c>
       <c r="AB33" s="7" t="n">
-        <f aca="false">IF(N33="TAK",Arkusz3!$B$19*J33,0)</f>
+        <f aca="false">IF(N33="TAK",Arkusz3!$B$21*J33,0)</f>
         <v>0</v>
       </c>
       <c r="AC33" s="7" t="n">
-        <f aca="false">IF(O33="TAK",Arkusz3!$B$19*J33,0)</f>
+        <f aca="false">IF(O33="TAK",Arkusz3!$B$22*J33,0)</f>
         <v>0</v>
       </c>
       <c r="AD33" s="7" t="n">
-        <f aca="false">IF(P33="TAK",Arkusz3!$B$19*J33,0)</f>
+        <f aca="false">IF(P33="TAK",Arkusz3!$B$23*J33,0)</f>
         <v>0</v>
       </c>
       <c r="AE33" s="7" t="n">
-        <f aca="false">IF(Q33="TAK",Arkusz3!$B$19*J33,0)</f>
+        <f aca="false">IF(Q33="TAK",Arkusz3!$B$24*J33,0)</f>
         <v>10</v>
       </c>
       <c r="AF33" s="7" t="n">
-        <f aca="false">IF(R33="TAK",Arkusz3!$B$19*J33,0)</f>
-        <v>10</v>
+        <f aca="false">IF(R33="TAK",Arkusz3!$B$25*J33,0)</f>
+        <v>24</v>
       </c>
       <c r="AG33" s="7" t="n">
         <f aca="false">SUM(Z33:AF33)</f>
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="AH33" s="7" t="n">
-        <f aca="false">IF(L33="Nie",0,5)</f>
+        <f aca="false">IF(L33="Nie",0,V33)</f>
         <v>0</v>
       </c>
       <c r="AI33" s="7" t="n">
-        <f aca="false">IF(M33="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(M33="Nie",0,V33)</f>
+        <v>10</v>
       </c>
       <c r="AJ33" s="7" t="n">
-        <f aca="false">IF(N33="Nie",0,5)</f>
+        <f aca="false">IF(N33="Nie",0,V33)</f>
         <v>0</v>
       </c>
       <c r="AK33" s="7" t="n">
-        <f aca="false">IF(O33="Nie",0,5)</f>
+        <f aca="false">IF(O33="Nie",0,V33)</f>
         <v>0</v>
       </c>
       <c r="AL33" s="7" t="n">
-        <f aca="false">IF(P33="Nie",0,5)</f>
+        <f aca="false">IF(P33="Nie",0,V33)</f>
         <v>0</v>
       </c>
       <c r="AM33" s="7" t="n">
-        <f aca="false">IF(Q33="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(Q33="Nie",0,V33)</f>
+        <v>10</v>
       </c>
       <c r="AN33" s="7" t="n">
-        <f aca="false">IF(R33="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(R33="Nie",0,V33)</f>
+        <v>10</v>
       </c>
       <c r="AO33" s="7" t="n">
         <f aca="false">IF(AH33&gt;5,Z33*0.2*(AH33-5)+Z33,Z33)</f>
@@ -6799,7 +6825,7 @@
       </c>
       <c r="AP33" s="7" t="n">
         <f aca="false">IF(AI33&gt;5,AA33*0.2*(AI33-5)+AA33,AA33)</f>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AQ33" s="7" t="n">
         <f aca="false">IF(AJ33&gt;5,AB33*0.2*(AJ33-5)+AB33,AB33)</f>
@@ -6815,19 +6841,19 @@
       </c>
       <c r="AT33" s="7" t="n">
         <f aca="false">IF(AM33&gt;5,AE33*0.2*(AM33-5)+AE33,AE33)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AU33" s="7" t="n">
         <f aca="false">IF(AN33&gt;5,AF33*0.2*(AN33-5)+AF33,AF33)</f>
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="AV33" s="7" t="n">
         <f aca="false">SUM(AO33:AU33)+Y33</f>
-        <v>164.5</v>
+        <v>242.5</v>
       </c>
       <c r="AW33" s="7" t="n">
         <f aca="false">IF(S33="Roczna",AV33*12*0.95,AV33)</f>
-        <v>164.5</v>
+        <v>242.5</v>
       </c>
       <c r="AX33" s="7" t="s">
         <v>49</v>
@@ -6920,59 +6946,59 @@
         <v>0</v>
       </c>
       <c r="AA34" s="7" t="n">
-        <f aca="false">IF(M34="TAK",Arkusz3!$B$19*J34,0)</f>
-        <v>5</v>
+        <f aca="false">IF(M34="TAK",Arkusz3!$B$20*J34,0)</f>
+        <v>10</v>
       </c>
       <c r="AB34" s="7" t="n">
-        <f aca="false">IF(N34="TAK",Arkusz3!$B$19*J34,0)</f>
-        <v>5</v>
+        <f aca="false">IF(N34="TAK",Arkusz3!$B$21*J34,0)</f>
+        <v>8</v>
       </c>
       <c r="AC34" s="7" t="n">
-        <f aca="false">IF(O34="TAK",Arkusz3!$B$19*J34,0)</f>
+        <f aca="false">IF(O34="TAK",Arkusz3!$B$22*J34,0)</f>
         <v>0</v>
       </c>
       <c r="AD34" s="7" t="n">
-        <f aca="false">IF(P34="TAK",Arkusz3!$B$19*J34,0)</f>
-        <v>5</v>
+        <f aca="false">IF(P34="TAK",Arkusz3!$B$23*J34,0)</f>
+        <v>12</v>
       </c>
       <c r="AE34" s="7" t="n">
-        <f aca="false">IF(Q34="TAK",Arkusz3!$B$19*J34,0)</f>
+        <f aca="false">IF(Q34="TAK",Arkusz3!$B$24*J34,0)</f>
         <v>0</v>
       </c>
       <c r="AF34" s="7" t="n">
-        <f aca="false">IF(R34="TAK",Arkusz3!$B$19*J34,0)</f>
+        <f aca="false">IF(R34="TAK",Arkusz3!$B$25*J34,0)</f>
         <v>0</v>
       </c>
       <c r="AG34" s="7" t="n">
         <f aca="false">SUM(Z34:AF34)</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AH34" s="7" t="n">
-        <f aca="false">IF(L34="Nie",0,5)</f>
+        <f aca="false">IF(L34="Nie",0,V34)</f>
         <v>0</v>
       </c>
       <c r="AI34" s="7" t="n">
-        <f aca="false">IF(M34="Nie",0,5)</f>
+        <f aca="false">IF(M34="Nie",0,V34)</f>
         <v>5</v>
       </c>
       <c r="AJ34" s="7" t="n">
-        <f aca="false">IF(N34="Nie",0,5)</f>
+        <f aca="false">IF(N34="Nie",0,V34)</f>
         <v>5</v>
       </c>
       <c r="AK34" s="7" t="n">
-        <f aca="false">IF(O34="Nie",0,5)</f>
+        <f aca="false">IF(O34="Nie",0,V34)</f>
         <v>0</v>
       </c>
       <c r="AL34" s="7" t="n">
-        <f aca="false">IF(P34="Nie",0,5)</f>
+        <f aca="false">IF(P34="Nie",0,V34)</f>
         <v>5</v>
       </c>
       <c r="AM34" s="7" t="n">
-        <f aca="false">IF(Q34="Nie",0,5)</f>
+        <f aca="false">IF(Q34="Nie",0,V34)</f>
         <v>0</v>
       </c>
       <c r="AN34" s="7" t="n">
-        <f aca="false">IF(R34="Nie",0,5)</f>
+        <f aca="false">IF(R34="Nie",0,V34)</f>
         <v>0</v>
       </c>
       <c r="AO34" s="7" t="n">
@@ -6981,11 +7007,11 @@
       </c>
       <c r="AP34" s="7" t="n">
         <f aca="false">IF(AI34&gt;5,AA34*0.2*(AI34-5)+AA34,AA34)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AQ34" s="7" t="n">
         <f aca="false">IF(AJ34&gt;5,AB34*0.2*(AJ34-5)+AB34,AB34)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AR34" s="7" t="n">
         <f aca="false">IF(AK34&gt;5,AC34*0.2*(AK34-5)+AC34,AC34)</f>
@@ -6993,7 +7019,7 @@
       </c>
       <c r="AS34" s="7" t="n">
         <f aca="false">IF(AL34&gt;5,AD34*0.2*(AL34-5)+AD34,AD34)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AT34" s="7" t="n">
         <f aca="false">IF(AM34&gt;5,AE34*0.2*(AM34-5)+AE34,AE34)</f>
@@ -7005,11 +7031,11 @@
       </c>
       <c r="AV34" s="7" t="n">
         <f aca="false">SUM(AO34:AU34)+Y34</f>
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AW34" s="7" t="n">
         <f aca="false">IF(S34="Roczna",AV34*12*0.95,AV34)</f>
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AX34" s="7" t="s">
         <v>49</v>
@@ -7102,60 +7128,60 @@
         <v>0</v>
       </c>
       <c r="AA35" s="7" t="n">
-        <f aca="false">IF(M35="TAK",Arkusz3!$B$19*J35,0)</f>
-        <v>5</v>
+        <f aca="false">IF(M35="TAK",Arkusz3!$B$20*J35,0)</f>
+        <v>10</v>
       </c>
       <c r="AB35" s="7" t="n">
-        <f aca="false">IF(N35="TAK",Arkusz3!$B$19*J35,0)</f>
+        <f aca="false">IF(N35="TAK",Arkusz3!$B$21*J35,0)</f>
         <v>0</v>
       </c>
       <c r="AC35" s="7" t="n">
-        <f aca="false">IF(O35="TAK",Arkusz3!$B$19*J35,0)</f>
+        <f aca="false">IF(O35="TAK",Arkusz3!$B$22*J35,0)</f>
         <v>0</v>
       </c>
       <c r="AD35" s="7" t="n">
-        <f aca="false">IF(P35="TAK",Arkusz3!$B$19*J35,0)</f>
+        <f aca="false">IF(P35="TAK",Arkusz3!$B$23*J35,0)</f>
         <v>0</v>
       </c>
       <c r="AE35" s="7" t="n">
-        <f aca="false">IF(Q35="TAK",Arkusz3!$B$19*J35,0)</f>
+        <f aca="false">IF(Q35="TAK",Arkusz3!$B$24*J35,0)</f>
         <v>5</v>
       </c>
       <c r="AF35" s="7" t="n">
-        <f aca="false">IF(R35="TAK",Arkusz3!$B$19*J35,0)</f>
-        <v>5</v>
+        <f aca="false">IF(R35="TAK",Arkusz3!$B$25*J35,0)</f>
+        <v>12</v>
       </c>
       <c r="AG35" s="7" t="n">
         <f aca="false">SUM(Z35:AF35)</f>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AH35" s="7" t="n">
-        <f aca="false">IF(L35="Nie",0,5)</f>
+        <f aca="false">IF(L35="Nie",0,V35)</f>
         <v>0</v>
       </c>
       <c r="AI35" s="7" t="n">
-        <f aca="false">IF(M35="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(M35="Nie",0,V35)</f>
+        <v>10</v>
       </c>
       <c r="AJ35" s="7" t="n">
-        <f aca="false">IF(N35="Nie",0,5)</f>
+        <f aca="false">IF(N35="Nie",0,V35)</f>
         <v>0</v>
       </c>
       <c r="AK35" s="7" t="n">
-        <f aca="false">IF(O35="Nie",0,5)</f>
+        <f aca="false">IF(O35="Nie",0,V35)</f>
         <v>0</v>
       </c>
       <c r="AL35" s="7" t="n">
-        <f aca="false">IF(P35="Nie",0,5)</f>
+        <f aca="false">IF(P35="Nie",0,V35)</f>
         <v>0</v>
       </c>
       <c r="AM35" s="7" t="n">
-        <f aca="false">IF(Q35="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(Q35="Nie",0,V35)</f>
+        <v>10</v>
       </c>
       <c r="AN35" s="7" t="n">
-        <f aca="false">IF(R35="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(R35="Nie",0,V35)</f>
+        <v>10</v>
       </c>
       <c r="AO35" s="7" t="n">
         <f aca="false">IF(AH35&gt;5,Z35*0.2*(AH35-5)+Z35,Z35)</f>
@@ -7163,7 +7189,7 @@
       </c>
       <c r="AP35" s="7" t="n">
         <f aca="false">IF(AI35&gt;5,AA35*0.2*(AI35-5)+AA35,AA35)</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AQ35" s="7" t="n">
         <f aca="false">IF(AJ35&gt;5,AB35*0.2*(AJ35-5)+AB35,AB35)</f>
@@ -7179,19 +7205,19 @@
       </c>
       <c r="AT35" s="7" t="n">
         <f aca="false">IF(AM35&gt;5,AE35*0.2*(AM35-5)+AE35,AE35)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AU35" s="7" t="n">
         <f aca="false">IF(AN35&gt;5,AF35*0.2*(AN35-5)+AF35,AF35)</f>
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="AV35" s="7" t="n">
         <f aca="false">SUM(AO35:AU35)+Y35</f>
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="AW35" s="7" t="n">
         <f aca="false">IF(S35="Roczna",AV35*12*0.95,AV35)</f>
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="AX35" s="7" t="s">
         <v>44</v>
@@ -7284,59 +7310,59 @@
         <v>0</v>
       </c>
       <c r="AA36" s="7" t="n">
-        <f aca="false">IF(M36="TAK",Arkusz3!$B$19*J36,0)</f>
-        <v>10</v>
+        <f aca="false">IF(M36="TAK",Arkusz3!$B$20*J36,0)</f>
+        <v>20</v>
       </c>
       <c r="AB36" s="7" t="n">
-        <f aca="false">IF(N36="TAK",Arkusz3!$B$19*J36,0)</f>
-        <v>10</v>
+        <f aca="false">IF(N36="TAK",Arkusz3!$B$21*J36,0)</f>
+        <v>16</v>
       </c>
       <c r="AC36" s="7" t="n">
-        <f aca="false">IF(O36="TAK",Arkusz3!$B$19*J36,0)</f>
+        <f aca="false">IF(O36="TAK",Arkusz3!$B$22*J36,0)</f>
         <v>0</v>
       </c>
       <c r="AD36" s="7" t="n">
-        <f aca="false">IF(P36="TAK",Arkusz3!$B$19*J36,0)</f>
-        <v>10</v>
+        <f aca="false">IF(P36="TAK",Arkusz3!$B$23*J36,0)</f>
+        <v>24</v>
       </c>
       <c r="AE36" s="7" t="n">
-        <f aca="false">IF(Q36="TAK",Arkusz3!$B$19*J36,0)</f>
+        <f aca="false">IF(Q36="TAK",Arkusz3!$B$24*J36,0)</f>
         <v>0</v>
       </c>
       <c r="AF36" s="7" t="n">
-        <f aca="false">IF(R36="TAK",Arkusz3!$B$19*J36,0)</f>
+        <f aca="false">IF(R36="TAK",Arkusz3!$B$25*J36,0)</f>
         <v>0</v>
       </c>
       <c r="AG36" s="7" t="n">
         <f aca="false">SUM(Z36:AF36)</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AH36" s="7" t="n">
-        <f aca="false">IF(L36="Nie",0,5)</f>
+        <f aca="false">IF(L36="Nie",0,V36)</f>
         <v>0</v>
       </c>
       <c r="AI36" s="7" t="n">
-        <f aca="false">IF(M36="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(M36="Nie",0,V36)</f>
+        <v>10</v>
       </c>
       <c r="AJ36" s="7" t="n">
-        <f aca="false">IF(N36="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(N36="Nie",0,V36)</f>
+        <v>10</v>
       </c>
       <c r="AK36" s="7" t="n">
-        <f aca="false">IF(O36="Nie",0,5)</f>
+        <f aca="false">IF(O36="Nie",0,V36)</f>
         <v>0</v>
       </c>
       <c r="AL36" s="7" t="n">
-        <f aca="false">IF(P36="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(P36="Nie",0,V36)</f>
+        <v>10</v>
       </c>
       <c r="AM36" s="7" t="n">
-        <f aca="false">IF(Q36="Nie",0,5)</f>
+        <f aca="false">IF(Q36="Nie",0,V36)</f>
         <v>0</v>
       </c>
       <c r="AN36" s="7" t="n">
-        <f aca="false">IF(R36="Nie",0,5)</f>
+        <f aca="false">IF(R36="Nie",0,V36)</f>
         <v>0</v>
       </c>
       <c r="AO36" s="7" t="n">
@@ -7345,11 +7371,11 @@
       </c>
       <c r="AP36" s="7" t="n">
         <f aca="false">IF(AI36&gt;5,AA36*0.2*(AI36-5)+AA36,AA36)</f>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AQ36" s="7" t="n">
         <f aca="false">IF(AJ36&gt;5,AB36*0.2*(AJ36-5)+AB36,AB36)</f>
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="AR36" s="7" t="n">
         <f aca="false">IF(AK36&gt;5,AC36*0.2*(AK36-5)+AC36,AC36)</f>
@@ -7357,7 +7383,7 @@
       </c>
       <c r="AS36" s="7" t="n">
         <f aca="false">IF(AL36&gt;5,AD36*0.2*(AL36-5)+AD36,AD36)</f>
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="AT36" s="7" t="n">
         <f aca="false">IF(AM36&gt;5,AE36*0.2*(AM36-5)+AE36,AE36)</f>
@@ -7369,11 +7395,11 @@
       </c>
       <c r="AV36" s="7" t="n">
         <f aca="false">SUM(AO36:AU36)+Y36</f>
-        <v>214.5</v>
+        <v>304.5</v>
       </c>
       <c r="AW36" s="7" t="n">
         <f aca="false">IF(S36="Roczna",AV36*12*0.95,AV36)</f>
-        <v>2445.3</v>
+        <v>3471.3</v>
       </c>
       <c r="AX36" s="7" t="s">
         <v>44</v>
@@ -7466,60 +7492,60 @@
         <v>5</v>
       </c>
       <c r="AA37" s="7" t="n">
-        <f aca="false">IF(M37="TAK",Arkusz3!$B$19*J37,0)</f>
-        <v>5</v>
+        <f aca="false">IF(M37="TAK",Arkusz3!$B$20*J37,0)</f>
+        <v>10</v>
       </c>
       <c r="AB37" s="7" t="n">
-        <f aca="false">IF(N37="TAK",Arkusz3!$B$19*J37,0)</f>
+        <f aca="false">IF(N37="TAK",Arkusz3!$B$21*J37,0)</f>
         <v>0</v>
       </c>
       <c r="AC37" s="7" t="n">
-        <f aca="false">IF(O37="TAK",Arkusz3!$B$19*J37,0)</f>
+        <f aca="false">IF(O37="TAK",Arkusz3!$B$22*J37,0)</f>
         <v>0</v>
       </c>
       <c r="AD37" s="7" t="n">
-        <f aca="false">IF(P37="TAK",Arkusz3!$B$19*J37,0)</f>
+        <f aca="false">IF(P37="TAK",Arkusz3!$B$23*J37,0)</f>
         <v>0</v>
       </c>
       <c r="AE37" s="7" t="n">
-        <f aca="false">IF(Q37="TAK",Arkusz3!$B$19*J37,0)</f>
+        <f aca="false">IF(Q37="TAK",Arkusz3!$B$24*J37,0)</f>
         <v>5</v>
       </c>
       <c r="AF37" s="7" t="n">
-        <f aca="false">IF(R37="TAK",Arkusz3!$B$19*J37,0)</f>
-        <v>5</v>
+        <f aca="false">IF(R37="TAK",Arkusz3!$B$25*J37,0)</f>
+        <v>12</v>
       </c>
       <c r="AG37" s="7" t="n">
         <f aca="false">SUM(Z37:AF37)</f>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="AH37" s="7" t="n">
-        <f aca="false">IF(L37="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(L37="Nie",0,V37)</f>
+        <v>2</v>
       </c>
       <c r="AI37" s="7" t="n">
-        <f aca="false">IF(M37="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(M37="Nie",0,V37)</f>
+        <v>2</v>
       </c>
       <c r="AJ37" s="7" t="n">
-        <f aca="false">IF(N37="Nie",0,5)</f>
+        <f aca="false">IF(N37="Nie",0,V37)</f>
         <v>0</v>
       </c>
       <c r="AK37" s="7" t="n">
-        <f aca="false">IF(O37="Nie",0,5)</f>
+        <f aca="false">IF(O37="Nie",0,V37)</f>
         <v>0</v>
       </c>
       <c r="AL37" s="7" t="n">
-        <f aca="false">IF(P37="Nie",0,5)</f>
+        <f aca="false">IF(P37="Nie",0,V37)</f>
         <v>0</v>
       </c>
       <c r="AM37" s="7" t="n">
-        <f aca="false">IF(Q37="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(Q37="Nie",0,V37)</f>
+        <v>2</v>
       </c>
       <c r="AN37" s="7" t="n">
-        <f aca="false">IF(R37="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(R37="Nie",0,V37)</f>
+        <v>2</v>
       </c>
       <c r="AO37" s="7" t="n">
         <f aca="false">IF(AH37&gt;5,Z37*0.2*(AH37-5)+Z37,Z37)</f>
@@ -7527,7 +7553,7 @@
       </c>
       <c r="AP37" s="7" t="n">
         <f aca="false">IF(AI37&gt;5,AA37*0.2*(AI37-5)+AA37,AA37)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AQ37" s="7" t="n">
         <f aca="false">IF(AJ37&gt;5,AB37*0.2*(AJ37-5)+AB37,AB37)</f>
@@ -7547,15 +7573,15 @@
       </c>
       <c r="AU37" s="7" t="n">
         <f aca="false">IF(AN37&gt;5,AF37*0.2*(AN37-5)+AF37,AF37)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AV37" s="7" t="n">
         <f aca="false">SUM(AO37:AU37)+Y37</f>
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="AW37" s="7" t="n">
         <f aca="false">IF(S37="Roczna",AV37*12*0.95,AV37)</f>
-        <v>684</v>
+        <v>820.8</v>
       </c>
       <c r="AX37" s="7" t="s">
         <v>57</v>
@@ -7648,64 +7674,64 @@
         <v>5</v>
       </c>
       <c r="AA38" s="7" t="n">
-        <f aca="false">IF(M38="TAK",Arkusz3!$B$19*J38,0)</f>
+        <f aca="false">IF(M38="TAK",Arkusz3!$B$20*J38,0)</f>
         <v>0</v>
       </c>
       <c r="AB38" s="7" t="n">
-        <f aca="false">IF(N38="TAK",Arkusz3!$B$19*J38,0)</f>
+        <f aca="false">IF(N38="TAK",Arkusz3!$B$21*J38,0)</f>
         <v>0</v>
       </c>
       <c r="AC38" s="7" t="n">
-        <f aca="false">IF(O38="TAK",Arkusz3!$B$19*J38,0)</f>
+        <f aca="false">IF(O38="TAK",Arkusz3!$B$22*J38,0)</f>
         <v>0</v>
       </c>
       <c r="AD38" s="7" t="n">
-        <f aca="false">IF(P38="TAK",Arkusz3!$B$19*J38,0)</f>
+        <f aca="false">IF(P38="TAK",Arkusz3!$B$23*J38,0)</f>
         <v>0</v>
       </c>
       <c r="AE38" s="7" t="n">
-        <f aca="false">IF(Q38="TAK",Arkusz3!$B$19*J38,0)</f>
+        <f aca="false">IF(Q38="TAK",Arkusz3!$B$24*J38,0)</f>
         <v>5</v>
       </c>
       <c r="AF38" s="7" t="n">
-        <f aca="false">IF(R38="TAK",Arkusz3!$B$19*J38,0)</f>
-        <v>5</v>
+        <f aca="false">IF(R38="TAK",Arkusz3!$B$25*J38,0)</f>
+        <v>12</v>
       </c>
       <c r="AG38" s="7" t="n">
         <f aca="false">SUM(Z38:AF38)</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AH38" s="7" t="n">
-        <f aca="false">IF(L38="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(L38="Nie",0,V38)</f>
+        <v>20</v>
       </c>
       <c r="AI38" s="7" t="n">
-        <f aca="false">IF(M38="Nie",0,5)</f>
+        <f aca="false">IF(M38="Nie",0,V38)</f>
         <v>0</v>
       </c>
       <c r="AJ38" s="7" t="n">
-        <f aca="false">IF(N38="Nie",0,5)</f>
+        <f aca="false">IF(N38="Nie",0,V38)</f>
         <v>0</v>
       </c>
       <c r="AK38" s="7" t="n">
-        <f aca="false">IF(O38="Nie",0,5)</f>
+        <f aca="false">IF(O38="Nie",0,V38)</f>
         <v>0</v>
       </c>
       <c r="AL38" s="7" t="n">
-        <f aca="false">IF(P38="Nie",0,5)</f>
+        <f aca="false">IF(P38="Nie",0,V38)</f>
         <v>0</v>
       </c>
       <c r="AM38" s="7" t="n">
-        <f aca="false">IF(Q38="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(Q38="Nie",0,V38)</f>
+        <v>20</v>
       </c>
       <c r="AN38" s="7" t="n">
-        <f aca="false">IF(R38="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(R38="Nie",0,V38)</f>
+        <v>20</v>
       </c>
       <c r="AO38" s="7" t="n">
         <f aca="false">IF(AH38&gt;5,Z38*0.2*(AH38-5)+Z38,Z38)</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AP38" s="7" t="n">
         <f aca="false">IF(AI38&gt;5,AA38*0.2*(AI38-5)+AA38,AA38)</f>
@@ -7725,19 +7751,19 @@
       </c>
       <c r="AT38" s="7" t="n">
         <f aca="false">IF(AM38&gt;5,AE38*0.2*(AM38-5)+AE38,AE38)</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AU38" s="7" t="n">
         <f aca="false">IF(AN38&gt;5,AF38*0.2*(AN38-5)+AF38,AF38)</f>
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="AV38" s="7" t="n">
         <f aca="false">SUM(AO38:AU38)+Y38</f>
-        <v>135</v>
+        <v>208</v>
       </c>
       <c r="AW38" s="7" t="n">
         <f aca="false">IF(S38="Roczna",AV38*12*0.95,AV38)</f>
-        <v>1539</v>
+        <v>2371.2</v>
       </c>
       <c r="AX38" s="7" t="s">
         <v>57</v>
@@ -7830,60 +7856,60 @@
         <v>0</v>
       </c>
       <c r="AA39" s="7" t="n">
-        <f aca="false">IF(M39="TAK",Arkusz3!$B$19*J39,0)</f>
+        <f aca="false">IF(M39="TAK",Arkusz3!$B$20*J39,0)</f>
         <v>0</v>
       </c>
       <c r="AB39" s="7" t="n">
-        <f aca="false">IF(N39="TAK",Arkusz3!$B$19*J39,0)</f>
-        <v>10</v>
+        <f aca="false">IF(N39="TAK",Arkusz3!$B$21*J39,0)</f>
+        <v>16</v>
       </c>
       <c r="AC39" s="7" t="n">
-        <f aca="false">IF(O39="TAK",Arkusz3!$B$19*J39,0)</f>
-        <v>10</v>
+        <f aca="false">IF(O39="TAK",Arkusz3!$B$22*J39,0)</f>
+        <v>20</v>
       </c>
       <c r="AD39" s="7" t="n">
-        <f aca="false">IF(P39="TAK",Arkusz3!$B$19*J39,0)</f>
-        <v>10</v>
+        <f aca="false">IF(P39="TAK",Arkusz3!$B$23*J39,0)</f>
+        <v>24</v>
       </c>
       <c r="AE39" s="7" t="n">
-        <f aca="false">IF(Q39="TAK",Arkusz3!$B$19*J39,0)</f>
+        <f aca="false">IF(Q39="TAK",Arkusz3!$B$24*J39,0)</f>
         <v>10</v>
       </c>
       <c r="AF39" s="7" t="n">
-        <f aca="false">IF(R39="TAK",Arkusz3!$B$19*J39,0)</f>
-        <v>10</v>
+        <f aca="false">IF(R39="TAK",Arkusz3!$B$25*J39,0)</f>
+        <v>24</v>
       </c>
       <c r="AG39" s="7" t="n">
         <f aca="false">SUM(Z39:AF39)</f>
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="AH39" s="7" t="n">
-        <f aca="false">IF(L39="Nie",0,5)</f>
+        <f aca="false">IF(L39="Nie",0,V39)</f>
         <v>0</v>
       </c>
       <c r="AI39" s="7" t="n">
-        <f aca="false">IF(M39="Nie",0,5)</f>
+        <f aca="false">IF(M39="Nie",0,V39)</f>
         <v>0</v>
       </c>
       <c r="AJ39" s="7" t="n">
-        <f aca="false">IF(N39="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(N39="Nie",0,V39)</f>
+        <v>10</v>
       </c>
       <c r="AK39" s="7" t="n">
-        <f aca="false">IF(O39="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(O39="Nie",0,V39)</f>
+        <v>10</v>
       </c>
       <c r="AL39" s="7" t="n">
-        <f aca="false">IF(P39="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(P39="Nie",0,V39)</f>
+        <v>10</v>
       </c>
       <c r="AM39" s="7" t="n">
-        <f aca="false">IF(Q39="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(Q39="Nie",0,V39)</f>
+        <v>10</v>
       </c>
       <c r="AN39" s="7" t="n">
-        <f aca="false">IF(R39="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(R39="Nie",0,V39)</f>
+        <v>10</v>
       </c>
       <c r="AO39" s="7" t="n">
         <f aca="false">IF(AH39&gt;5,Z39*0.2*(AH39-5)+Z39,Z39)</f>
@@ -7895,31 +7921,31 @@
       </c>
       <c r="AQ39" s="7" t="n">
         <f aca="false">IF(AJ39&gt;5,AB39*0.2*(AJ39-5)+AB39,AB39)</f>
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="AR39" s="7" t="n">
         <f aca="false">IF(AK39&gt;5,AC39*0.2*(AK39-5)+AC39,AC39)</f>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AS39" s="7" t="n">
         <f aca="false">IF(AL39&gt;5,AD39*0.2*(AL39-5)+AD39,AD39)</f>
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="AT39" s="7" t="n">
         <f aca="false">IF(AM39&gt;5,AE39*0.2*(AM39-5)+AE39,AE39)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AU39" s="7" t="n">
         <f aca="false">IF(AN39&gt;5,AF39*0.2*(AN39-5)+AF39,AF39)</f>
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="AV39" s="7" t="n">
         <f aca="false">SUM(AO39:AU39)+Y39</f>
-        <v>184.5</v>
+        <v>322.5</v>
       </c>
       <c r="AW39" s="7" t="n">
         <f aca="false">IF(S39="Roczna",AV39*12*0.95,AV39)</f>
-        <v>184.5</v>
+        <v>322.5</v>
       </c>
       <c r="AX39" s="7" t="s">
         <v>44</v>
@@ -8012,60 +8038,60 @@
         <v>0</v>
       </c>
       <c r="AA40" s="7" t="n">
-        <f aca="false">IF(M40="TAK",Arkusz3!$B$19*J40,0)</f>
-        <v>5</v>
+        <f aca="false">IF(M40="TAK",Arkusz3!$B$20*J40,0)</f>
+        <v>10</v>
       </c>
       <c r="AB40" s="7" t="n">
-        <f aca="false">IF(N40="TAK",Arkusz3!$B$19*J40,0)</f>
+        <f aca="false">IF(N40="TAK",Arkusz3!$B$21*J40,0)</f>
         <v>0</v>
       </c>
       <c r="AC40" s="7" t="n">
-        <f aca="false">IF(O40="TAK",Arkusz3!$B$19*J40,0)</f>
+        <f aca="false">IF(O40="TAK",Arkusz3!$B$22*J40,0)</f>
         <v>0</v>
       </c>
       <c r="AD40" s="7" t="n">
-        <f aca="false">IF(P40="TAK",Arkusz3!$B$19*J40,0)</f>
+        <f aca="false">IF(P40="TAK",Arkusz3!$B$23*J40,0)</f>
         <v>0</v>
       </c>
       <c r="AE40" s="7" t="n">
-        <f aca="false">IF(Q40="TAK",Arkusz3!$B$19*J40,0)</f>
+        <f aca="false">IF(Q40="TAK",Arkusz3!$B$24*J40,0)</f>
         <v>5</v>
       </c>
       <c r="AF40" s="7" t="n">
-        <f aca="false">IF(R40="TAK",Arkusz3!$B$19*J40,0)</f>
-        <v>5</v>
+        <f aca="false">IF(R40="TAK",Arkusz3!$B$25*J40,0)</f>
+        <v>12</v>
       </c>
       <c r="AG40" s="7" t="n">
         <f aca="false">SUM(Z40:AF40)</f>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AH40" s="7" t="n">
-        <f aca="false">IF(L40="Nie",0,5)</f>
+        <f aca="false">IF(L40="Nie",0,V40)</f>
         <v>0</v>
       </c>
       <c r="AI40" s="7" t="n">
-        <f aca="false">IF(M40="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(M40="Nie",0,V40)</f>
+        <v>10</v>
       </c>
       <c r="AJ40" s="7" t="n">
-        <f aca="false">IF(N40="Nie",0,5)</f>
+        <f aca="false">IF(N40="Nie",0,V40)</f>
         <v>0</v>
       </c>
       <c r="AK40" s="7" t="n">
-        <f aca="false">IF(O40="Nie",0,5)</f>
+        <f aca="false">IF(O40="Nie",0,V40)</f>
         <v>0</v>
       </c>
       <c r="AL40" s="7" t="n">
-        <f aca="false">IF(P40="Nie",0,5)</f>
+        <f aca="false">IF(P40="Nie",0,V40)</f>
         <v>0</v>
       </c>
       <c r="AM40" s="7" t="n">
-        <f aca="false">IF(Q40="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(Q40="Nie",0,V40)</f>
+        <v>10</v>
       </c>
       <c r="AN40" s="7" t="n">
-        <f aca="false">IF(R40="Nie",0,5)</f>
-        <v>5</v>
+        <f aca="false">IF(R40="Nie",0,V40)</f>
+        <v>10</v>
       </c>
       <c r="AO40" s="7" t="n">
         <f aca="false">IF(AH40&gt;5,Z40*0.2*(AH40-5)+Z40,Z40)</f>
@@ -8073,7 +8099,7 @@
       </c>
       <c r="AP40" s="7" t="n">
         <f aca="false">IF(AI40&gt;5,AA40*0.2*(AI40-5)+AA40,AA40)</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AQ40" s="7" t="n">
         <f aca="false">IF(AJ40&gt;5,AB40*0.2*(AJ40-5)+AB40,AB40)</f>
@@ -8089,19 +8115,19 @@
       </c>
       <c r="AT40" s="7" t="n">
         <f aca="false">IF(AM40&gt;5,AE40*0.2*(AM40-5)+AE40,AE40)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AU40" s="7" t="n">
         <f aca="false">IF(AN40&gt;5,AF40*0.2*(AN40-5)+AF40,AF40)</f>
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="AV40" s="7" t="n">
         <f aca="false">SUM(AO40:AU40)+Y40</f>
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="AW40" s="7" t="n">
         <f aca="false">IF(S40="Roczna",AV40*12*0.95,AV40)</f>
-        <v>1026</v>
+        <v>1470.6</v>
       </c>
       <c r="AX40" s="7" t="s">
         <v>57</v>
@@ -8194,57 +8220,59 @@
         <v>0</v>
       </c>
       <c r="AA41" s="7" t="n">
-        <f aca="false">IF(M41="TAK",Arkusz3!$B$19*J41,0)</f>
-        <v>5</v>
+        <f aca="false">IF(M41="TAK",Arkusz3!$B$20*J41,0)</f>
+        <v>10</v>
       </c>
       <c r="AB41" s="7" t="n">
-        <f aca="false">IF(N41="TAK",Arkusz3!$B$19*J41,0)</f>
+        <f aca="false">IF(N41="TAK",Arkusz3!$B$21*J41,0)</f>
         <v>0</v>
       </c>
       <c r="AC41" s="7" t="n">
-        <f aca="false">IF(O41="TAK",Arkusz3!$B$19*J41,0)</f>
-        <v>5</v>
+        <f aca="false">IF(O41="TAK",Arkusz3!$B$22*J41,0)</f>
+        <v>10</v>
       </c>
       <c r="AD41" s="7" t="n">
-        <f aca="false">IF(P41="TAK",Arkusz3!$B$19*J41,0)</f>
+        <f aca="false">IF(P41="TAK",Arkusz3!$B$23*J41,0)</f>
         <v>0</v>
       </c>
       <c r="AE41" s="7" t="n">
-        <f aca="false">IF(Q41="TAK",Arkusz3!$B$19*J41,0)</f>
+        <f aca="false">IF(Q41="TAK",Arkusz3!$B$24*J41,0)</f>
         <v>5</v>
       </c>
       <c r="AF41" s="7" t="n">
-        <f aca="false">IF(R41="TAK",Arkusz3!$B$19*J41,0)</f>
+        <f aca="false">IF(R41="TAK",Arkusz3!$B$25*J41,0)</f>
         <v>0</v>
       </c>
       <c r="AG41" s="7" t="n">
         <f aca="false">SUM(Z41:AF41)</f>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AH41" s="7" t="n">
-        <f aca="false">IF(L41="Nie",0,5)</f>
+        <f aca="false">IF(L41="Nie",0,V41)</f>
         <v>0</v>
       </c>
       <c r="AI41" s="7" t="n">
-        <f aca="false">IF(M41="Nie",0,5)</f>
+        <f aca="false">IF(M41="Nie",0,V41)</f>
         <v>5</v>
       </c>
       <c r="AJ41" s="7" t="n">
-        <f aca="false">IF(N41="Nie",0,5)</f>
+        <f aca="false">IF(N41="Nie",0,V41)</f>
         <v>0</v>
       </c>
       <c r="AK41" s="7" t="n">
-        <v>10</v>
+        <f aca="false">IF(O41="Nie",0,V41)</f>
+        <v>5</v>
       </c>
       <c r="AL41" s="7" t="n">
-        <f aca="false">IF(P41="Nie",0,5)</f>
+        <f aca="false">IF(P41="Nie",0,V41)</f>
         <v>0</v>
       </c>
       <c r="AM41" s="7" t="n">
-        <v>10</v>
+        <f aca="false">IF(Q41="Nie",0,V41)</f>
+        <v>5</v>
       </c>
       <c r="AN41" s="7" t="n">
-        <f aca="false">IF(R41="Nie",0,5)</f>
+        <f aca="false">IF(R41="Nie",0,V41)</f>
         <v>0</v>
       </c>
       <c r="AO41" s="7" t="n">
@@ -8253,7 +8281,7 @@
       </c>
       <c r="AP41" s="7" t="n">
         <f aca="false">IF(AI41&gt;5,AA41*0.2*(AI41-5)+AA41,AA41)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AQ41" s="7" t="n">
         <f aca="false">IF(AJ41&gt;5,AB41*0.2*(AJ41-5)+AB41,AB41)</f>
@@ -8269,7 +8297,7 @@
       </c>
       <c r="AT41" s="7" t="n">
         <f aca="false">IF(AM41&gt;5,AE41*0.2*(AM41-5)+AE41,AE41)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AU41" s="7" t="n">
         <f aca="false">IF(AN41&gt;5,AF41*0.2*(AN41-5)+AF41,AF41)</f>
@@ -8292,163 +8320,165 @@
         <v>30</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K42" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S42" s="7" t="s">
         <v>48</v>
       </c>
       <c r="T42" s="7" t="n">
         <f aca="false">G42*Arkusz3!$B$13+H42*Arkusz3!$B$14+I42*Arkusz3!$B$15</f>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="U42" s="7" t="n">
         <f aca="false">IF((J42+F42)=1, Arkusz3!$C$5, Arkusz3!$B$5*J42)</f>
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="V42" s="7" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="W42" s="7" t="n">
         <f aca="false">IF(V42&lt;10,T42+U42,0.2*(V42-10)*(T42+U42)+(T42+U42))</f>
-        <v>40</v>
+        <v>525</v>
       </c>
       <c r="X42" s="7" t="n">
         <f aca="false">IF(J42&gt;1,(U42/J42)*(J42-1)*10%,0)</f>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="Y42" s="8" t="n">
         <f aca="false">W42-X42</f>
-        <v>40</v>
+        <v>519.5</v>
       </c>
       <c r="Z42" s="7" t="n">
         <f aca="false">IF(L42="TAK",Arkusz3!$B$19*J42,0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA42" s="7" t="n">
-        <f aca="false">IF(M42="TAK",Arkusz3!$B$19*J42,0)</f>
-        <v>0</v>
+        <f aca="false">IF(M42="TAK",Arkusz3!$B$20*J42,0)</f>
+        <v>20</v>
       </c>
       <c r="AB42" s="7" t="n">
-        <f aca="false">IF(N42="TAK",Arkusz3!$B$19*J42,0)</f>
-        <v>0</v>
+        <f aca="false">IF(N42="TAK",Arkusz3!$B$21*J42,0)</f>
+        <v>16</v>
       </c>
       <c r="AC42" s="7" t="n">
-        <f aca="false">IF(O42="TAK",Arkusz3!$B$19*J42,0)</f>
-        <v>0</v>
+        <f aca="false">IF(O42="TAK",Arkusz3!$B$22*J42,0)</f>
+        <v>20</v>
       </c>
       <c r="AD42" s="7" t="n">
-        <f aca="false">IF(P42="TAK",Arkusz3!$B$19*J42,0)</f>
-        <v>0</v>
+        <f aca="false">IF(P42="TAK",Arkusz3!$B$23*J42,0)</f>
+        <v>24</v>
       </c>
       <c r="AE42" s="7" t="n">
-        <f aca="false">IF(Q42="TAK",Arkusz3!$B$19*J42,0)</f>
-        <v>0</v>
+        <f aca="false">IF(Q42="TAK",Arkusz3!$B$24*J42,0)</f>
+        <v>10</v>
       </c>
       <c r="AF42" s="7" t="n">
-        <f aca="false">IF(R42="TAK",Arkusz3!$B$19*J42,0)</f>
-        <v>0</v>
+        <f aca="false">IF(R42="TAK",Arkusz3!$B$25*J42,0)</f>
+        <v>24</v>
       </c>
       <c r="AG42" s="7" t="n">
         <f aca="false">SUM(Z42:AF42)</f>
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="AH42" s="7" t="n">
-        <f aca="false">IF(L42="Nie",0,5)</f>
-        <v>0</v>
+        <f aca="false">IF(L42="Nie",0,V42)</f>
+        <v>20</v>
       </c>
       <c r="AI42" s="7" t="n">
-        <f aca="false">IF(M42="Nie",0,5)</f>
-        <v>0</v>
+        <f aca="false">IF(M42="Nie",0,V42)</f>
+        <v>20</v>
       </c>
       <c r="AJ42" s="7" t="n">
-        <f aca="false">IF(N42="Nie",0,5)</f>
-        <v>0</v>
+        <f aca="false">IF(N42="Nie",0,V42)</f>
+        <v>20</v>
       </c>
       <c r="AK42" s="7" t="n">
-        <v>0</v>
+        <f aca="false">IF(O42="Nie",0,V42)</f>
+        <v>20</v>
       </c>
       <c r="AL42" s="7" t="n">
-        <f aca="false">IF(P42="Nie",0,5)</f>
-        <v>0</v>
+        <f aca="false">IF(P42="Nie",0,V42)</f>
+        <v>20</v>
       </c>
       <c r="AM42" s="7" t="n">
-        <v>0</v>
+        <f aca="false">IF(Q42="Nie",0,V42)</f>
+        <v>20</v>
       </c>
       <c r="AN42" s="7" t="n">
-        <f aca="false">IF(R42="Nie",0,5)</f>
-        <v>0</v>
+        <f aca="false">IF(R42="Nie",0,V42)</f>
+        <v>20</v>
       </c>
       <c r="AO42" s="7" t="n">
         <f aca="false">IF(AH42&gt;5,Z42*0.2*(AH42-5)+Z42,Z42)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AP42" s="7" t="n">
         <f aca="false">IF(AI42&gt;5,AA42*0.2*(AI42-5)+AA42,AA42)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AQ42" s="7" t="n">
         <f aca="false">IF(AJ42&gt;5,AB42*0.2*(AJ42-5)+AB42,AB42)</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AR42" s="7" t="n">
         <f aca="false">IF(AK42&gt;5,AC42*0.2*(AK42-5)+AC42,AC42)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AS42" s="7" t="n">
         <f aca="false">IF(AL42&gt;5,AD42*0.2*(AL42-5)+AD42,AD42)</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="AT42" s="7" t="n">
         <f aca="false">IF(AM42&gt;5,AE42*0.2*(AM42-5)+AE42,AE42)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AU42" s="7" t="n">
         <f aca="false">IF(AN42&gt;5,AF42*0.2*(AN42-5)+AF42,AF42)</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="AV42" s="7" t="n">
         <f aca="false">SUM(AO42:AU42)+Y42</f>
-        <v>40</v>
-      </c>
-      <c r="AW42" s="7" t="n">
+        <v>1015.5</v>
+      </c>
+      <c r="AW42" s="9" t="n">
         <f aca="false">IF(S42="Roczna",AV42*12*0.95,AV42)</f>
-        <v>456</v>
+        <v>11576.7</v>
       </c>
       <c r="AX42" s="7" t="s">
         <v>57</v>
@@ -9445,14 +9475,14 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17"/>
@@ -9461,68 +9491,68 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="10" t="n">
+      <c r="B1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="11" t="n">
         <v>0.1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="10" t="n">
+      <c r="F1" s="11" t="n">
         <v>0.05</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="11" t="n">
+      <c r="B2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="12" t="n">
         <v>0.2</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7"/>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="13" t="s">
+      <c r="G4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="14" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>131</v>
       </c>
       <c r="B5" s="7" t="n">
@@ -9548,7 +9578,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="G6" s="7" t="s">
@@ -9568,7 +9598,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="G7" s="7" t="s">
@@ -9588,7 +9618,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>141</v>
       </c>
       <c r="B8" s="7" t="n">
@@ -9599,114 +9629,114 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="18" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="19" t="n">
+      <c r="B13" s="20" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="21" t="n">
+      <c r="B14" s="22" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="19" t="n">
+      <c r="B15" s="20" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C19" s="9"/>
+      <c r="B19" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C20" s="9"/>
+      <c r="B20" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="9" t="n">
+      <c r="B21" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="B22" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="9" t="n">
+      <c r="B23" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+      <c r="B24" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="9" t="n">
+      <c r="B25" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="C25" s="9"/>
+      <c r="C25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -10715,97 +10745,97 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="18" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="17.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="29" style="0" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="22" t="s">
+      <c r="F1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="22" t="s">
+      <c r="J1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="S1" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="T1" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="U1" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="V1" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="W1" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="X1" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="Y1" s="22" t="s">
+      <c r="Y1" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="Z1" s="22" t="s">
+      <c r="Z1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="22" t="s">
+      <c r="AA1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="22" t="s">
+      <c r="AB1" s="23" t="s">
         <v>37</v>
       </c>
     </row>
@@ -10888,7 +10918,7 @@
       <c r="Z2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA2" s="23" t="n">
+      <c r="AA2" s="24" t="n">
         <v>404.5</v>
       </c>
       <c r="AB2" s="7" t="s">
@@ -10974,7 +11004,7 @@
       <c r="Z3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA3" s="23" t="n">
+      <c r="AA3" s="24" t="n">
         <v>3539.7</v>
       </c>
       <c r="AB3" s="7" t="s">
@@ -11060,7 +11090,7 @@
       <c r="Z4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA4" s="23" t="n">
+      <c r="AA4" s="24" t="n">
         <v>1197</v>
       </c>
       <c r="AB4" s="7" t="s">
@@ -11146,7 +11176,7 @@
       <c r="Z5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA5" s="23" t="n">
+      <c r="AA5" s="24" t="n">
         <v>264.5</v>
       </c>
       <c r="AB5" s="7" t="s">
@@ -11232,7 +11262,7 @@
       <c r="Z6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA6" s="23" t="n">
+      <c r="AA6" s="24" t="n">
         <v>169</v>
       </c>
       <c r="AB6" s="7" t="s">
@@ -11318,7 +11348,7 @@
       <c r="Z7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA7" s="23" t="n">
+      <c r="AA7" s="24" t="n">
         <v>264.5</v>
       </c>
       <c r="AB7" s="7" t="s">
@@ -11404,7 +11434,7 @@
       <c r="Z8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA8" s="23" t="n">
+      <c r="AA8" s="24" t="n">
         <v>175</v>
       </c>
       <c r="AB8" s="7" t="s">
@@ -11490,7 +11520,7 @@
       <c r="Z9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA9" s="23" t="n">
+      <c r="AA9" s="24" t="n">
         <v>200</v>
       </c>
       <c r="AB9" s="7" t="s">
@@ -11576,7 +11606,7 @@
       <c r="Z10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA10" s="23" t="n">
+      <c r="AA10" s="24" t="n">
         <v>95</v>
       </c>
       <c r="AB10" s="7" t="s">
@@ -11662,7 +11692,7 @@
       <c r="Z11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA11" s="23" t="n">
+      <c r="AA11" s="24" t="n">
         <v>95</v>
       </c>
       <c r="AB11" s="7" t="s">
@@ -11748,7 +11778,7 @@
       <c r="Z12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA12" s="23" t="n">
+      <c r="AA12" s="24" t="n">
         <v>284.5</v>
       </c>
       <c r="AB12" s="7" t="s">
@@ -11834,7 +11864,7 @@
       <c r="Z13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA13" s="23" t="n">
+      <c r="AA13" s="24" t="n">
         <v>244.5</v>
       </c>
       <c r="AB13" s="7" t="s">
@@ -11920,7 +11950,7 @@
       <c r="Z14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA14" s="23" t="n">
+      <c r="AA14" s="24" t="n">
         <v>1083</v>
       </c>
       <c r="AB14" s="7" t="s">
@@ -12006,7 +12036,7 @@
       <c r="Z15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA15" s="23" t="n">
+      <c r="AA15" s="24" t="n">
         <v>496.5</v>
       </c>
       <c r="AB15" s="7" t="s">
@@ -12092,7 +12122,7 @@
       <c r="Z16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA16" s="23" t="n">
+      <c r="AA16" s="24" t="n">
         <v>110</v>
       </c>
       <c r="AB16" s="7" t="s">
@@ -12178,7 +12208,7 @@
       <c r="Z17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA17" s="23" t="n">
+      <c r="AA17" s="24" t="n">
         <v>160</v>
       </c>
       <c r="AB17" s="7" t="s">
@@ -12264,7 +12294,7 @@
       <c r="Z18" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA18" s="23" t="n">
+      <c r="AA18" s="24" t="n">
         <v>3608.1</v>
       </c>
       <c r="AB18" s="7" t="s">
@@ -12350,7 +12380,7 @@
       <c r="Z19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA19" s="23" t="n">
+      <c r="AA19" s="24" t="n">
         <v>2946.9</v>
       </c>
       <c r="AB19" s="7" t="s">
@@ -12436,7 +12466,7 @@
       <c r="Z20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA20" s="23" t="n">
+      <c r="AA20" s="24" t="n">
         <v>374.5</v>
       </c>
       <c r="AB20" s="7" t="s">
@@ -12522,7 +12552,7 @@
       <c r="Z21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA21" s="23" t="n">
+      <c r="AA21" s="24" t="n">
         <v>111</v>
       </c>
       <c r="AB21" s="7" t="s">
@@ -12608,7 +12638,7 @@
       <c r="Z22" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA22" s="23" t="n">
+      <c r="AA22" s="24" t="n">
         <v>264.5</v>
       </c>
       <c r="AB22" s="7" t="s">
@@ -12694,7 +12724,7 @@
       <c r="Z23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA23" s="23" t="n">
+      <c r="AA23" s="24" t="n">
         <v>335</v>
       </c>
       <c r="AB23" s="7" t="s">
@@ -12780,7 +12810,7 @@
       <c r="Z24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA24" s="23" t="n">
+      <c r="AA24" s="24" t="n">
         <v>170</v>
       </c>
       <c r="AB24" s="7" t="s">
@@ -12866,7 +12896,7 @@
       <c r="Z25" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA25" s="23" t="n">
+      <c r="AA25" s="24" t="n">
         <v>150</v>
       </c>
       <c r="AB25" s="7" t="s">
@@ -12952,7 +12982,7 @@
       <c r="Z26" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA26" s="23" t="n">
+      <c r="AA26" s="24" t="n">
         <v>170.5</v>
       </c>
       <c r="AB26" s="7" t="s">
@@ -13038,7 +13068,7 @@
       <c r="Z27" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA27" s="23" t="n">
+      <c r="AA27" s="24" t="n">
         <v>374.5</v>
       </c>
       <c r="AB27" s="7" t="s">
@@ -13124,7 +13154,7 @@
       <c r="Z28" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA28" s="23" t="n">
+      <c r="AA28" s="24" t="n">
         <v>135</v>
       </c>
       <c r="AB28" s="7" t="s">
@@ -13210,7 +13240,7 @@
       <c r="Z29" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA29" s="23" t="n">
+      <c r="AA29" s="24" t="n">
         <v>145</v>
       </c>
       <c r="AB29" s="7" t="s">
@@ -13296,7 +13326,7 @@
       <c r="Z30" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA30" s="23" t="n">
+      <c r="AA30" s="24" t="n">
         <v>534.5</v>
       </c>
       <c r="AB30" s="7" t="s">
@@ -13382,7 +13412,7 @@
       <c r="Z31" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA31" s="23" t="n">
+      <c r="AA31" s="24" t="n">
         <v>86</v>
       </c>
       <c r="AB31" s="7" t="s">
@@ -13468,7 +13498,7 @@
       <c r="Z32" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA32" s="23" t="n">
+      <c r="AA32" s="24" t="n">
         <v>190</v>
       </c>
       <c r="AB32" s="7" t="s">
@@ -13554,7 +13584,7 @@
       <c r="Z33" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA33" s="23" t="n">
+      <c r="AA33" s="24" t="n">
         <v>304.5</v>
       </c>
       <c r="AB33" s="7" t="s">
@@ -13640,7 +13670,7 @@
       <c r="Z34" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA34" s="23" t="n">
+      <c r="AA34" s="24" t="n">
         <v>55</v>
       </c>
       <c r="AB34" s="7" t="s">
@@ -13726,7 +13756,7 @@
       <c r="Z35" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA35" s="23" t="n">
+      <c r="AA35" s="24" t="n">
         <v>215</v>
       </c>
       <c r="AB35" s="7" t="s">
@@ -13812,7 +13842,7 @@
       <c r="Z36" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA36" s="23" t="n">
+      <c r="AA36" s="24" t="n">
         <v>4611.3</v>
       </c>
       <c r="AB36" s="7" t="s">
@@ -13898,7 +13928,7 @@
       <c r="Z37" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA37" s="23" t="n">
+      <c r="AA37" s="24" t="n">
         <v>410.4</v>
       </c>
       <c r="AB37" s="7" t="s">
@@ -13984,7 +14014,7 @@
       <c r="Z38" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA38" s="23" t="n">
+      <c r="AA38" s="24" t="n">
         <v>1995</v>
       </c>
       <c r="AB38" s="7" t="s">
@@ -14070,7 +14100,7 @@
       <c r="Z39" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA39" s="23" t="n">
+      <c r="AA39" s="24" t="n">
         <v>324.5</v>
       </c>
       <c r="AB39" s="7" t="s">
@@ -14156,7 +14186,7 @@
       <c r="Z40" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA40" s="23" t="n">
+      <c r="AA40" s="24" t="n">
         <v>1539</v>
       </c>
       <c r="AB40" s="7" t="s">
@@ -14242,7 +14272,7 @@
       <c r="Z41" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA41" s="23" t="n">
+      <c r="AA41" s="24" t="n">
         <v>105</v>
       </c>
       <c r="AB41" s="7" t="s">

--- a/DaneDoTestów.xlsx
+++ b/DaneDoTestów.xlsx
@@ -676,7 +676,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -710,6 +710,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -856,10 +860,10 @@
   </sheetPr>
   <dimension ref="A1:AX43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AJ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="AO1" activeCellId="0" sqref="AO1"/>
-      <selection pane="bottomLeft" activeCell="AX42" activeCellId="0" sqref="AX42"/>
+      <selection pane="topLeft" activeCell="AJ1" activeCellId="0" sqref="AJ1"/>
+      <selection pane="bottomLeft" activeCell="AZ26" activeCellId="0" sqref="AZ26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8320,28 +8324,28 @@
         <v>30</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J42" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="K42" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>42</v>
@@ -8350,7 +8354,7 @@
         <v>42</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>42</v>
@@ -8363,122 +8367,122 @@
       </c>
       <c r="T42" s="7" t="n">
         <f aca="false">G42*Arkusz3!$B$13+H42*Arkusz3!$B$14+I42*Arkusz3!$B$15</f>
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="U42" s="7" t="n">
         <f aca="false">IF((J42+F42)=1, Arkusz3!$C$5, Arkusz3!$B$5*J42)</f>
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="V42" s="7" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="W42" s="7" t="n">
         <f aca="false">IF(V42&lt;10,T42+U42,0.2*(V42-10)*(T42+U42)+(T42+U42))</f>
-        <v>525</v>
+        <v>120</v>
       </c>
       <c r="X42" s="7" t="n">
         <f aca="false">IF(J42&gt;1,(U42/J42)*(J42-1)*10%,0)</f>
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="8" t="n">
         <f aca="false">W42-X42</f>
-        <v>519.5</v>
+        <v>120</v>
       </c>
       <c r="Z42" s="7" t="n">
         <f aca="false">IF(L42="TAK",Arkusz3!$B$19*J42,0)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA42" s="7" t="n">
         <f aca="false">IF(M42="TAK",Arkusz3!$B$20*J42,0)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AB42" s="7" t="n">
         <f aca="false">IF(N42="TAK",Arkusz3!$B$21*J42,0)</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AC42" s="7" t="n">
         <f aca="false">IF(O42="TAK",Arkusz3!$B$22*J42,0)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AD42" s="7" t="n">
         <f aca="false">IF(P42="TAK",Arkusz3!$B$23*J42,0)</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AE42" s="7" t="n">
         <f aca="false">IF(Q42="TAK",Arkusz3!$B$24*J42,0)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AF42" s="7" t="n">
         <f aca="false">IF(R42="TAK",Arkusz3!$B$25*J42,0)</f>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AG42" s="7" t="n">
         <f aca="false">SUM(Z42:AF42)</f>
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="AH42" s="7" t="n">
         <f aca="false">IF(L42="Nie",0,V42)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AI42" s="7" t="n">
         <f aca="false">IF(M42="Nie",0,V42)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AJ42" s="7" t="n">
         <f aca="false">IF(N42="Nie",0,V42)</f>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AK42" s="7" t="n">
         <f aca="false">IF(O42="Nie",0,V42)</f>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AL42" s="7" t="n">
         <f aca="false">IF(P42="Nie",0,V42)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AM42" s="7" t="n">
         <f aca="false">IF(Q42="Nie",0,V42)</f>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AN42" s="7" t="n">
         <f aca="false">IF(R42="Nie",0,V42)</f>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AO42" s="7" t="n">
         <f aca="false">IF(AH42&gt;5,Z42*0.2*(AH42-5)+Z42,Z42)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AP42" s="7" t="n">
         <f aca="false">IF(AI42&gt;5,AA42*0.2*(AI42-5)+AA42,AA42)</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AQ42" s="7" t="n">
         <f aca="false">IF(AJ42&gt;5,AB42*0.2*(AJ42-5)+AB42,AB42)</f>
-        <v>64</v>
+        <v>20.8</v>
       </c>
       <c r="AR42" s="7" t="n">
         <f aca="false">IF(AK42&gt;5,AC42*0.2*(AK42-5)+AC42,AC42)</f>
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="AS42" s="7" t="n">
         <f aca="false">IF(AL42&gt;5,AD42*0.2*(AL42-5)+AD42,AD42)</f>
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="AT42" s="7" t="n">
         <f aca="false">IF(AM42&gt;5,AE42*0.2*(AM42-5)+AE42,AE42)</f>
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="AU42" s="7" t="n">
         <f aca="false">IF(AN42&gt;5,AF42*0.2*(AN42-5)+AF42,AF42)</f>
-        <v>96</v>
-      </c>
-      <c r="AV42" s="7" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="AV42" s="9" t="n">
         <f aca="false">SUM(AO42:AU42)+Y42</f>
-        <v>1015.5</v>
-      </c>
-      <c r="AW42" s="9" t="n">
+        <v>211</v>
+      </c>
+      <c r="AW42" s="10" t="n">
         <f aca="false">IF(S42="Roczna",AV42*12*0.95,AV42)</f>
-        <v>11576.7</v>
+        <v>2405.4</v>
       </c>
       <c r="AX42" s="7" t="s">
         <v>57</v>
@@ -9475,7 +9479,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9491,68 +9495,68 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="11" t="n">
+      <c r="B1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="12" t="n">
         <v>0.1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="11" t="n">
+      <c r="F1" s="12" t="n">
         <v>0.05</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="12" t="n">
+      <c r="B2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="13" t="n">
         <v>0.2</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7"/>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="14" t="s">
+      <c r="G4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="15" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>131</v>
       </c>
       <c r="B5" s="7" t="n">
@@ -9578,7 +9582,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="G6" s="7" t="s">
@@ -9598,7 +9602,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="G7" s="7" t="s">
@@ -9618,7 +9622,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>141</v>
       </c>
       <c r="B8" s="7" t="n">
@@ -9629,114 +9633,114 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="19" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="20" t="n">
+      <c r="B13" s="21" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="22" t="n">
+      <c r="B14" s="23" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="20" t="n">
+      <c r="B15" s="21" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C19" s="10"/>
+      <c r="B19" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C20" s="10"/>
+      <c r="B20" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="10" t="n">
+      <c r="B21" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="C21" s="10"/>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
+      <c r="B22" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="10" t="n">
+      <c r="B23" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+      <c r="B24" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="10" t="n">
+      <c r="B25" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="C25" s="10"/>
+      <c r="C25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -10754,88 +10758,88 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="23" t="s">
+      <c r="F1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="23" t="s">
+      <c r="J1" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="T1" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="U1" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="V1" s="23" t="s">
+      <c r="V1" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="W1" s="23" t="s">
+      <c r="W1" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="X1" s="23" t="s">
+      <c r="X1" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="Y1" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="Z1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="23" t="s">
+      <c r="AA1" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="23" t="s">
+      <c r="AB1" s="24" t="s">
         <v>37</v>
       </c>
     </row>
@@ -10918,7 +10922,7 @@
       <c r="Z2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA2" s="24" t="n">
+      <c r="AA2" s="25" t="n">
         <v>404.5</v>
       </c>
       <c r="AB2" s="7" t="s">
@@ -11004,7 +11008,7 @@
       <c r="Z3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA3" s="24" t="n">
+      <c r="AA3" s="25" t="n">
         <v>3539.7</v>
       </c>
       <c r="AB3" s="7" t="s">
@@ -11090,7 +11094,7 @@
       <c r="Z4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA4" s="24" t="n">
+      <c r="AA4" s="25" t="n">
         <v>1197</v>
       </c>
       <c r="AB4" s="7" t="s">
@@ -11176,7 +11180,7 @@
       <c r="Z5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA5" s="24" t="n">
+      <c r="AA5" s="25" t="n">
         <v>264.5</v>
       </c>
       <c r="AB5" s="7" t="s">
@@ -11262,7 +11266,7 @@
       <c r="Z6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA6" s="24" t="n">
+      <c r="AA6" s="25" t="n">
         <v>169</v>
       </c>
       <c r="AB6" s="7" t="s">
@@ -11348,7 +11352,7 @@
       <c r="Z7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA7" s="24" t="n">
+      <c r="AA7" s="25" t="n">
         <v>264.5</v>
       </c>
       <c r="AB7" s="7" t="s">
@@ -11434,7 +11438,7 @@
       <c r="Z8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA8" s="24" t="n">
+      <c r="AA8" s="25" t="n">
         <v>175</v>
       </c>
       <c r="AB8" s="7" t="s">
@@ -11520,7 +11524,7 @@
       <c r="Z9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA9" s="24" t="n">
+      <c r="AA9" s="25" t="n">
         <v>200</v>
       </c>
       <c r="AB9" s="7" t="s">
@@ -11606,7 +11610,7 @@
       <c r="Z10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA10" s="24" t="n">
+      <c r="AA10" s="25" t="n">
         <v>95</v>
       </c>
       <c r="AB10" s="7" t="s">
@@ -11692,7 +11696,7 @@
       <c r="Z11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA11" s="24" t="n">
+      <c r="AA11" s="25" t="n">
         <v>95</v>
       </c>
       <c r="AB11" s="7" t="s">
@@ -11778,7 +11782,7 @@
       <c r="Z12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA12" s="24" t="n">
+      <c r="AA12" s="25" t="n">
         <v>284.5</v>
       </c>
       <c r="AB12" s="7" t="s">
@@ -11864,7 +11868,7 @@
       <c r="Z13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA13" s="24" t="n">
+      <c r="AA13" s="25" t="n">
         <v>244.5</v>
       </c>
       <c r="AB13" s="7" t="s">
@@ -11950,7 +11954,7 @@
       <c r="Z14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA14" s="24" t="n">
+      <c r="AA14" s="25" t="n">
         <v>1083</v>
       </c>
       <c r="AB14" s="7" t="s">
@@ -12036,7 +12040,7 @@
       <c r="Z15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA15" s="24" t="n">
+      <c r="AA15" s="25" t="n">
         <v>496.5</v>
       </c>
       <c r="AB15" s="7" t="s">
@@ -12122,7 +12126,7 @@
       <c r="Z16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA16" s="24" t="n">
+      <c r="AA16" s="25" t="n">
         <v>110</v>
       </c>
       <c r="AB16" s="7" t="s">
@@ -12208,7 +12212,7 @@
       <c r="Z17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA17" s="24" t="n">
+      <c r="AA17" s="25" t="n">
         <v>160</v>
       </c>
       <c r="AB17" s="7" t="s">
@@ -12294,7 +12298,7 @@
       <c r="Z18" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA18" s="24" t="n">
+      <c r="AA18" s="25" t="n">
         <v>3608.1</v>
       </c>
       <c r="AB18" s="7" t="s">
@@ -12380,7 +12384,7 @@
       <c r="Z19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA19" s="24" t="n">
+      <c r="AA19" s="25" t="n">
         <v>2946.9</v>
       </c>
       <c r="AB19" s="7" t="s">
@@ -12466,7 +12470,7 @@
       <c r="Z20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA20" s="24" t="n">
+      <c r="AA20" s="25" t="n">
         <v>374.5</v>
       </c>
       <c r="AB20" s="7" t="s">
@@ -12552,7 +12556,7 @@
       <c r="Z21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA21" s="24" t="n">
+      <c r="AA21" s="25" t="n">
         <v>111</v>
       </c>
       <c r="AB21" s="7" t="s">
@@ -12638,7 +12642,7 @@
       <c r="Z22" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA22" s="24" t="n">
+      <c r="AA22" s="25" t="n">
         <v>264.5</v>
       </c>
       <c r="AB22" s="7" t="s">
@@ -12724,7 +12728,7 @@
       <c r="Z23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA23" s="24" t="n">
+      <c r="AA23" s="25" t="n">
         <v>335</v>
       </c>
       <c r="AB23" s="7" t="s">
@@ -12810,7 +12814,7 @@
       <c r="Z24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA24" s="24" t="n">
+      <c r="AA24" s="25" t="n">
         <v>170</v>
       </c>
       <c r="AB24" s="7" t="s">
@@ -12896,7 +12900,7 @@
       <c r="Z25" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA25" s="24" t="n">
+      <c r="AA25" s="25" t="n">
         <v>150</v>
       </c>
       <c r="AB25" s="7" t="s">
@@ -12982,7 +12986,7 @@
       <c r="Z26" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA26" s="24" t="n">
+      <c r="AA26" s="25" t="n">
         <v>170.5</v>
       </c>
       <c r="AB26" s="7" t="s">
@@ -13068,7 +13072,7 @@
       <c r="Z27" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA27" s="24" t="n">
+      <c r="AA27" s="25" t="n">
         <v>374.5</v>
       </c>
       <c r="AB27" s="7" t="s">
@@ -13154,7 +13158,7 @@
       <c r="Z28" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA28" s="24" t="n">
+      <c r="AA28" s="25" t="n">
         <v>135</v>
       </c>
       <c r="AB28" s="7" t="s">
@@ -13240,7 +13244,7 @@
       <c r="Z29" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA29" s="24" t="n">
+      <c r="AA29" s="25" t="n">
         <v>145</v>
       </c>
       <c r="AB29" s="7" t="s">
@@ -13326,7 +13330,7 @@
       <c r="Z30" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA30" s="24" t="n">
+      <c r="AA30" s="25" t="n">
         <v>534.5</v>
       </c>
       <c r="AB30" s="7" t="s">
@@ -13412,7 +13416,7 @@
       <c r="Z31" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA31" s="24" t="n">
+      <c r="AA31" s="25" t="n">
         <v>86</v>
       </c>
       <c r="AB31" s="7" t="s">
@@ -13498,7 +13502,7 @@
       <c r="Z32" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA32" s="24" t="n">
+      <c r="AA32" s="25" t="n">
         <v>190</v>
       </c>
       <c r="AB32" s="7" t="s">
@@ -13584,7 +13588,7 @@
       <c r="Z33" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA33" s="24" t="n">
+      <c r="AA33" s="25" t="n">
         <v>304.5</v>
       </c>
       <c r="AB33" s="7" t="s">
@@ -13670,7 +13674,7 @@
       <c r="Z34" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA34" s="24" t="n">
+      <c r="AA34" s="25" t="n">
         <v>55</v>
       </c>
       <c r="AB34" s="7" t="s">
@@ -13756,7 +13760,7 @@
       <c r="Z35" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA35" s="24" t="n">
+      <c r="AA35" s="25" t="n">
         <v>215</v>
       </c>
       <c r="AB35" s="7" t="s">
@@ -13842,7 +13846,7 @@
       <c r="Z36" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA36" s="24" t="n">
+      <c r="AA36" s="25" t="n">
         <v>4611.3</v>
       </c>
       <c r="AB36" s="7" t="s">
@@ -13928,7 +13932,7 @@
       <c r="Z37" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA37" s="24" t="n">
+      <c r="AA37" s="25" t="n">
         <v>410.4</v>
       </c>
       <c r="AB37" s="7" t="s">
@@ -14014,7 +14018,7 @@
       <c r="Z38" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA38" s="24" t="n">
+      <c r="AA38" s="25" t="n">
         <v>1995</v>
       </c>
       <c r="AB38" s="7" t="s">
@@ -14100,7 +14104,7 @@
       <c r="Z39" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA39" s="24" t="n">
+      <c r="AA39" s="25" t="n">
         <v>324.5</v>
       </c>
       <c r="AB39" s="7" t="s">
@@ -14186,7 +14190,7 @@
       <c r="Z40" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA40" s="24" t="n">
+      <c r="AA40" s="25" t="n">
         <v>1539</v>
       </c>
       <c r="AB40" s="7" t="s">
@@ -14272,7 +14276,7 @@
       <c r="Z41" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA41" s="24" t="n">
+      <c r="AA41" s="25" t="n">
         <v>105</v>
       </c>
       <c r="AB41" s="7" t="s">
